--- a/Code/Results/Cases/Case_0_43/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_43/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8992346726906298</v>
+        <v>0.8992346726906253</v>
       </c>
       <c r="D2">
-        <v>0.9093706611346785</v>
+        <v>0.909370661134674</v>
       </c>
       <c r="E2">
-        <v>0.9188347307050193</v>
+        <v>0.9188347307050154</v>
       </c>
       <c r="F2">
-        <v>0.9055743492666489</v>
+        <v>0.9055743492666443</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.028425550120914</v>
       </c>
       <c r="J2">
-        <v>0.9249122481191079</v>
+        <v>0.9249122481191037</v>
       </c>
       <c r="K2">
-        <v>0.9222557808191156</v>
+        <v>0.9222557808191112</v>
       </c>
       <c r="L2">
-        <v>0.9315539506885481</v>
+        <v>0.9315539506885443</v>
       </c>
       <c r="M2">
-        <v>0.9185272822133346</v>
+        <v>0.9185272822133298</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9207739295098821</v>
+        <v>0.9207739295098838</v>
       </c>
       <c r="D3">
-        <v>0.9300146081640553</v>
+        <v>0.9300146081640573</v>
       </c>
       <c r="E3">
-        <v>0.9374070066875945</v>
+        <v>0.9374070066875962</v>
       </c>
       <c r="F3">
-        <v>0.9273708529245157</v>
+        <v>0.9273708529245182</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.032645171899963</v>
       </c>
       <c r="J3">
-        <v>0.943684953899566</v>
+        <v>0.9436849538995676</v>
       </c>
       <c r="K3">
-        <v>0.9416288641562364</v>
+        <v>0.9416288641562381</v>
       </c>
       <c r="L3">
-        <v>0.9489087928577444</v>
+        <v>0.9489087928577461</v>
       </c>
       <c r="M3">
-        <v>0.9390258876409157</v>
+        <v>0.9390258876409182</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.933417117306362</v>
+        <v>0.9334171173063649</v>
       </c>
       <c r="D4">
-        <v>0.9421441942889474</v>
+        <v>0.9421441942889507</v>
       </c>
       <c r="E4">
-        <v>0.9483283752127755</v>
+        <v>0.9483283752127789</v>
       </c>
       <c r="F4">
-        <v>0.9401866101085743</v>
+        <v>0.940186610108578</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.035088776297916</v>
       </c>
       <c r="J4">
-        <v>0.954692279773704</v>
+        <v>0.954692279773707</v>
       </c>
       <c r="K4">
-        <v>0.9529949665973667</v>
+        <v>0.9529949665973699</v>
       </c>
       <c r="L4">
-        <v>0.9590932093700034</v>
+        <v>0.9590932093700067</v>
       </c>
       <c r="M4">
-        <v>0.9510648835134523</v>
+        <v>0.951064883513456</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9384750860173162</v>
+        <v>0.938475086017318</v>
       </c>
       <c r="D5">
-        <v>0.9469990067700567</v>
+        <v>0.946999006770059</v>
       </c>
       <c r="E5">
-        <v>0.952701457739206</v>
+        <v>0.9527014577392079</v>
       </c>
       <c r="F5">
-        <v>0.9453184151318716</v>
+        <v>0.9453184151318738</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.036057216677575</v>
       </c>
       <c r="J5">
-        <v>0.9590925553988303</v>
+        <v>0.9590925553988322</v>
       </c>
       <c r="K5">
-        <v>0.957540270773938</v>
+        <v>0.9575402707739401</v>
       </c>
       <c r="L5">
-        <v>0.9631664387862159</v>
+        <v>0.9631664387862178</v>
       </c>
       <c r="M5">
-        <v>0.9558823816179931</v>
+        <v>0.9558823816179951</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9393104966005147</v>
+        <v>0.9393104966005168</v>
       </c>
       <c r="D6">
-        <v>0.9478009857542461</v>
+        <v>0.9478009857542482</v>
       </c>
       <c r="E6">
-        <v>0.9534239603450674</v>
+        <v>0.9534239603450694</v>
       </c>
       <c r="F6">
-        <v>0.9461662948499281</v>
+        <v>0.9461662948499305</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.036216603797432</v>
       </c>
       <c r="J6">
-        <v>0.9598191352392109</v>
+        <v>0.9598191352392129</v>
       </c>
       <c r="K6">
-        <v>0.9582908921809276</v>
+        <v>0.9582908921809296</v>
       </c>
       <c r="L6">
-        <v>0.9638391268282571</v>
+        <v>0.9638391268282588</v>
       </c>
       <c r="M6">
-        <v>0.9566781388639085</v>
+        <v>0.9566781388639106</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9334856550518799</v>
+        <v>0.9334856550518779</v>
       </c>
       <c r="D7">
-        <v>0.9422099705356579</v>
+        <v>0.9422099705356559</v>
       </c>
       <c r="E7">
-        <v>0.9483876175875741</v>
+        <v>0.9483876175875724</v>
       </c>
       <c r="F7">
-        <v>0.9402561295781953</v>
+        <v>0.9402561295781934</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035101937041199</v>
+        <v>1.035101937041198</v>
       </c>
       <c r="J7">
-        <v>0.9547519189725709</v>
+        <v>0.9547519189725692</v>
       </c>
       <c r="K7">
-        <v>0.953056565031533</v>
+        <v>0.9530565650315311</v>
       </c>
       <c r="L7">
-        <v>0.9591484083778684</v>
+        <v>0.9591484083778666</v>
       </c>
       <c r="M7">
-        <v>0.95113015821339</v>
+        <v>0.951130158213388</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9068194706908527</v>
+        <v>0.9068194706908546</v>
       </c>
       <c r="D8">
-        <v>0.9166371339787444</v>
+        <v>0.9166371339787468</v>
       </c>
       <c r="E8">
-        <v>0.9253697710366806</v>
+        <v>0.9253697710366831</v>
       </c>
       <c r="F8">
-        <v>0.9132446875508902</v>
+        <v>0.9132446875508927</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.029917925901593</v>
       </c>
       <c r="J8">
-        <v>0.9315251724753386</v>
+        <v>0.9315251724753408</v>
       </c>
       <c r="K8">
-        <v>0.9290786944370776</v>
+        <v>0.9290786944370801</v>
       </c>
       <c r="L8">
-        <v>0.9376654646720589</v>
+        <v>0.9376654646720614</v>
       </c>
       <c r="M8">
-        <v>0.9257438860245039</v>
+        <v>0.9257438860245063</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8460247545677558</v>
+        <v>0.8460247545677518</v>
       </c>
       <c r="D9">
-        <v>0.8584994270546582</v>
+        <v>0.858499427054654</v>
       </c>
       <c r="E9">
-        <v>0.8731546647142269</v>
+        <v>0.8731546647142231</v>
       </c>
       <c r="F9">
-        <v>0.8519034431821602</v>
+        <v>0.8519034431821559</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.017874582822633</v>
+        <v>1.017874582822632</v>
       </c>
       <c r="J9">
-        <v>0.87849331509621</v>
+        <v>0.8784933150962062</v>
       </c>
       <c r="K9">
-        <v>0.8743980257227508</v>
+        <v>0.8743980257227468</v>
       </c>
       <c r="L9">
-        <v>0.888706192872758</v>
+        <v>0.8887061928727544</v>
       </c>
       <c r="M9">
-        <v>0.8679635026000697</v>
+        <v>0.8679635026000654</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7837574735699492</v>
+        <v>0.7837574735699495</v>
       </c>
       <c r="D10">
-        <v>0.7992569166909622</v>
+        <v>0.7992569166909623</v>
       </c>
       <c r="E10">
-        <v>0.8201297146452193</v>
+        <v>0.8201297146452197</v>
       </c>
       <c r="F10">
-        <v>0.7893714239389514</v>
+        <v>0.7893714239389518</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.00567939715111</v>
+        <v>1.005679397151111</v>
       </c>
       <c r="J10">
-        <v>0.8242567796735144</v>
+        <v>0.8242567796735147</v>
       </c>
       <c r="K10">
-        <v>0.8185275884249097</v>
+        <v>0.81852758842491</v>
       </c>
       <c r="L10">
-        <v>0.8387360503450286</v>
+        <v>0.838736050345029</v>
       </c>
       <c r="M10">
-        <v>0.8089738577326372</v>
+        <v>0.8089738577326377</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.739397527906275</v>
+        <v>0.7393975279062802</v>
       </c>
       <c r="D11">
-        <v>0.7572998789999302</v>
+        <v>0.7572998789999351</v>
       </c>
       <c r="E11">
-        <v>0.782708376773298</v>
+        <v>0.7827083767733026</v>
       </c>
       <c r="F11">
-        <v>0.7449901161337495</v>
+        <v>0.7449901161337551</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>0.9973152944141292</v>
+        <v>0.9973152944141306</v>
       </c>
       <c r="J11">
-        <v>0.7857919983458304</v>
+        <v>0.785791998345835</v>
       </c>
       <c r="K11">
-        <v>0.778913615142326</v>
+        <v>0.778913615142331</v>
       </c>
       <c r="L11">
-        <v>0.80334672272285</v>
+        <v>0.8033467227228543</v>
       </c>
       <c r="M11">
-        <v>0.7671105840252479</v>
+        <v>0.767110584025253</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7129428017753657</v>
+        <v>0.7129428017753605</v>
       </c>
       <c r="D12">
-        <v>0.7324023902199019</v>
+        <v>0.7324023902198967</v>
       </c>
       <c r="E12">
-        <v>0.7605633713910546</v>
+        <v>0.7605633713910499</v>
       </c>
       <c r="F12">
-        <v>0.7185894265816902</v>
+        <v>0.7185894265816847</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0.9925161332598677</v>
+        <v>0.9925161332598668</v>
       </c>
       <c r="J12">
-        <v>0.7629639251689804</v>
+        <v>0.7629639251689757</v>
       </c>
       <c r="K12">
-        <v>0.7554011383596937</v>
+        <v>0.7554011383596889</v>
       </c>
       <c r="L12">
-        <v>0.7823610269456965</v>
+        <v>0.7823610269456923</v>
       </c>
       <c r="M12">
-        <v>0.7422270858928913</v>
+        <v>0.7422270858928863</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7196866957730269</v>
+        <v>0.7196866957730256</v>
       </c>
       <c r="D13">
-        <v>0.7387393993958322</v>
+        <v>0.738739399395831</v>
       </c>
       <c r="E13">
-        <v>0.7661951189900591</v>
+        <v>0.7661951189900578</v>
       </c>
       <c r="F13">
-        <v>0.7253146728834476</v>
+        <v>0.7253146728834465</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0.9937242589384209</v>
+        <v>0.9937242589384205</v>
       </c>
       <c r="J13">
-        <v>0.7687738429336136</v>
+        <v>0.7687738429336125</v>
       </c>
       <c r="K13">
-        <v>0.7613856138446692</v>
+        <v>0.7613856138446681</v>
       </c>
       <c r="L13">
-        <v>0.7877008879003781</v>
+        <v>0.787700887900377</v>
       </c>
       <c r="M13">
-        <v>0.7485638387300817</v>
+        <v>0.7485638387300805</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.737577565016365</v>
+        <v>0.7375775650163573</v>
       </c>
       <c r="D14">
-        <v>0.7555838159328413</v>
+        <v>0.755583815932834</v>
       </c>
       <c r="E14">
-        <v>0.7811804817575214</v>
+        <v>0.7811804817575149</v>
       </c>
       <c r="F14">
-        <v>0.7431722442520815</v>
+        <v>0.7431722442520737</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>0.996980150982709</v>
+        <v>0.9969801509827079</v>
       </c>
       <c r="J14">
-        <v>0.7842184973067767</v>
+        <v>0.78421849730677</v>
       </c>
       <c r="K14">
-        <v>0.7772930458700699</v>
+        <v>0.7772930458700629</v>
       </c>
       <c r="L14">
-        <v>0.8018998177318866</v>
+        <v>0.8018998177318801</v>
       </c>
       <c r="M14">
-        <v>0.7653965654656848</v>
+        <v>0.7653965654656775</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7466496238278781</v>
+        <v>0.7466496238278792</v>
       </c>
       <c r="D15">
-        <v>0.764142406989415</v>
+        <v>0.7641424069894163</v>
       </c>
       <c r="E15">
-        <v>0.7888027903839205</v>
+        <v>0.7888027903839213</v>
       </c>
       <c r="F15">
-        <v>0.7522362269538722</v>
+        <v>0.7522362269538733</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0.9986575856144104</v>
+        <v>0.9986575856144103</v>
       </c>
       <c r="J15">
-        <v>0.7920660391360084</v>
+        <v>0.7920660391360094</v>
       </c>
       <c r="K15">
-        <v>0.7853752279251212</v>
+        <v>0.7853752279251225</v>
       </c>
       <c r="L15">
-        <v>0.8091165817284919</v>
+        <v>0.8091165817284925</v>
       </c>
       <c r="M15">
-        <v>0.7739434677139182</v>
+        <v>0.7739434677139193</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7860823835544311</v>
+        <v>0.7860823835544314</v>
       </c>
       <c r="D16">
-        <v>0.8014621778437461</v>
+        <v>0.8014621778437464</v>
       </c>
       <c r="E16">
-        <v>0.8220998257419164</v>
+        <v>0.822099825741917</v>
       </c>
       <c r="F16">
-        <v>0.7917012557300075</v>
+        <v>0.791701255730008</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.006126872480315</v>
       </c>
       <c r="J16">
-        <v>0.8262777603809549</v>
+        <v>0.8262777603809552</v>
       </c>
       <c r="K16">
-        <v>0.8206090025093957</v>
+        <v>0.8206090025093961</v>
       </c>
       <c r="L16">
-        <v>0.8405965101404799</v>
+        <v>0.84059651014048</v>
       </c>
       <c r="M16">
-        <v>0.8111720498977839</v>
+        <v>0.8111720498977844</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8047728690277427</v>
+        <v>0.8047728690277396</v>
       </c>
       <c r="D17">
-        <v>0.8192110251404184</v>
+        <v>0.8192110251404154</v>
       </c>
       <c r="E17">
-        <v>0.8379669960168805</v>
+        <v>0.8379669960168776</v>
       </c>
       <c r="F17">
-        <v>0.8104451000446785</v>
+        <v>0.8104451000446752</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.009750846502781</v>
+        <v>1.00975084650278</v>
       </c>
       <c r="J17">
-        <v>0.8425389145283473</v>
+        <v>0.8425389145283442</v>
       </c>
       <c r="K17">
-        <v>0.8373572498162319</v>
+        <v>0.8373572498162289</v>
       </c>
       <c r="L17">
-        <v>0.8555702237757823</v>
+        <v>0.8555702237757796</v>
       </c>
       <c r="M17">
-        <v>0.8288570071195256</v>
+        <v>0.8288570071195225</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8144445382786868</v>
+        <v>0.8144445382786827</v>
       </c>
       <c r="D18">
-        <v>0.8284088436846688</v>
+        <v>0.8284088436846646</v>
       </c>
       <c r="E18">
-        <v>0.8461970642229598</v>
+        <v>0.846197064222956</v>
       </c>
       <c r="F18">
-        <v>0.8201540863394527</v>
+        <v>0.8201540863394488</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.011642482077618</v>
+        <v>1.011642482077617</v>
       </c>
       <c r="J18">
-        <v>0.8509619627520217</v>
+        <v>0.850961962752018</v>
       </c>
       <c r="K18">
-        <v>0.8460334084965265</v>
+        <v>0.8460334084965225</v>
       </c>
       <c r="L18">
-        <v>0.8633293931112691</v>
+        <v>0.8633293931112657</v>
       </c>
       <c r="M18">
-        <v>0.8380170407659111</v>
+        <v>0.8380170407659073</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8175777466190896</v>
+        <v>0.8175777466190881</v>
       </c>
       <c r="D19">
-        <v>0.8313904033696944</v>
+        <v>0.8313904033696932</v>
       </c>
       <c r="E19">
-        <v>0.8488659620602637</v>
+        <v>0.8488659620602623</v>
       </c>
       <c r="F19">
-        <v>0.8233008189077736</v>
+        <v>0.8233008189077722</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.012257336395746</v>
       </c>
       <c r="J19">
-        <v>0.8536917140884283</v>
+        <v>0.8536917140884269</v>
       </c>
       <c r="K19">
-        <v>0.8488453393404385</v>
+        <v>0.8488453393404369</v>
       </c>
       <c r="L19">
-        <v>0.8658444494378266</v>
+        <v>0.8658444494378253</v>
       </c>
       <c r="M19">
-        <v>0.8409856978000579</v>
+        <v>0.8409856978000564</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8029067775297881</v>
+        <v>0.8029067775297839</v>
       </c>
       <c r="D20">
-        <v>0.8174373829391912</v>
+        <v>0.8174373829391869</v>
       </c>
       <c r="E20">
-        <v>0.8363805360570403</v>
+        <v>0.8363805360570364</v>
       </c>
       <c r="F20">
-        <v>0.8085725741506735</v>
+        <v>0.8085725741506687</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.009387052448122</v>
+        <v>1.009387052448121</v>
       </c>
       <c r="J20">
-        <v>0.8409143455977185</v>
+        <v>0.8409143455977142</v>
       </c>
       <c r="K20">
-        <v>0.8356839355624486</v>
+        <v>0.8356839355624441</v>
       </c>
       <c r="L20">
-        <v>0.8540739383330528</v>
+        <v>0.854073938333049</v>
       </c>
       <c r="M20">
-        <v>0.8270902930643701</v>
+        <v>0.8270902930643659</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7328022116310816</v>
+        <v>0.7328022116310838</v>
       </c>
       <c r="D21">
-        <v>0.7510832671288861</v>
+        <v>0.7510832671288881</v>
       </c>
       <c r="E21">
-        <v>0.7771744815443412</v>
+        <v>0.777174481544343</v>
       </c>
       <c r="F21">
-        <v>0.7384035077271609</v>
+        <v>0.738403507727163</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>0.9961041420041139</v>
+        <v>0.996104142004114</v>
       </c>
       <c r="J21">
-        <v>0.7800918406341577</v>
+        <v>0.7800918406341598</v>
       </c>
       <c r="K21">
-        <v>0.7730428882609185</v>
+        <v>0.7730428882609204</v>
       </c>
       <c r="L21">
-        <v>0.7981054533323149</v>
+        <v>0.7981054533323167</v>
       </c>
       <c r="M21">
-        <v>0.7609006472817994</v>
+        <v>0.7609006472818016</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7328022116310816</v>
+        <v>0.7328022116310838</v>
       </c>
       <c r="D22">
-        <v>0.7510832671288861</v>
+        <v>0.7510832671288881</v>
       </c>
       <c r="E22">
-        <v>0.7771744815443412</v>
+        <v>0.777174481544343</v>
       </c>
       <c r="F22">
-        <v>0.7384035077271609</v>
+        <v>0.738403507727163</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0.9961041420041139</v>
+        <v>0.996104142004114</v>
       </c>
       <c r="J22">
-        <v>0.7800918406341577</v>
+        <v>0.7800918406341598</v>
       </c>
       <c r="K22">
-        <v>0.7730428882609185</v>
+        <v>0.7730428882609204</v>
       </c>
       <c r="L22">
-        <v>0.7981054533323149</v>
+        <v>0.7981054533323167</v>
       </c>
       <c r="M22">
-        <v>0.7609006472817994</v>
+        <v>0.7609006472818016</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7328022116310816</v>
+        <v>0.7328022116310838</v>
       </c>
       <c r="D23">
-        <v>0.7510832671288861</v>
+        <v>0.7510832671288881</v>
       </c>
       <c r="E23">
-        <v>0.7771744815443412</v>
+        <v>0.777174481544343</v>
       </c>
       <c r="F23">
-        <v>0.7384035077271609</v>
+        <v>0.738403507727163</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0.9961041420041139</v>
+        <v>0.996104142004114</v>
       </c>
       <c r="J23">
-        <v>0.7800918406341577</v>
+        <v>0.7800918406341598</v>
       </c>
       <c r="K23">
-        <v>0.7730428882609185</v>
+        <v>0.7730428882609204</v>
       </c>
       <c r="L23">
-        <v>0.7981054533323149</v>
+        <v>0.7981054533323167</v>
       </c>
       <c r="M23">
-        <v>0.7609006472817994</v>
+        <v>0.7609006472818016</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7328022116310816</v>
+        <v>0.7328022116310838</v>
       </c>
       <c r="D24">
-        <v>0.7510832671288861</v>
+        <v>0.7510832671288881</v>
       </c>
       <c r="E24">
-        <v>0.7771744815443412</v>
+        <v>0.777174481544343</v>
       </c>
       <c r="F24">
-        <v>0.7384035077271609</v>
+        <v>0.738403507727163</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>0.9961041420041139</v>
+        <v>0.996104142004114</v>
       </c>
       <c r="J24">
-        <v>0.7800918406341577</v>
+        <v>0.7800918406341598</v>
       </c>
       <c r="K24">
-        <v>0.7730428882609185</v>
+        <v>0.7730428882609204</v>
       </c>
       <c r="L24">
-        <v>0.7981054533323149</v>
+        <v>0.7981054533323167</v>
       </c>
       <c r="M24">
-        <v>0.7609006472817994</v>
+        <v>0.7609006472818016</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7328022116310816</v>
+        <v>0.7328022116310838</v>
       </c>
       <c r="D25">
-        <v>0.7510832671288861</v>
+        <v>0.7510832671288881</v>
       </c>
       <c r="E25">
-        <v>0.7771744815443412</v>
+        <v>0.777174481544343</v>
       </c>
       <c r="F25">
-        <v>0.7384035077271609</v>
+        <v>0.738403507727163</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>0.9961041420041139</v>
+        <v>0.996104142004114</v>
       </c>
       <c r="J25">
-        <v>0.7800918406341577</v>
+        <v>0.7800918406341598</v>
       </c>
       <c r="K25">
-        <v>0.7730428882609185</v>
+        <v>0.7730428882609204</v>
       </c>
       <c r="L25">
-        <v>0.7981054533323149</v>
+        <v>0.7981054533323167</v>
       </c>
       <c r="M25">
-        <v>0.7609006472817994</v>
+        <v>0.7609006472818016</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_43/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_43/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8992346726906253</v>
+        <v>0.8992346726906298</v>
       </c>
       <c r="D2">
-        <v>0.909370661134674</v>
+        <v>0.9093706611346785</v>
       </c>
       <c r="E2">
-        <v>0.9188347307050154</v>
+        <v>0.9188347307050193</v>
       </c>
       <c r="F2">
-        <v>0.9055743492666443</v>
+        <v>0.9055743492666489</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.028425550120914</v>
       </c>
       <c r="J2">
-        <v>0.9249122481191037</v>
+        <v>0.9249122481191079</v>
       </c>
       <c r="K2">
-        <v>0.9222557808191112</v>
+        <v>0.9222557808191156</v>
       </c>
       <c r="L2">
-        <v>0.9315539506885443</v>
+        <v>0.9315539506885481</v>
       </c>
       <c r="M2">
-        <v>0.9185272822133298</v>
+        <v>0.9185272822133346</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9207739295098838</v>
+        <v>0.9207739295098821</v>
       </c>
       <c r="D3">
-        <v>0.9300146081640573</v>
+        <v>0.9300146081640553</v>
       </c>
       <c r="E3">
-        <v>0.9374070066875962</v>
+        <v>0.9374070066875945</v>
       </c>
       <c r="F3">
-        <v>0.9273708529245182</v>
+        <v>0.9273708529245157</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.032645171899963</v>
       </c>
       <c r="J3">
-        <v>0.9436849538995676</v>
+        <v>0.943684953899566</v>
       </c>
       <c r="K3">
-        <v>0.9416288641562381</v>
+        <v>0.9416288641562364</v>
       </c>
       <c r="L3">
-        <v>0.9489087928577461</v>
+        <v>0.9489087928577444</v>
       </c>
       <c r="M3">
-        <v>0.9390258876409182</v>
+        <v>0.9390258876409157</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9334171173063649</v>
+        <v>0.933417117306362</v>
       </c>
       <c r="D4">
-        <v>0.9421441942889507</v>
+        <v>0.9421441942889474</v>
       </c>
       <c r="E4">
-        <v>0.9483283752127789</v>
+        <v>0.9483283752127755</v>
       </c>
       <c r="F4">
-        <v>0.940186610108578</v>
+        <v>0.9401866101085743</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.035088776297916</v>
       </c>
       <c r="J4">
-        <v>0.954692279773707</v>
+        <v>0.954692279773704</v>
       </c>
       <c r="K4">
-        <v>0.9529949665973699</v>
+        <v>0.9529949665973667</v>
       </c>
       <c r="L4">
-        <v>0.9590932093700067</v>
+        <v>0.9590932093700034</v>
       </c>
       <c r="M4">
-        <v>0.951064883513456</v>
+        <v>0.9510648835134523</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.938475086017318</v>
+        <v>0.9384750860173162</v>
       </c>
       <c r="D5">
-        <v>0.946999006770059</v>
+        <v>0.9469990067700567</v>
       </c>
       <c r="E5">
-        <v>0.9527014577392079</v>
+        <v>0.952701457739206</v>
       </c>
       <c r="F5">
-        <v>0.9453184151318738</v>
+        <v>0.9453184151318716</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.036057216677575</v>
       </c>
       <c r="J5">
-        <v>0.9590925553988322</v>
+        <v>0.9590925553988303</v>
       </c>
       <c r="K5">
-        <v>0.9575402707739401</v>
+        <v>0.957540270773938</v>
       </c>
       <c r="L5">
-        <v>0.9631664387862178</v>
+        <v>0.9631664387862159</v>
       </c>
       <c r="M5">
-        <v>0.9558823816179951</v>
+        <v>0.9558823816179931</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9393104966005168</v>
+        <v>0.9393104966005147</v>
       </c>
       <c r="D6">
-        <v>0.9478009857542482</v>
+        <v>0.9478009857542461</v>
       </c>
       <c r="E6">
-        <v>0.9534239603450694</v>
+        <v>0.9534239603450674</v>
       </c>
       <c r="F6">
-        <v>0.9461662948499305</v>
+        <v>0.9461662948499281</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.036216603797432</v>
       </c>
       <c r="J6">
-        <v>0.9598191352392129</v>
+        <v>0.9598191352392109</v>
       </c>
       <c r="K6">
-        <v>0.9582908921809296</v>
+        <v>0.9582908921809276</v>
       </c>
       <c r="L6">
-        <v>0.9638391268282588</v>
+        <v>0.9638391268282571</v>
       </c>
       <c r="M6">
-        <v>0.9566781388639106</v>
+        <v>0.9566781388639085</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9334856550518779</v>
+        <v>0.9334856550518799</v>
       </c>
       <c r="D7">
-        <v>0.9422099705356559</v>
+        <v>0.9422099705356579</v>
       </c>
       <c r="E7">
-        <v>0.9483876175875724</v>
+        <v>0.9483876175875741</v>
       </c>
       <c r="F7">
-        <v>0.9402561295781934</v>
+        <v>0.9402561295781953</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035101937041198</v>
+        <v>1.035101937041199</v>
       </c>
       <c r="J7">
-        <v>0.9547519189725692</v>
+        <v>0.9547519189725709</v>
       </c>
       <c r="K7">
-        <v>0.9530565650315311</v>
+        <v>0.953056565031533</v>
       </c>
       <c r="L7">
-        <v>0.9591484083778666</v>
+        <v>0.9591484083778684</v>
       </c>
       <c r="M7">
-        <v>0.951130158213388</v>
+        <v>0.95113015821339</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9068194706908546</v>
+        <v>0.9068194706908527</v>
       </c>
       <c r="D8">
-        <v>0.9166371339787468</v>
+        <v>0.9166371339787444</v>
       </c>
       <c r="E8">
-        <v>0.9253697710366831</v>
+        <v>0.9253697710366806</v>
       </c>
       <c r="F8">
-        <v>0.9132446875508927</v>
+        <v>0.9132446875508902</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.029917925901593</v>
       </c>
       <c r="J8">
-        <v>0.9315251724753408</v>
+        <v>0.9315251724753386</v>
       </c>
       <c r="K8">
-        <v>0.9290786944370801</v>
+        <v>0.9290786944370776</v>
       </c>
       <c r="L8">
-        <v>0.9376654646720614</v>
+        <v>0.9376654646720589</v>
       </c>
       <c r="M8">
-        <v>0.9257438860245063</v>
+        <v>0.9257438860245039</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8460247545677518</v>
+        <v>0.8460247545677558</v>
       </c>
       <c r="D9">
-        <v>0.858499427054654</v>
+        <v>0.8584994270546582</v>
       </c>
       <c r="E9">
-        <v>0.8731546647142231</v>
+        <v>0.8731546647142269</v>
       </c>
       <c r="F9">
-        <v>0.8519034431821559</v>
+        <v>0.8519034431821602</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.017874582822632</v>
+        <v>1.017874582822633</v>
       </c>
       <c r="J9">
-        <v>0.8784933150962062</v>
+        <v>0.87849331509621</v>
       </c>
       <c r="K9">
-        <v>0.8743980257227468</v>
+        <v>0.8743980257227508</v>
       </c>
       <c r="L9">
-        <v>0.8887061928727544</v>
+        <v>0.888706192872758</v>
       </c>
       <c r="M9">
-        <v>0.8679635026000654</v>
+        <v>0.8679635026000697</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7837574735699495</v>
+        <v>0.7837574735699492</v>
       </c>
       <c r="D10">
-        <v>0.7992569166909623</v>
+        <v>0.7992569166909622</v>
       </c>
       <c r="E10">
-        <v>0.8201297146452197</v>
+        <v>0.8201297146452193</v>
       </c>
       <c r="F10">
-        <v>0.7893714239389518</v>
+        <v>0.7893714239389514</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.005679397151111</v>
+        <v>1.00567939715111</v>
       </c>
       <c r="J10">
-        <v>0.8242567796735147</v>
+        <v>0.8242567796735144</v>
       </c>
       <c r="K10">
-        <v>0.81852758842491</v>
+        <v>0.8185275884249097</v>
       </c>
       <c r="L10">
-        <v>0.838736050345029</v>
+        <v>0.8387360503450286</v>
       </c>
       <c r="M10">
-        <v>0.8089738577326377</v>
+        <v>0.8089738577326372</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7393975279062802</v>
+        <v>0.739397527906275</v>
       </c>
       <c r="D11">
-        <v>0.7572998789999351</v>
+        <v>0.7572998789999302</v>
       </c>
       <c r="E11">
-        <v>0.7827083767733026</v>
+        <v>0.782708376773298</v>
       </c>
       <c r="F11">
-        <v>0.7449901161337551</v>
+        <v>0.7449901161337495</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>0.9973152944141306</v>
+        <v>0.9973152944141292</v>
       </c>
       <c r="J11">
-        <v>0.785791998345835</v>
+        <v>0.7857919983458304</v>
       </c>
       <c r="K11">
-        <v>0.778913615142331</v>
+        <v>0.778913615142326</v>
       </c>
       <c r="L11">
-        <v>0.8033467227228543</v>
+        <v>0.80334672272285</v>
       </c>
       <c r="M11">
-        <v>0.767110584025253</v>
+        <v>0.7671105840252479</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7129428017753605</v>
+        <v>0.7129428017753657</v>
       </c>
       <c r="D12">
-        <v>0.7324023902198967</v>
+        <v>0.7324023902199019</v>
       </c>
       <c r="E12">
-        <v>0.7605633713910499</v>
+        <v>0.7605633713910546</v>
       </c>
       <c r="F12">
-        <v>0.7185894265816847</v>
+        <v>0.7185894265816902</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0.9925161332598668</v>
+        <v>0.9925161332598677</v>
       </c>
       <c r="J12">
-        <v>0.7629639251689757</v>
+        <v>0.7629639251689804</v>
       </c>
       <c r="K12">
-        <v>0.7554011383596889</v>
+        <v>0.7554011383596937</v>
       </c>
       <c r="L12">
-        <v>0.7823610269456923</v>
+        <v>0.7823610269456965</v>
       </c>
       <c r="M12">
-        <v>0.7422270858928863</v>
+        <v>0.7422270858928913</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7196866957730256</v>
+        <v>0.7196866957730269</v>
       </c>
       <c r="D13">
-        <v>0.738739399395831</v>
+        <v>0.7387393993958322</v>
       </c>
       <c r="E13">
-        <v>0.7661951189900578</v>
+        <v>0.7661951189900591</v>
       </c>
       <c r="F13">
-        <v>0.7253146728834465</v>
+        <v>0.7253146728834476</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0.9937242589384205</v>
+        <v>0.9937242589384209</v>
       </c>
       <c r="J13">
-        <v>0.7687738429336125</v>
+        <v>0.7687738429336136</v>
       </c>
       <c r="K13">
-        <v>0.7613856138446681</v>
+        <v>0.7613856138446692</v>
       </c>
       <c r="L13">
-        <v>0.787700887900377</v>
+        <v>0.7877008879003781</v>
       </c>
       <c r="M13">
-        <v>0.7485638387300805</v>
+        <v>0.7485638387300817</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7375775650163573</v>
+        <v>0.737577565016365</v>
       </c>
       <c r="D14">
-        <v>0.755583815932834</v>
+        <v>0.7555838159328413</v>
       </c>
       <c r="E14">
-        <v>0.7811804817575149</v>
+        <v>0.7811804817575214</v>
       </c>
       <c r="F14">
-        <v>0.7431722442520737</v>
+        <v>0.7431722442520815</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>0.9969801509827079</v>
+        <v>0.996980150982709</v>
       </c>
       <c r="J14">
-        <v>0.78421849730677</v>
+        <v>0.7842184973067767</v>
       </c>
       <c r="K14">
-        <v>0.7772930458700629</v>
+        <v>0.7772930458700699</v>
       </c>
       <c r="L14">
-        <v>0.8018998177318801</v>
+        <v>0.8018998177318866</v>
       </c>
       <c r="M14">
-        <v>0.7653965654656775</v>
+        <v>0.7653965654656848</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7466496238278792</v>
+        <v>0.7466496238278781</v>
       </c>
       <c r="D15">
-        <v>0.7641424069894163</v>
+        <v>0.764142406989415</v>
       </c>
       <c r="E15">
-        <v>0.7888027903839213</v>
+        <v>0.7888027903839205</v>
       </c>
       <c r="F15">
-        <v>0.7522362269538733</v>
+        <v>0.7522362269538722</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0.9986575856144103</v>
+        <v>0.9986575856144104</v>
       </c>
       <c r="J15">
-        <v>0.7920660391360094</v>
+        <v>0.7920660391360084</v>
       </c>
       <c r="K15">
-        <v>0.7853752279251225</v>
+        <v>0.7853752279251212</v>
       </c>
       <c r="L15">
-        <v>0.8091165817284925</v>
+        <v>0.8091165817284919</v>
       </c>
       <c r="M15">
-        <v>0.7739434677139193</v>
+        <v>0.7739434677139182</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7860823835544314</v>
+        <v>0.7860823835544311</v>
       </c>
       <c r="D16">
-        <v>0.8014621778437464</v>
+        <v>0.8014621778437461</v>
       </c>
       <c r="E16">
-        <v>0.822099825741917</v>
+        <v>0.8220998257419164</v>
       </c>
       <c r="F16">
-        <v>0.791701255730008</v>
+        <v>0.7917012557300075</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.006126872480315</v>
       </c>
       <c r="J16">
-        <v>0.8262777603809552</v>
+        <v>0.8262777603809549</v>
       </c>
       <c r="K16">
-        <v>0.8206090025093961</v>
+        <v>0.8206090025093957</v>
       </c>
       <c r="L16">
-        <v>0.84059651014048</v>
+        <v>0.8405965101404799</v>
       </c>
       <c r="M16">
-        <v>0.8111720498977844</v>
+        <v>0.8111720498977839</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8047728690277396</v>
+        <v>0.8047728690277427</v>
       </c>
       <c r="D17">
-        <v>0.8192110251404154</v>
+        <v>0.8192110251404184</v>
       </c>
       <c r="E17">
-        <v>0.8379669960168776</v>
+        <v>0.8379669960168805</v>
       </c>
       <c r="F17">
-        <v>0.8104451000446752</v>
+        <v>0.8104451000446785</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.00975084650278</v>
+        <v>1.009750846502781</v>
       </c>
       <c r="J17">
-        <v>0.8425389145283442</v>
+        <v>0.8425389145283473</v>
       </c>
       <c r="K17">
-        <v>0.8373572498162289</v>
+        <v>0.8373572498162319</v>
       </c>
       <c r="L17">
-        <v>0.8555702237757796</v>
+        <v>0.8555702237757823</v>
       </c>
       <c r="M17">
-        <v>0.8288570071195225</v>
+        <v>0.8288570071195256</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8144445382786827</v>
+        <v>0.8144445382786868</v>
       </c>
       <c r="D18">
-        <v>0.8284088436846646</v>
+        <v>0.8284088436846688</v>
       </c>
       <c r="E18">
-        <v>0.846197064222956</v>
+        <v>0.8461970642229598</v>
       </c>
       <c r="F18">
-        <v>0.8201540863394488</v>
+        <v>0.8201540863394527</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.011642482077617</v>
+        <v>1.011642482077618</v>
       </c>
       <c r="J18">
-        <v>0.850961962752018</v>
+        <v>0.8509619627520217</v>
       </c>
       <c r="K18">
-        <v>0.8460334084965225</v>
+        <v>0.8460334084965265</v>
       </c>
       <c r="L18">
-        <v>0.8633293931112657</v>
+        <v>0.8633293931112691</v>
       </c>
       <c r="M18">
-        <v>0.8380170407659073</v>
+        <v>0.8380170407659111</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8175777466190881</v>
+        <v>0.8175777466190896</v>
       </c>
       <c r="D19">
-        <v>0.8313904033696932</v>
+        <v>0.8313904033696944</v>
       </c>
       <c r="E19">
-        <v>0.8488659620602623</v>
+        <v>0.8488659620602637</v>
       </c>
       <c r="F19">
-        <v>0.8233008189077722</v>
+        <v>0.8233008189077736</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.012257336395746</v>
       </c>
       <c r="J19">
-        <v>0.8536917140884269</v>
+        <v>0.8536917140884283</v>
       </c>
       <c r="K19">
-        <v>0.8488453393404369</v>
+        <v>0.8488453393404385</v>
       </c>
       <c r="L19">
-        <v>0.8658444494378253</v>
+        <v>0.8658444494378266</v>
       </c>
       <c r="M19">
-        <v>0.8409856978000564</v>
+        <v>0.8409856978000579</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8029067775297839</v>
+        <v>0.8029067775297881</v>
       </c>
       <c r="D20">
-        <v>0.8174373829391869</v>
+        <v>0.8174373829391912</v>
       </c>
       <c r="E20">
-        <v>0.8363805360570364</v>
+        <v>0.8363805360570403</v>
       </c>
       <c r="F20">
-        <v>0.8085725741506687</v>
+        <v>0.8085725741506735</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.009387052448121</v>
+        <v>1.009387052448122</v>
       </c>
       <c r="J20">
-        <v>0.8409143455977142</v>
+        <v>0.8409143455977185</v>
       </c>
       <c r="K20">
-        <v>0.8356839355624441</v>
+        <v>0.8356839355624486</v>
       </c>
       <c r="L20">
-        <v>0.854073938333049</v>
+        <v>0.8540739383330528</v>
       </c>
       <c r="M20">
-        <v>0.8270902930643659</v>
+        <v>0.8270902930643701</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7328022116310838</v>
+        <v>0.7328022116310816</v>
       </c>
       <c r="D21">
-        <v>0.7510832671288881</v>
+        <v>0.7510832671288861</v>
       </c>
       <c r="E21">
-        <v>0.777174481544343</v>
+        <v>0.7771744815443412</v>
       </c>
       <c r="F21">
-        <v>0.738403507727163</v>
+        <v>0.7384035077271609</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>0.996104142004114</v>
+        <v>0.9961041420041139</v>
       </c>
       <c r="J21">
-        <v>0.7800918406341598</v>
+        <v>0.7800918406341577</v>
       </c>
       <c r="K21">
-        <v>0.7730428882609204</v>
+        <v>0.7730428882609185</v>
       </c>
       <c r="L21">
-        <v>0.7981054533323167</v>
+        <v>0.7981054533323149</v>
       </c>
       <c r="M21">
-        <v>0.7609006472818016</v>
+        <v>0.7609006472817994</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7328022116310838</v>
+        <v>0.7328022116310816</v>
       </c>
       <c r="D22">
-        <v>0.7510832671288881</v>
+        <v>0.7510832671288861</v>
       </c>
       <c r="E22">
-        <v>0.777174481544343</v>
+        <v>0.7771744815443412</v>
       </c>
       <c r="F22">
-        <v>0.738403507727163</v>
+        <v>0.7384035077271609</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0.996104142004114</v>
+        <v>0.9961041420041139</v>
       </c>
       <c r="J22">
-        <v>0.7800918406341598</v>
+        <v>0.7800918406341577</v>
       </c>
       <c r="K22">
-        <v>0.7730428882609204</v>
+        <v>0.7730428882609185</v>
       </c>
       <c r="L22">
-        <v>0.7981054533323167</v>
+        <v>0.7981054533323149</v>
       </c>
       <c r="M22">
-        <v>0.7609006472818016</v>
+        <v>0.7609006472817994</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7328022116310838</v>
+        <v>0.7328022116310816</v>
       </c>
       <c r="D23">
-        <v>0.7510832671288881</v>
+        <v>0.7510832671288861</v>
       </c>
       <c r="E23">
-        <v>0.777174481544343</v>
+        <v>0.7771744815443412</v>
       </c>
       <c r="F23">
-        <v>0.738403507727163</v>
+        <v>0.7384035077271609</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0.996104142004114</v>
+        <v>0.9961041420041139</v>
       </c>
       <c r="J23">
-        <v>0.7800918406341598</v>
+        <v>0.7800918406341577</v>
       </c>
       <c r="K23">
-        <v>0.7730428882609204</v>
+        <v>0.7730428882609185</v>
       </c>
       <c r="L23">
-        <v>0.7981054533323167</v>
+        <v>0.7981054533323149</v>
       </c>
       <c r="M23">
-        <v>0.7609006472818016</v>
+        <v>0.7609006472817994</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7328022116310838</v>
+        <v>0.7328022116310816</v>
       </c>
       <c r="D24">
-        <v>0.7510832671288881</v>
+        <v>0.7510832671288861</v>
       </c>
       <c r="E24">
-        <v>0.777174481544343</v>
+        <v>0.7771744815443412</v>
       </c>
       <c r="F24">
-        <v>0.738403507727163</v>
+        <v>0.7384035077271609</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>0.996104142004114</v>
+        <v>0.9961041420041139</v>
       </c>
       <c r="J24">
-        <v>0.7800918406341598</v>
+        <v>0.7800918406341577</v>
       </c>
       <c r="K24">
-        <v>0.7730428882609204</v>
+        <v>0.7730428882609185</v>
       </c>
       <c r="L24">
-        <v>0.7981054533323167</v>
+        <v>0.7981054533323149</v>
       </c>
       <c r="M24">
-        <v>0.7609006472818016</v>
+        <v>0.7609006472817994</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7328022116310838</v>
+        <v>0.7328022116310816</v>
       </c>
       <c r="D25">
-        <v>0.7510832671288881</v>
+        <v>0.7510832671288861</v>
       </c>
       <c r="E25">
-        <v>0.777174481544343</v>
+        <v>0.7771744815443412</v>
       </c>
       <c r="F25">
-        <v>0.738403507727163</v>
+        <v>0.7384035077271609</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>0.996104142004114</v>
+        <v>0.9961041420041139</v>
       </c>
       <c r="J25">
-        <v>0.7800918406341598</v>
+        <v>0.7800918406341577</v>
       </c>
       <c r="K25">
-        <v>0.7730428882609204</v>
+        <v>0.7730428882609185</v>
       </c>
       <c r="L25">
-        <v>0.7981054533323167</v>
+        <v>0.7981054533323149</v>
       </c>
       <c r="M25">
-        <v>0.7609006472818016</v>
+        <v>0.7609006472817994</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_43/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_43/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8992346726906298</v>
+        <v>0.8993643394879525</v>
       </c>
       <c r="D2">
-        <v>0.9093706611346785</v>
+        <v>0.9094985102899825</v>
       </c>
       <c r="E2">
-        <v>0.9188347307050193</v>
+        <v>0.9189493313718062</v>
       </c>
       <c r="F2">
-        <v>0.9055743492666489</v>
+        <v>0.9057024264765131</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.028425550120914</v>
+        <v>1.028444782508749</v>
       </c>
       <c r="J2">
-        <v>0.9249122481191079</v>
+        <v>0.925036698061579</v>
       </c>
       <c r="K2">
-        <v>0.9222557808191156</v>
+        <v>0.9223813589998009</v>
       </c>
       <c r="L2">
-        <v>0.9315539506885481</v>
+        <v>0.9316665695598895</v>
       </c>
       <c r="M2">
-        <v>0.9185272822133346</v>
+        <v>0.9186530595498407</v>
+      </c>
+      <c r="N2">
+        <v>0.951149036373976</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9207739295098821</v>
+        <v>0.9208723754425971</v>
       </c>
       <c r="D3">
-        <v>0.9300146081640553</v>
+        <v>0.9301119267383627</v>
       </c>
       <c r="E3">
-        <v>0.9374070066875945</v>
+        <v>0.9374943632389525</v>
       </c>
       <c r="F3">
-        <v>0.9273708529245157</v>
+        <v>0.9274680488078496</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.032645171899963</v>
+        <v>1.032659642548337</v>
       </c>
       <c r="J3">
-        <v>0.943684953899566</v>
+        <v>0.943780030855614</v>
       </c>
       <c r="K3">
-        <v>0.9416288641562364</v>
+        <v>0.9417246872814313</v>
       </c>
       <c r="L3">
-        <v>0.9489087928577444</v>
+        <v>0.9489948338464459</v>
       </c>
       <c r="M3">
-        <v>0.9390258876409157</v>
+        <v>0.9391215790642613</v>
+      </c>
+      <c r="N3">
+        <v>0.963906799522281</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.933417117306362</v>
+        <v>0.9334989503752326</v>
       </c>
       <c r="D4">
-        <v>0.9421441942889474</v>
+        <v>0.9422252043660795</v>
       </c>
       <c r="E4">
-        <v>0.9483283752127755</v>
+        <v>0.9484011749078265</v>
       </c>
       <c r="F4">
-        <v>0.9401866101085743</v>
+        <v>0.9402673898794353</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035088776297916</v>
+        <v>1.03510074602514</v>
       </c>
       <c r="J4">
-        <v>0.954692279773704</v>
+        <v>0.9547715862083006</v>
       </c>
       <c r="K4">
-        <v>0.9529949665973667</v>
+        <v>0.9530748417148017</v>
       </c>
       <c r="L4">
-        <v>0.9590932093700034</v>
+        <v>0.9591650058204197</v>
       </c>
       <c r="M4">
-        <v>0.9510648835134523</v>
+        <v>0.9511445255887341</v>
+      </c>
+      <c r="N4">
+        <v>0.9713869904347159</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9384750860173162</v>
+        <v>0.9385505751637415</v>
       </c>
       <c r="D5">
-        <v>0.9469990067700567</v>
+        <v>0.9470737772194194</v>
       </c>
       <c r="E5">
-        <v>0.952701457739206</v>
+        <v>0.9527686875458632</v>
       </c>
       <c r="F5">
-        <v>0.9453184151318716</v>
+        <v>0.9453929295655614</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.036057216677575</v>
+        <v>1.036068237795509</v>
       </c>
       <c r="J5">
-        <v>0.9590925553988303</v>
+        <v>0.9591658121302604</v>
       </c>
       <c r="K5">
-        <v>0.957540270773938</v>
+        <v>0.9576140335308809</v>
       </c>
       <c r="L5">
-        <v>0.9631664387862159</v>
+        <v>0.9632327760801572</v>
       </c>
       <c r="M5">
-        <v>0.9558823816179931</v>
+        <v>0.955955887313291</v>
+      </c>
+      <c r="N5">
+        <v>0.9743770481365323</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9393104966005147</v>
+        <v>0.9393849533716757</v>
       </c>
       <c r="D6">
-        <v>0.9478009857542461</v>
+        <v>0.947874740169496</v>
       </c>
       <c r="E6">
-        <v>0.9534239603450674</v>
+        <v>0.9534902831603155</v>
       </c>
       <c r="F6">
-        <v>0.9461662948499281</v>
+        <v>0.946239789890616</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036216603797432</v>
+        <v>1.036227470885795</v>
       </c>
       <c r="J6">
-        <v>0.9598191352392109</v>
+        <v>0.9598914060040042</v>
       </c>
       <c r="K6">
-        <v>0.9582908921809276</v>
+        <v>0.958363659051456</v>
       </c>
       <c r="L6">
-        <v>0.9638391268282571</v>
+        <v>0.9639045746852118</v>
       </c>
       <c r="M6">
-        <v>0.9566781388639085</v>
+        <v>0.956750645554329</v>
+      </c>
+      <c r="N6">
+        <v>0.9748707547622957</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9334856550518799</v>
+        <v>0.9335674010611986</v>
       </c>
       <c r="D7">
-        <v>0.9422099705356579</v>
+        <v>0.9422908950295134</v>
       </c>
       <c r="E7">
-        <v>0.9483876175875741</v>
+        <v>0.9484603408867978</v>
       </c>
       <c r="F7">
-        <v>0.9402561295781953</v>
+        <v>0.9403368233543941</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035101937041199</v>
+        <v>1.035113893726037</v>
       </c>
       <c r="J7">
-        <v>0.9547519189725709</v>
+        <v>0.9548311424897293</v>
       </c>
       <c r="K7">
-        <v>0.953056565031533</v>
+        <v>0.9531363563520664</v>
       </c>
       <c r="L7">
-        <v>0.9591484083778684</v>
+        <v>0.9592201299849362</v>
       </c>
       <c r="M7">
-        <v>0.95113015821339</v>
+        <v>0.9512097161061024</v>
+      </c>
+      <c r="N7">
+        <v>0.971427517243163</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9068194706908527</v>
+        <v>0.9069376762894819</v>
       </c>
       <c r="D8">
-        <v>0.9166371339787444</v>
+        <v>0.9167537928016973</v>
       </c>
       <c r="E8">
-        <v>0.9253697710366806</v>
+        <v>0.9254743872913993</v>
       </c>
       <c r="F8">
-        <v>0.9132446875508902</v>
+        <v>0.9133614241028309</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.029917925901593</v>
+        <v>1.029935401369315</v>
       </c>
       <c r="J8">
-        <v>0.9315251724753386</v>
+        <v>0.9316388780194097</v>
       </c>
       <c r="K8">
-        <v>0.9290786944370776</v>
+        <v>0.9291933810036681</v>
       </c>
       <c r="L8">
-        <v>0.9376654646720589</v>
+        <v>0.9377683549248995</v>
       </c>
       <c r="M8">
-        <v>0.9257438860245039</v>
+        <v>0.9258586300223401</v>
+      </c>
+      <c r="N8">
+        <v>0.9556430709617083</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8460247545677558</v>
+        <v>0.8462550524632461</v>
       </c>
       <c r="D9">
-        <v>0.8584994270546582</v>
+        <v>0.8587247620121742</v>
       </c>
       <c r="E9">
-        <v>0.8731546647142269</v>
+        <v>0.873356160316474</v>
       </c>
       <c r="F9">
-        <v>0.8519034431821602</v>
+        <v>0.85213123417293</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.017874582822633</v>
+        <v>1.017909588786204</v>
       </c>
       <c r="J9">
-        <v>0.87849331509621</v>
+        <v>0.8787104907499227</v>
       </c>
       <c r="K9">
-        <v>0.8743980257227508</v>
+        <v>0.8746179036676202</v>
       </c>
       <c r="L9">
-        <v>0.888706192872758</v>
+        <v>0.8889030251101256</v>
       </c>
       <c r="M9">
-        <v>0.8679635026000697</v>
+        <v>0.8681856614337035</v>
+      </c>
+      <c r="N9">
+        <v>0.9196153135083541</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7837574735699492</v>
+        <v>0.7841957511555675</v>
       </c>
       <c r="D10">
-        <v>0.7992569166909622</v>
+        <v>0.7996806894570185</v>
       </c>
       <c r="E10">
-        <v>0.8201297146452193</v>
+        <v>0.8205076233953008</v>
       </c>
       <c r="F10">
-        <v>0.7893714239389514</v>
+        <v>0.7898056466780451</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.00567939715111</v>
+        <v>1.005748020774589</v>
       </c>
       <c r="J10">
-        <v>0.8242567796735144</v>
+        <v>0.82465965721677</v>
       </c>
       <c r="K10">
-        <v>0.8185275884249097</v>
+        <v>0.818937393804551</v>
       </c>
       <c r="L10">
-        <v>0.8387360503450286</v>
+        <v>0.8391023603546096</v>
       </c>
       <c r="M10">
-        <v>0.8089738577326372</v>
+        <v>0.8093932644690048</v>
+      </c>
+      <c r="N10">
+        <v>0.8828440048256824</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.739397527906275</v>
+        <v>0.7401606033840894</v>
       </c>
       <c r="D11">
-        <v>0.7572998789999302</v>
+        <v>0.758029593210829</v>
       </c>
       <c r="E11">
-        <v>0.782708376773298</v>
+        <v>0.7833575220873049</v>
       </c>
       <c r="F11">
-        <v>0.7449901161337495</v>
+        <v>0.7457468822093517</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>0.9973152944141292</v>
+        <v>0.9974370836104758</v>
       </c>
       <c r="J11">
-        <v>0.7857919983458304</v>
+        <v>0.786477830104947</v>
       </c>
       <c r="K11">
-        <v>0.778913615142326</v>
+        <v>0.7796140223867314</v>
       </c>
       <c r="L11">
-        <v>0.80334672272285</v>
+        <v>0.8039721108645518</v>
       </c>
       <c r="M11">
-        <v>0.7671105840252479</v>
+        <v>0.7678355102095249</v>
+      </c>
+      <c r="N11">
+        <v>0.8568964112602583</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7129428017753657</v>
+        <v>0.7141360676643611</v>
       </c>
       <c r="D12">
-        <v>0.7324023902199019</v>
+        <v>0.7335344799727537</v>
       </c>
       <c r="E12">
-        <v>0.7605633713910546</v>
+        <v>0.7615686611428428</v>
       </c>
       <c r="F12">
-        <v>0.7185894265816902</v>
+        <v>0.7197733581507203</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0.9925161332598677</v>
+        <v>0.9927084159577392</v>
       </c>
       <c r="J12">
-        <v>0.7629639251689804</v>
+        <v>0.7640198424092951</v>
       </c>
       <c r="K12">
-        <v>0.7554011383596937</v>
+        <v>0.7564823902097384</v>
       </c>
       <c r="L12">
-        <v>0.7823610269456965</v>
+        <v>0.7833257637941807</v>
       </c>
       <c r="M12">
-        <v>0.7422270858928913</v>
+        <v>0.743354870841415</v>
+      </c>
+      <c r="N12">
+        <v>0.8416494371553607</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7196866957730269</v>
+        <v>0.7207365174686211</v>
       </c>
       <c r="D13">
-        <v>0.7387393993958322</v>
+        <v>0.7397375193194543</v>
       </c>
       <c r="E13">
-        <v>0.7661951189900591</v>
+        <v>0.7670818737046765</v>
       </c>
       <c r="F13">
-        <v>0.7253146728834476</v>
+        <v>0.7263561767348352</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0.9937242589384209</v>
+        <v>0.9938930437657261</v>
       </c>
       <c r="J13">
-        <v>0.7687738429336136</v>
+        <v>0.7697066742780829</v>
       </c>
       <c r="K13">
-        <v>0.7613856138446692</v>
+        <v>0.7623401520312304</v>
       </c>
       <c r="L13">
-        <v>0.7877008879003781</v>
+        <v>0.7885527305317772</v>
       </c>
       <c r="M13">
-        <v>0.7485638387300817</v>
+        <v>0.7495574190847957</v>
+      </c>
+      <c r="N13">
+        <v>0.845509097498429</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.737577565016365</v>
+        <v>0.7383613481130876</v>
       </c>
       <c r="D14">
-        <v>0.7555838159328413</v>
+        <v>0.7563329500150977</v>
       </c>
       <c r="E14">
-        <v>0.7811804817575214</v>
+        <v>0.7818468264849768</v>
       </c>
       <c r="F14">
-        <v>0.7431722442520815</v>
+        <v>0.7439495739673377</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>0.996980150982709</v>
+        <v>0.9971053344768883</v>
       </c>
       <c r="J14">
-        <v>0.7842184973067767</v>
+        <v>0.7849222255358568</v>
       </c>
       <c r="K14">
-        <v>0.7772930458700699</v>
+        <v>0.7780118568831624</v>
       </c>
       <c r="L14">
-        <v>0.8018998177318866</v>
+        <v>0.8025416077560529</v>
       </c>
       <c r="M14">
-        <v>0.7653965654656848</v>
+        <v>0.7661409159451482</v>
+      </c>
+      <c r="N14">
+        <v>0.8558399011609126</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7466496238278781</v>
+        <v>0.7473383534679244</v>
       </c>
       <c r="D15">
-        <v>0.764142406989415</v>
+        <v>0.7648023347711173</v>
       </c>
       <c r="E15">
-        <v>0.7888027903839205</v>
+        <v>0.7893901152561786</v>
       </c>
       <c r="F15">
-        <v>0.7522362269538722</v>
+        <v>0.752919162989411</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0.9986575856144104</v>
+        <v>0.9987671894202826</v>
       </c>
       <c r="J15">
-        <v>0.7920660391360084</v>
+        <v>0.7926875129862466</v>
       </c>
       <c r="K15">
-        <v>0.7853752279251212</v>
+        <v>0.786009469906147</v>
       </c>
       <c r="L15">
-        <v>0.8091165817284919</v>
+        <v>0.8096829976275222</v>
       </c>
       <c r="M15">
-        <v>0.7739434677139182</v>
+        <v>0.7745986150729951</v>
+      </c>
+      <c r="N15">
+        <v>0.8611143481365436</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7860823835544311</v>
+        <v>0.7865095853859755</v>
       </c>
       <c r="D16">
-        <v>0.8014621778437461</v>
+        <v>0.8018754530973844</v>
       </c>
       <c r="E16">
-        <v>0.8220998257419164</v>
+        <v>0.8224684148187661</v>
       </c>
       <c r="F16">
-        <v>0.7917012557300075</v>
+        <v>0.7921244807280582</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.006126872480315</v>
+        <v>1.006193690141323</v>
       </c>
       <c r="J16">
-        <v>0.8262777603809549</v>
+        <v>0.826670877257511</v>
       </c>
       <c r="K16">
-        <v>0.8206090025093957</v>
+        <v>0.8210088024119067</v>
       </c>
       <c r="L16">
-        <v>0.8405965101404799</v>
+        <v>0.8409538959505051</v>
       </c>
       <c r="M16">
-        <v>0.8111720498977839</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.8115809971368015</v>
+      </c>
+      <c r="N16">
+        <v>0.8842115451493204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8047728690277427</v>
+        <v>0.8051229919857333</v>
       </c>
       <c r="D17">
-        <v>0.8192110251404184</v>
+        <v>0.8195510605369583</v>
       </c>
       <c r="E17">
-        <v>0.8379669960168805</v>
+        <v>0.8382705277265592</v>
       </c>
       <c r="F17">
-        <v>0.8104451000446785</v>
+        <v>0.8107917975740639</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.009750846502781</v>
+        <v>1.009805129705837</v>
       </c>
       <c r="J17">
-        <v>0.8425389145283473</v>
+        <v>0.8428637722098595</v>
       </c>
       <c r="K17">
-        <v>0.8373572498162319</v>
+        <v>0.8376871366387898</v>
       </c>
       <c r="L17">
-        <v>0.8555702237757823</v>
+        <v>0.8558652408034469</v>
       </c>
       <c r="M17">
-        <v>0.8288570071195256</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.8291930462024337</v>
+      </c>
+      <c r="N17">
+        <v>0.8952243012604554</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8144445382786868</v>
+        <v>0.8147614876939187</v>
       </c>
       <c r="D18">
-        <v>0.8284088436846688</v>
+        <v>0.8287172417163641</v>
       </c>
       <c r="E18">
-        <v>0.8461970642229598</v>
+        <v>0.8464724717739891</v>
       </c>
       <c r="F18">
-        <v>0.8201540863394527</v>
+        <v>0.8204678545144343</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.011642482077618</v>
+        <v>1.01169139563609</v>
       </c>
       <c r="J18">
-        <v>0.8509619627520217</v>
+        <v>0.851257230643782</v>
       </c>
       <c r="K18">
-        <v>0.8460334084965265</v>
+        <v>0.8463330261534346</v>
       </c>
       <c r="L18">
-        <v>0.8633293931112691</v>
+        <v>0.8635974005778974</v>
       </c>
       <c r="M18">
-        <v>0.8380170407659111</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.8383216272456742</v>
+      </c>
+      <c r="N18">
+        <v>0.900934137615345</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8175777466190896</v>
+        <v>0.8178847364322746</v>
       </c>
       <c r="D19">
-        <v>0.8313904033696944</v>
+        <v>0.8316892871681526</v>
       </c>
       <c r="E19">
-        <v>0.8488659620602637</v>
+        <v>0.8491329090865994</v>
       </c>
       <c r="F19">
-        <v>0.8233008189077736</v>
+        <v>0.8236047019546486</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.012257336395746</v>
+        <v>1.012304641796863</v>
       </c>
       <c r="J19">
-        <v>0.8536917140884283</v>
+        <v>0.8539780688545271</v>
       </c>
       <c r="K19">
-        <v>0.8488453393404385</v>
+        <v>0.8491358444998323</v>
       </c>
       <c r="L19">
-        <v>0.8658444494378266</v>
+        <v>0.8661043248292449</v>
       </c>
       <c r="M19">
-        <v>0.8409856978000579</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.8412808312327156</v>
+      </c>
+      <c r="N19">
+        <v>0.9027852389280743</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8029067775297881</v>
+        <v>0.8032637665909035</v>
       </c>
       <c r="D20">
-        <v>0.8174373829391912</v>
+        <v>0.8177839569841165</v>
       </c>
       <c r="E20">
-        <v>0.8363805360570403</v>
+        <v>0.8366898786094621</v>
       </c>
       <c r="F20">
-        <v>0.8085725741506735</v>
+        <v>0.8089260878771862</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.009387052448122</v>
+        <v>1.009442449259467</v>
       </c>
       <c r="J20">
-        <v>0.8409143455977185</v>
+        <v>0.8412453100959804</v>
       </c>
       <c r="K20">
-        <v>0.8356839355624486</v>
+        <v>0.8360200725265972</v>
       </c>
       <c r="L20">
-        <v>0.8540739383330528</v>
+        <v>0.8543745319041391</v>
       </c>
       <c r="M20">
-        <v>0.8270902930643701</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.8274328359890318</v>
+      </c>
+      <c r="N20">
+        <v>0.8941234146197337</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7328022116310816</v>
+        <v>0.7336449504476747</v>
       </c>
       <c r="D21">
-        <v>0.7510832671288861</v>
+        <v>0.7518876537472674</v>
       </c>
       <c r="E21">
-        <v>0.7771744815443412</v>
+        <v>0.7778897535256777</v>
       </c>
       <c r="F21">
-        <v>0.7384035077271609</v>
+        <v>0.7392393823839265</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>0.9961041420041139</v>
+        <v>0.996238989300992</v>
       </c>
       <c r="J21">
-        <v>0.7800918406341577</v>
+        <v>0.7808464611216188</v>
       </c>
       <c r="K21">
-        <v>0.7730428882609185</v>
+        <v>0.7738140437373491</v>
       </c>
       <c r="L21">
-        <v>0.7981054533323149</v>
+        <v>0.7987938915999596</v>
       </c>
       <c r="M21">
-        <v>0.7609006472817994</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.7617002764589181</v>
+      </c>
+      <c r="N21">
+        <v>0.8530720571642746</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7328022116310816</v>
+        <v>0.7336449504476747</v>
       </c>
       <c r="D22">
-        <v>0.7510832671288861</v>
+        <v>0.7518876537472674</v>
       </c>
       <c r="E22">
-        <v>0.7771744815443412</v>
+        <v>0.7778897535256777</v>
       </c>
       <c r="F22">
-        <v>0.7384035077271609</v>
+        <v>0.7392393823839265</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0.9961041420041139</v>
+        <v>0.996238989300992</v>
       </c>
       <c r="J22">
-        <v>0.7800918406341577</v>
+        <v>0.7808464611216188</v>
       </c>
       <c r="K22">
-        <v>0.7730428882609185</v>
+        <v>0.7738140437373491</v>
       </c>
       <c r="L22">
-        <v>0.7981054533323149</v>
+        <v>0.7987938915999596</v>
       </c>
       <c r="M22">
-        <v>0.7609006472817994</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.7617002764589181</v>
+      </c>
+      <c r="N22">
+        <v>0.8530720571642746</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7328022116310816</v>
+        <v>0.6853552630123146</v>
       </c>
       <c r="D23">
-        <v>0.7510832671288861</v>
+        <v>0.70657064730001</v>
       </c>
       <c r="E23">
-        <v>0.7771744815443412</v>
+        <v>0.737641806813933</v>
       </c>
       <c r="F23">
-        <v>0.7384035077271609</v>
+        <v>0.6911082578952017</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0.9961041420041139</v>
+        <v>0.9876712404673149</v>
       </c>
       <c r="J23">
-        <v>0.7800918406341577</v>
+        <v>0.7393062491562057</v>
       </c>
       <c r="K23">
-        <v>0.7730428882609185</v>
+        <v>0.731021896074163</v>
       </c>
       <c r="L23">
-        <v>0.7981054533323149</v>
+        <v>0.7606192172372347</v>
       </c>
       <c r="M23">
-        <v>0.7609006472817994</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.7163652724681646</v>
+      </c>
+      <c r="N23">
+        <v>0.8248866543491898</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7328022116310816</v>
+        <v>0.804107460086578</v>
       </c>
       <c r="D24">
-        <v>0.7510832671288861</v>
+        <v>0.818585805330912</v>
       </c>
       <c r="E24">
-        <v>0.7771744815443412</v>
+        <v>0.8374070977554391</v>
       </c>
       <c r="F24">
-        <v>0.7384035077271609</v>
+        <v>0.8097726934801722</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>0.9961041420041139</v>
+        <v>1.009606979652124</v>
       </c>
       <c r="J24">
-        <v>0.7800918406341577</v>
+        <v>0.8419797226945692</v>
       </c>
       <c r="K24">
-        <v>0.7730428882609185</v>
+        <v>0.8367765366705713</v>
       </c>
       <c r="L24">
-        <v>0.7981054533323149</v>
+        <v>0.8550509642399776</v>
       </c>
       <c r="M24">
-        <v>0.7609006472817994</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.8282315708429964</v>
+      </c>
+      <c r="N24">
+        <v>0.8946229615183343</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7328022116310816</v>
+        <v>0.8643165684590416</v>
       </c>
       <c r="D25">
-        <v>0.7510832671288861</v>
+        <v>0.8759698978969065</v>
       </c>
       <c r="E25">
-        <v>0.7771744815443412</v>
+        <v>0.8888275287762071</v>
       </c>
       <c r="F25">
-        <v>0.7384035077271609</v>
+        <v>0.8703239563081173</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>0.9961041420041139</v>
+        <v>1.021496934123728</v>
       </c>
       <c r="J25">
-        <v>0.7800918406341577</v>
+        <v>0.8944659457872219</v>
       </c>
       <c r="K25">
-        <v>0.7730428882609185</v>
+        <v>0.8908563229543989</v>
       </c>
       <c r="L25">
-        <v>0.7981054533323149</v>
+        <v>0.9034374787964006</v>
       </c>
       <c r="M25">
-        <v>0.7609006472817994</v>
+        <v>0.8853352231544265</v>
+      </c>
+      <c r="N25">
+        <v>0.930339171076393</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_43/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_43/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8993643394879525</v>
+        <v>0.907671558713666</v>
       </c>
       <c r="D2">
-        <v>0.9094985102899825</v>
+        <v>0.9239202666524408</v>
       </c>
       <c r="E2">
-        <v>0.9189493313718062</v>
+        <v>0.9262517418096917</v>
       </c>
       <c r="F2">
-        <v>0.9057024264765131</v>
+        <v>0.9322794020264759</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.028444782508749</v>
+        <v>1.037067644136288</v>
       </c>
       <c r="J2">
-        <v>0.925036698061579</v>
+        <v>0.9330140843665088</v>
       </c>
       <c r="K2">
-        <v>0.9223813589998009</v>
+        <v>0.9365521533220428</v>
       </c>
       <c r="L2">
-        <v>0.9316665695598895</v>
+        <v>0.9388440041116495</v>
       </c>
       <c r="M2">
-        <v>0.9186530595498407</v>
+        <v>0.9447704050173344</v>
       </c>
       <c r="N2">
-        <v>0.951149036373976</v>
+        <v>0.9343390713845207</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9208723754425971</v>
+        <v>0.9604225851956297</v>
       </c>
       <c r="D3">
-        <v>0.9301119267383627</v>
+        <v>0.9748093000356235</v>
       </c>
       <c r="E3">
-        <v>0.9374943632389525</v>
+        <v>0.9737149502908544</v>
       </c>
       <c r="F3">
-        <v>0.9274680488078496</v>
+        <v>0.98115986737907</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.032659642548337</v>
+        <v>1.041022079347503</v>
       </c>
       <c r="J3">
-        <v>0.943780030855614</v>
+        <v>0.9820535686986186</v>
       </c>
       <c r="K3">
-        <v>0.9417246872814313</v>
+        <v>0.9857749807901998</v>
       </c>
       <c r="L3">
-        <v>0.9489948338464459</v>
+        <v>0.9846955800911047</v>
       </c>
       <c r="M3">
-        <v>0.9391215790642613</v>
+        <v>0.9920396253046265</v>
       </c>
       <c r="N3">
-        <v>0.963906799522281</v>
+        <v>0.9834481974092892</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9334989503752326</v>
+        <v>0.9875866936823149</v>
       </c>
       <c r="D4">
-        <v>0.9422252043660795</v>
+        <v>1.001051015058814</v>
       </c>
       <c r="E4">
-        <v>0.9484011749078265</v>
+        <v>0.9981920905091294</v>
       </c>
       <c r="F4">
-        <v>0.9402673898794353</v>
+        <v>1.006377817501101</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03510074602514</v>
+        <v>1.043058324873064</v>
       </c>
       <c r="J4">
-        <v>0.9547715862083006</v>
+        <v>1.007313352943214</v>
       </c>
       <c r="K4">
-        <v>0.9530748417148017</v>
+        <v>1.011136771784814</v>
       </c>
       <c r="L4">
-        <v>0.9591650058204197</v>
+        <v>1.008312384491755</v>
       </c>
       <c r="M4">
-        <v>0.9511445255887341</v>
+        <v>1.016399872538405</v>
       </c>
       <c r="N4">
-        <v>0.9713869904347159</v>
+        <v>1.00874385344485</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9385505751637415</v>
+        <v>0.9979467375241944</v>
       </c>
       <c r="D5">
-        <v>0.9470737772194194</v>
+        <v>1.011064482867481</v>
       </c>
       <c r="E5">
-        <v>0.9527686875458632</v>
+        <v>1.007531535122153</v>
       </c>
       <c r="F5">
-        <v>0.9453929295655614</v>
+        <v>1.016001487146961</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.036068237795509</v>
+        <v>1.043832205409492</v>
       </c>
       <c r="J5">
-        <v>0.9591658121302604</v>
+        <v>1.016946331619467</v>
       </c>
       <c r="K5">
-        <v>0.9576140335308809</v>
+        <v>1.02080988043397</v>
       </c>
       <c r="L5">
-        <v>0.9632327760801572</v>
+        <v>1.0173175614792</v>
       </c>
       <c r="M5">
-        <v>0.955955887313291</v>
+        <v>1.025690692782271</v>
       </c>
       <c r="N5">
-        <v>0.9743770481365323</v>
+        <v>1.018390512055742</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9393849533716757</v>
+        <v>0.9996344356658925</v>
       </c>
       <c r="D6">
-        <v>0.947874740169496</v>
+        <v>1.012695965730868</v>
       </c>
       <c r="E6">
-        <v>0.9534902831603155</v>
+        <v>1.009053140163535</v>
       </c>
       <c r="F6">
-        <v>0.946239789890616</v>
+        <v>1.017569474549377</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036227470885795</v>
+        <v>1.043958060289477</v>
       </c>
       <c r="J6">
-        <v>0.9598914060040042</v>
+        <v>1.018515499128261</v>
       </c>
       <c r="K6">
-        <v>0.958363659051456</v>
+        <v>1.022385646383289</v>
       </c>
       <c r="L6">
-        <v>0.9639045746852118</v>
+        <v>1.018784372656235</v>
       </c>
       <c r="M6">
-        <v>0.956750645554329</v>
+        <v>1.027204138593969</v>
       </c>
       <c r="N6">
-        <v>0.9748707547622957</v>
+        <v>1.019961907962383</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9335674010611986</v>
+        <v>0.9877287900081286</v>
       </c>
       <c r="D7">
-        <v>0.9422908950295134</v>
+        <v>1.001188339796005</v>
       </c>
       <c r="E7">
-        <v>0.9484603408867978</v>
+        <v>0.9983201754459459</v>
       </c>
       <c r="F7">
-        <v>0.9403368233543941</v>
+        <v>1.006509794869234</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035113893726037</v>
+        <v>1.043068952902275</v>
       </c>
       <c r="J7">
-        <v>0.9548311424897293</v>
+        <v>1.007445482251605</v>
       </c>
       <c r="K7">
-        <v>0.9531363563520664</v>
+        <v>1.011269447080084</v>
       </c>
       <c r="L7">
-        <v>0.9592201299849362</v>
+        <v>1.008435908543605</v>
       </c>
       <c r="M7">
-        <v>0.9512097161061024</v>
+        <v>1.016527306948459</v>
       </c>
       <c r="N7">
-        <v>0.971427517243163</v>
+        <v>1.008876170392013</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9069376762894819</v>
+        <v>0.9275082390817967</v>
       </c>
       <c r="D8">
-        <v>0.9167537928016973</v>
+        <v>0.9430442900590498</v>
       </c>
       <c r="E8">
-        <v>0.9254743872913993</v>
+        <v>0.9440865766567321</v>
       </c>
       <c r="F8">
-        <v>0.9133614241028309</v>
+        <v>0.9506436093299583</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.029935401369315</v>
+        <v>1.038552031227451</v>
       </c>
       <c r="J8">
-        <v>0.9316388780194097</v>
+        <v>0.9514507568016681</v>
       </c>
       <c r="K8">
-        <v>0.9291933810036681</v>
+        <v>0.9550553348769473</v>
       </c>
       <c r="L8">
-        <v>0.9377683549248995</v>
+        <v>0.9560812611283434</v>
       </c>
       <c r="M8">
-        <v>0.9258586300223401</v>
+        <v>0.9625364210962742</v>
       </c>
       <c r="N8">
-        <v>0.9556430709617083</v>
+        <v>0.9528019260092535</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8462550524632461</v>
+        <v>0.9275082390817967</v>
       </c>
       <c r="D9">
-        <v>0.8587247620121742</v>
+        <v>0.9430442900590498</v>
       </c>
       <c r="E9">
-        <v>0.873356160316474</v>
+        <v>0.9440865766567321</v>
       </c>
       <c r="F9">
-        <v>0.85213123417293</v>
+        <v>0.9506436093299583</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.017909588786204</v>
+        <v>1.038552031227451</v>
       </c>
       <c r="J9">
-        <v>0.8787104907499227</v>
+        <v>0.9514507568016681</v>
       </c>
       <c r="K9">
-        <v>0.8746179036676202</v>
+        <v>0.9550553348769473</v>
       </c>
       <c r="L9">
-        <v>0.8889030251101256</v>
+        <v>0.9560812611283434</v>
       </c>
       <c r="M9">
-        <v>0.8681856614337035</v>
+        <v>0.9625364210962742</v>
       </c>
       <c r="N9">
-        <v>0.9196153135083541</v>
+        <v>0.9528019260092535</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7841957511555675</v>
+        <v>0.9275082390817967</v>
       </c>
       <c r="D10">
-        <v>0.7996806894570185</v>
+        <v>0.9430442900590498</v>
       </c>
       <c r="E10">
-        <v>0.8205076233953008</v>
+        <v>0.9440865766567321</v>
       </c>
       <c r="F10">
-        <v>0.7898056466780451</v>
+        <v>0.9506436093299583</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.005748020774589</v>
+        <v>1.038552031227451</v>
       </c>
       <c r="J10">
-        <v>0.82465965721677</v>
+        <v>0.9514507568016681</v>
       </c>
       <c r="K10">
-        <v>0.818937393804551</v>
+        <v>0.9550553348769473</v>
       </c>
       <c r="L10">
-        <v>0.8391023603546096</v>
+        <v>0.9560812611283434</v>
       </c>
       <c r="M10">
-        <v>0.8093932644690048</v>
+        <v>0.9625364210962742</v>
       </c>
       <c r="N10">
-        <v>0.8828440048256824</v>
+        <v>0.9528019260092535</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7401606033840894</v>
+        <v>0.9275082390817967</v>
       </c>
       <c r="D11">
-        <v>0.758029593210829</v>
+        <v>0.9430442900590498</v>
       </c>
       <c r="E11">
-        <v>0.7833575220873049</v>
+        <v>0.9440865766567321</v>
       </c>
       <c r="F11">
-        <v>0.7457468822093517</v>
+        <v>0.9506436093299583</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>0.9974370836104758</v>
+        <v>1.038552031227451</v>
       </c>
       <c r="J11">
-        <v>0.786477830104947</v>
+        <v>0.9514507568016681</v>
       </c>
       <c r="K11">
-        <v>0.7796140223867314</v>
+        <v>0.9550553348769473</v>
       </c>
       <c r="L11">
-        <v>0.8039721108645518</v>
+        <v>0.9560812611283434</v>
       </c>
       <c r="M11">
-        <v>0.7678355102095249</v>
+        <v>0.9625364210962742</v>
       </c>
       <c r="N11">
-        <v>0.8568964112602583</v>
+        <v>0.9528019260092535</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7141360676643611</v>
+        <v>0.9275082390817967</v>
       </c>
       <c r="D12">
-        <v>0.7335344799727537</v>
+        <v>0.9430442900590498</v>
       </c>
       <c r="E12">
-        <v>0.7615686611428428</v>
+        <v>0.9440865766567321</v>
       </c>
       <c r="F12">
-        <v>0.7197733581507203</v>
+        <v>0.9506436093299583</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0.9927084159577392</v>
+        <v>1.038552031227451</v>
       </c>
       <c r="J12">
-        <v>0.7640198424092951</v>
+        <v>0.9514507568016681</v>
       </c>
       <c r="K12">
-        <v>0.7564823902097384</v>
+        <v>0.9550553348769473</v>
       </c>
       <c r="L12">
-        <v>0.7833257637941807</v>
+        <v>0.9560812611283434</v>
       </c>
       <c r="M12">
-        <v>0.743354870841415</v>
+        <v>0.9625364210962742</v>
       </c>
       <c r="N12">
-        <v>0.8416494371553607</v>
+        <v>0.9528019260092535</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7207365174686211</v>
+        <v>0.9275082390817967</v>
       </c>
       <c r="D13">
-        <v>0.7397375193194543</v>
+        <v>0.9430442900590498</v>
       </c>
       <c r="E13">
-        <v>0.7670818737046765</v>
+        <v>0.9440865766567321</v>
       </c>
       <c r="F13">
-        <v>0.7263561767348352</v>
+        <v>0.9506436093299583</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0.9938930437657261</v>
+        <v>1.038552031227451</v>
       </c>
       <c r="J13">
-        <v>0.7697066742780829</v>
+        <v>0.9514507568016681</v>
       </c>
       <c r="K13">
-        <v>0.7623401520312304</v>
+        <v>0.9550553348769473</v>
       </c>
       <c r="L13">
-        <v>0.7885527305317772</v>
+        <v>0.9560812611283434</v>
       </c>
       <c r="M13">
-        <v>0.7495574190847957</v>
+        <v>0.9625364210962742</v>
       </c>
       <c r="N13">
-        <v>0.845509097498429</v>
+        <v>0.9528019260092535</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7383613481130876</v>
+        <v>0.9275082390817967</v>
       </c>
       <c r="D14">
-        <v>0.7563329500150977</v>
+        <v>0.9430442900590498</v>
       </c>
       <c r="E14">
-        <v>0.7818468264849768</v>
+        <v>0.9440865766567321</v>
       </c>
       <c r="F14">
-        <v>0.7439495739673377</v>
+        <v>0.9506436093299583</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>0.9971053344768883</v>
+        <v>1.038552031227451</v>
       </c>
       <c r="J14">
-        <v>0.7849222255358568</v>
+        <v>0.9514507568016681</v>
       </c>
       <c r="K14">
-        <v>0.7780118568831624</v>
+        <v>0.9550553348769473</v>
       </c>
       <c r="L14">
-        <v>0.8025416077560529</v>
+        <v>0.9560812611283434</v>
       </c>
       <c r="M14">
-        <v>0.7661409159451482</v>
+        <v>0.9625364210962742</v>
       </c>
       <c r="N14">
-        <v>0.8558399011609126</v>
+        <v>0.9528019260092535</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7473383534679244</v>
+        <v>0.9275082390817967</v>
       </c>
       <c r="D15">
-        <v>0.7648023347711173</v>
+        <v>0.9430442900590498</v>
       </c>
       <c r="E15">
-        <v>0.7893901152561786</v>
+        <v>0.9440865766567321</v>
       </c>
       <c r="F15">
-        <v>0.752919162989411</v>
+        <v>0.9506436093299583</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0.9987671894202826</v>
+        <v>1.038552031227451</v>
       </c>
       <c r="J15">
-        <v>0.7926875129862466</v>
+        <v>0.9514507568016681</v>
       </c>
       <c r="K15">
-        <v>0.786009469906147</v>
+        <v>0.9550553348769473</v>
       </c>
       <c r="L15">
-        <v>0.8096829976275222</v>
+        <v>0.9560812611283434</v>
       </c>
       <c r="M15">
-        <v>0.7745986150729951</v>
+        <v>0.9625364210962742</v>
       </c>
       <c r="N15">
-        <v>0.8611143481365436</v>
+        <v>0.9528019260092535</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7865095853859755</v>
+        <v>0.9275082390817967</v>
       </c>
       <c r="D16">
-        <v>0.8018754530973844</v>
+        <v>0.9430442900590498</v>
       </c>
       <c r="E16">
-        <v>0.8224684148187661</v>
+        <v>0.9440865766567321</v>
       </c>
       <c r="F16">
-        <v>0.7921244807280582</v>
+        <v>0.9506436093299583</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.006193690141323</v>
+        <v>1.038552031227451</v>
       </c>
       <c r="J16">
-        <v>0.826670877257511</v>
+        <v>0.9514507568016681</v>
       </c>
       <c r="K16">
-        <v>0.8210088024119067</v>
+        <v>0.9550553348769473</v>
       </c>
       <c r="L16">
-        <v>0.8409538959505051</v>
+        <v>0.9560812611283434</v>
       </c>
       <c r="M16">
-        <v>0.8115809971368015</v>
+        <v>0.9625364210962742</v>
       </c>
       <c r="N16">
-        <v>0.8842115451493204</v>
+        <v>0.9528019260092535</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8051229919857333</v>
+        <v>0.9275082390817967</v>
       </c>
       <c r="D17">
-        <v>0.8195510605369583</v>
+        <v>0.9430442900590498</v>
       </c>
       <c r="E17">
-        <v>0.8382705277265592</v>
+        <v>0.9440865766567321</v>
       </c>
       <c r="F17">
-        <v>0.8107917975740639</v>
+        <v>0.9506436093299583</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.009805129705837</v>
+        <v>1.038552031227451</v>
       </c>
       <c r="J17">
-        <v>0.8428637722098595</v>
+        <v>0.9514507568016681</v>
       </c>
       <c r="K17">
-        <v>0.8376871366387898</v>
+        <v>0.9550553348769473</v>
       </c>
       <c r="L17">
-        <v>0.8558652408034469</v>
+        <v>0.9560812611283434</v>
       </c>
       <c r="M17">
-        <v>0.8291930462024337</v>
+        <v>0.9625364210962742</v>
       </c>
       <c r="N17">
-        <v>0.8952243012604554</v>
+        <v>0.9528019260092535</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8147614876939187</v>
+        <v>0.9275082390817967</v>
       </c>
       <c r="D18">
-        <v>0.8287172417163641</v>
+        <v>0.9430442900590498</v>
       </c>
       <c r="E18">
-        <v>0.8464724717739891</v>
+        <v>0.9440865766567321</v>
       </c>
       <c r="F18">
-        <v>0.8204678545144343</v>
+        <v>0.9506436093299583</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.01169139563609</v>
+        <v>1.038552031227451</v>
       </c>
       <c r="J18">
-        <v>0.851257230643782</v>
+        <v>0.9514507568016681</v>
       </c>
       <c r="K18">
-        <v>0.8463330261534346</v>
+        <v>0.9550553348769473</v>
       </c>
       <c r="L18">
-        <v>0.8635974005778974</v>
+        <v>0.9560812611283434</v>
       </c>
       <c r="M18">
-        <v>0.8383216272456742</v>
+        <v>0.9625364210962742</v>
       </c>
       <c r="N18">
-        <v>0.900934137615345</v>
+        <v>0.9528019260092535</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8178847364322746</v>
+        <v>0.9275082390817967</v>
       </c>
       <c r="D19">
-        <v>0.8316892871681526</v>
+        <v>0.9430442900590498</v>
       </c>
       <c r="E19">
-        <v>0.8491329090865994</v>
+        <v>0.9440865766567321</v>
       </c>
       <c r="F19">
-        <v>0.8236047019546486</v>
+        <v>0.9506436093299583</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.012304641796863</v>
+        <v>1.038552031227451</v>
       </c>
       <c r="J19">
-        <v>0.8539780688545271</v>
+        <v>0.9514507568016681</v>
       </c>
       <c r="K19">
-        <v>0.8491358444998323</v>
+        <v>0.9550553348769473</v>
       </c>
       <c r="L19">
-        <v>0.8661043248292449</v>
+        <v>0.9560812611283434</v>
       </c>
       <c r="M19">
-        <v>0.8412808312327156</v>
+        <v>0.9625364210962742</v>
       </c>
       <c r="N19">
-        <v>0.9027852389280743</v>
+        <v>0.9528019260092535</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8032637665909035</v>
+        <v>0.9275082390817967</v>
       </c>
       <c r="D20">
-        <v>0.8177839569841165</v>
+        <v>0.9430442900590498</v>
       </c>
       <c r="E20">
-        <v>0.8366898786094621</v>
+        <v>0.9440865766567321</v>
       </c>
       <c r="F20">
-        <v>0.8089260878771862</v>
+        <v>0.9506436093299583</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.009442449259467</v>
+        <v>1.038552031227451</v>
       </c>
       <c r="J20">
-        <v>0.8412453100959804</v>
+        <v>0.9514507568016681</v>
       </c>
       <c r="K20">
-        <v>0.8360200725265972</v>
+        <v>0.9550553348769473</v>
       </c>
       <c r="L20">
-        <v>0.8543745319041391</v>
+        <v>0.9560812611283434</v>
       </c>
       <c r="M20">
-        <v>0.8274328359890318</v>
+        <v>0.9625364210962742</v>
       </c>
       <c r="N20">
-        <v>0.8941234146197337</v>
+        <v>0.9528019260092535</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7336449504476747</v>
+        <v>0.9275082390817967</v>
       </c>
       <c r="D21">
-        <v>0.7518876537472674</v>
+        <v>0.9430442900590498</v>
       </c>
       <c r="E21">
-        <v>0.7778897535256777</v>
+        <v>0.9440865766567321</v>
       </c>
       <c r="F21">
-        <v>0.7392393823839265</v>
+        <v>0.9506436093299583</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>0.996238989300992</v>
+        <v>1.038552031227451</v>
       </c>
       <c r="J21">
-        <v>0.7808464611216188</v>
+        <v>0.9514507568016681</v>
       </c>
       <c r="K21">
-        <v>0.7738140437373491</v>
+        <v>0.9550553348769473</v>
       </c>
       <c r="L21">
-        <v>0.7987938915999596</v>
+        <v>0.9560812611283434</v>
       </c>
       <c r="M21">
-        <v>0.7617002764589181</v>
+        <v>0.9625364210962742</v>
       </c>
       <c r="N21">
-        <v>0.8530720571642746</v>
+        <v>0.9528019260092535</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7336449504476747</v>
+        <v>0.9275082390817967</v>
       </c>
       <c r="D22">
-        <v>0.7518876537472674</v>
+        <v>0.9430442900590498</v>
       </c>
       <c r="E22">
-        <v>0.7778897535256777</v>
+        <v>0.9440865766567321</v>
       </c>
       <c r="F22">
-        <v>0.7392393823839265</v>
+        <v>0.9506436093299583</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0.996238989300992</v>
+        <v>1.038552031227451</v>
       </c>
       <c r="J22">
-        <v>0.7808464611216188</v>
+        <v>0.9514507568016681</v>
       </c>
       <c r="K22">
-        <v>0.7738140437373491</v>
+        <v>0.9550553348769473</v>
       </c>
       <c r="L22">
-        <v>0.7987938915999596</v>
+        <v>0.9560812611283434</v>
       </c>
       <c r="M22">
-        <v>0.7617002764589181</v>
+        <v>0.9625364210962742</v>
       </c>
       <c r="N22">
-        <v>0.8530720571642746</v>
+        <v>0.9528019260092535</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.6853552630123146</v>
+        <v>0.9275082390817967</v>
       </c>
       <c r="D23">
-        <v>0.70657064730001</v>
+        <v>0.9430442900590498</v>
       </c>
       <c r="E23">
-        <v>0.737641806813933</v>
+        <v>0.9440865766567321</v>
       </c>
       <c r="F23">
-        <v>0.6911082578952017</v>
+        <v>0.9506436093299583</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0.9876712404673149</v>
+        <v>1.038552031227451</v>
       </c>
       <c r="J23">
-        <v>0.7393062491562057</v>
+        <v>0.9514507568016681</v>
       </c>
       <c r="K23">
-        <v>0.731021896074163</v>
+        <v>0.9550553348769473</v>
       </c>
       <c r="L23">
-        <v>0.7606192172372347</v>
+        <v>0.9560812611283434</v>
       </c>
       <c r="M23">
-        <v>0.7163652724681646</v>
+        <v>0.9625364210962742</v>
       </c>
       <c r="N23">
-        <v>0.8248866543491898</v>
+        <v>0.9528019260092535</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.804107460086578</v>
+        <v>0.9275082390817967</v>
       </c>
       <c r="D24">
-        <v>0.818585805330912</v>
+        <v>0.9430442900590498</v>
       </c>
       <c r="E24">
-        <v>0.8374070977554391</v>
+        <v>0.9440865766567321</v>
       </c>
       <c r="F24">
-        <v>0.8097726934801722</v>
+        <v>0.9506436093299583</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.009606979652124</v>
+        <v>1.038552031227451</v>
       </c>
       <c r="J24">
-        <v>0.8419797226945692</v>
+        <v>0.9514507568016681</v>
       </c>
       <c r="K24">
-        <v>0.8367765366705713</v>
+        <v>0.9550553348769473</v>
       </c>
       <c r="L24">
-        <v>0.8550509642399776</v>
+        <v>0.9560812611283434</v>
       </c>
       <c r="M24">
-        <v>0.8282315708429964</v>
+        <v>0.9625364210962742</v>
       </c>
       <c r="N24">
-        <v>0.8946229615183343</v>
+        <v>0.9528019260092535</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8643165684590416</v>
+        <v>0.9275082390817967</v>
       </c>
       <c r="D25">
-        <v>0.8759698978969065</v>
+        <v>0.9430442900590498</v>
       </c>
       <c r="E25">
-        <v>0.8888275287762071</v>
+        <v>0.9440865766567321</v>
       </c>
       <c r="F25">
-        <v>0.8703239563081173</v>
+        <v>0.9506436093299583</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.021496934123728</v>
+        <v>1.038552031227451</v>
       </c>
       <c r="J25">
-        <v>0.8944659457872219</v>
+        <v>0.9514507568016681</v>
       </c>
       <c r="K25">
-        <v>0.8908563229543989</v>
+        <v>0.9550553348769473</v>
       </c>
       <c r="L25">
-        <v>0.9034374787964006</v>
+        <v>0.9560812611283434</v>
       </c>
       <c r="M25">
-        <v>0.8853352231544265</v>
+        <v>0.9625364210962742</v>
       </c>
       <c r="N25">
-        <v>0.930339171076393</v>
+        <v>0.9528019260092535</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_43/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_43/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.907671558713666</v>
+        <v>0.9388973449233431</v>
       </c>
       <c r="D2">
-        <v>0.9239202666524408</v>
+        <v>0.947979109350414</v>
       </c>
       <c r="E2">
-        <v>0.9262517418096917</v>
+        <v>0.953890722127044</v>
       </c>
       <c r="F2">
-        <v>0.9322794020264759</v>
+        <v>0.8420813112065366</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037067644136288</v>
+        <v>1.018255390926148</v>
       </c>
       <c r="J2">
-        <v>0.9330140843665088</v>
+        <v>0.9630729640225522</v>
       </c>
       <c r="K2">
-        <v>0.9365521533220428</v>
+        <v>0.9602141205384697</v>
       </c>
       <c r="L2">
-        <v>0.9388440041116495</v>
+        <v>0.9660321358758128</v>
       </c>
       <c r="M2">
-        <v>0.9447704050173344</v>
+        <v>0.8562888660023787</v>
       </c>
       <c r="N2">
-        <v>0.9343390713845207</v>
+        <v>0.9920854708140978</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9604225851956297</v>
+        <v>0.9498015186868569</v>
       </c>
       <c r="D3">
-        <v>0.9748093000356235</v>
+        <v>0.9580782495852048</v>
       </c>
       <c r="E3">
-        <v>0.9737149502908544</v>
+        <v>0.9629143865834281</v>
       </c>
       <c r="F3">
-        <v>0.98115986737907</v>
+        <v>0.8775074349172354</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041022079347503</v>
+        <v>1.025336857976025</v>
       </c>
       <c r="J3">
-        <v>0.9820535686986186</v>
+        <v>0.9717609200476732</v>
       </c>
       <c r="K3">
-        <v>0.9857749807901998</v>
+        <v>0.9692771980270386</v>
       </c>
       <c r="L3">
-        <v>0.9846955800911047</v>
+        <v>0.9740448564022316</v>
       </c>
       <c r="M3">
-        <v>0.9920396253046265</v>
+        <v>0.8899913286649567</v>
       </c>
       <c r="N3">
-        <v>0.9834481974092892</v>
+        <v>0.9949411272136962</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9875866936823149</v>
+        <v>0.9560158174532292</v>
       </c>
       <c r="D4">
-        <v>1.001051015058814</v>
+        <v>0.9638079543871459</v>
       </c>
       <c r="E4">
-        <v>0.9981920905091294</v>
+        <v>0.9680502468738366</v>
       </c>
       <c r="F4">
-        <v>1.006377817501101</v>
+        <v>0.8962543451498846</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043058324873064</v>
+        <v>1.029061995330192</v>
       </c>
       <c r="J4">
-        <v>1.007313352943214</v>
+        <v>0.9766157276515051</v>
       </c>
       <c r="K4">
-        <v>1.011136771784814</v>
+        <v>0.9743637455722507</v>
       </c>
       <c r="L4">
-        <v>1.008312384491755</v>
+        <v>0.9785502110829217</v>
       </c>
       <c r="M4">
-        <v>1.016399872538405</v>
+        <v>0.9077902667580191</v>
       </c>
       <c r="N4">
-        <v>1.00874385344485</v>
+        <v>0.9965373795204461</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9979467375241944</v>
+        <v>0.9584825438730437</v>
       </c>
       <c r="D5">
-        <v>1.011064482867481</v>
+        <v>0.9660780697732702</v>
       </c>
       <c r="E5">
-        <v>1.007531535122153</v>
+        <v>0.9700882010682799</v>
       </c>
       <c r="F5">
-        <v>1.016001487146961</v>
+        <v>0.9034375125129637</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043832205409492</v>
+        <v>1.030481310489565</v>
       </c>
       <c r="J5">
-        <v>1.016946331619467</v>
+        <v>0.9785251204984067</v>
       </c>
       <c r="K5">
-        <v>1.02080988043397</v>
+        <v>0.9763685280828401</v>
       </c>
       <c r="L5">
-        <v>1.0173175614792</v>
+        <v>0.9803275108714337</v>
       </c>
       <c r="M5">
-        <v>1.025690692782271</v>
+        <v>0.9146019744224617</v>
       </c>
       <c r="N5">
-        <v>1.018390512055742</v>
+        <v>0.9971652655936465</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9996344356658925</v>
+        <v>0.9588892354140306</v>
       </c>
       <c r="D6">
-        <v>1.012695965730868</v>
+        <v>0.9664521334559163</v>
       </c>
       <c r="E6">
-        <v>1.009053140163535</v>
+        <v>0.9704241772741136</v>
       </c>
       <c r="F6">
-        <v>1.017569474549377</v>
+        <v>0.9046083482551068</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043958060289477</v>
+        <v>1.030712122871976</v>
       </c>
       <c r="J6">
-        <v>1.018515499128261</v>
+        <v>0.9788389907620026</v>
       </c>
       <c r="K6">
-        <v>1.022385646383289</v>
+        <v>0.9766983074612086</v>
       </c>
       <c r="L6">
-        <v>1.018784372656235</v>
+        <v>0.9806199552280388</v>
       </c>
       <c r="M6">
-        <v>1.027204138593969</v>
+        <v>0.9157117841560384</v>
       </c>
       <c r="N6">
-        <v>1.019961907962383</v>
+        <v>0.9972684827899495</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9877287900081286</v>
+        <v>0.9560492999146628</v>
       </c>
       <c r="D7">
-        <v>1.001188339796005</v>
+        <v>0.9638387833366477</v>
       </c>
       <c r="E7">
-        <v>0.9983201754459459</v>
+        <v>0.9680779112603584</v>
       </c>
       <c r="F7">
-        <v>1.006509794869234</v>
+        <v>0.8963527980937817</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043068952902275</v>
+        <v>1.029081483937409</v>
       </c>
       <c r="J7">
-        <v>1.007445482251605</v>
+        <v>0.976641710759297</v>
       </c>
       <c r="K7">
-        <v>1.011269447080084</v>
+        <v>0.9743910107024313</v>
       </c>
       <c r="L7">
-        <v>1.008435908543605</v>
+        <v>0.9785743764682047</v>
       </c>
       <c r="M7">
-        <v>1.016527306948459</v>
+        <v>0.907883661530417</v>
       </c>
       <c r="N7">
-        <v>1.008876170392013</v>
+        <v>0.9965459235408363</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9275082390817967</v>
+        <v>0.9428038791755725</v>
       </c>
       <c r="D8">
-        <v>0.9430442900590498</v>
+        <v>0.9516047967213626</v>
       </c>
       <c r="E8">
-        <v>0.9440865766567321</v>
+        <v>0.9571259158176867</v>
       </c>
       <c r="F8">
-        <v>0.9506436093299583</v>
+        <v>0.855176738035566</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038552031227451</v>
+        <v>1.020875884892897</v>
       </c>
       <c r="J8">
-        <v>0.9514507568016681</v>
+        <v>0.9662121310505565</v>
       </c>
       <c r="K8">
-        <v>0.9550553348769473</v>
+        <v>0.9634828256634485</v>
       </c>
       <c r="L8">
-        <v>0.9560812611283434</v>
+        <v>0.9689197640316456</v>
       </c>
       <c r="M8">
-        <v>0.9625364210962742</v>
+        <v>0.8687559573053449</v>
       </c>
       <c r="N8">
-        <v>0.9528019260092535</v>
+        <v>0.9931171307858147</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9275082390817967</v>
+        <v>0.9428038791755725</v>
       </c>
       <c r="D9">
-        <v>0.9430442900590498</v>
+        <v>0.9516047967213626</v>
       </c>
       <c r="E9">
-        <v>0.9440865766567321</v>
+        <v>0.9571259158176867</v>
       </c>
       <c r="F9">
-        <v>0.9506436093299583</v>
+        <v>0.855176738035566</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038552031227451</v>
+        <v>1.020875884892897</v>
       </c>
       <c r="J9">
-        <v>0.9514507568016681</v>
+        <v>0.9662121310505565</v>
       </c>
       <c r="K9">
-        <v>0.9550553348769473</v>
+        <v>0.9634828256634485</v>
       </c>
       <c r="L9">
-        <v>0.9560812611283434</v>
+        <v>0.9689197640316456</v>
       </c>
       <c r="M9">
-        <v>0.9625364210962742</v>
+        <v>0.8687559573053449</v>
       </c>
       <c r="N9">
-        <v>0.9528019260092535</v>
+        <v>0.9931171307858147</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9275082390817967</v>
+        <v>0.9428038791755725</v>
       </c>
       <c r="D10">
-        <v>0.9430442900590498</v>
+        <v>0.9516047967213626</v>
       </c>
       <c r="E10">
-        <v>0.9440865766567321</v>
+        <v>0.9571259158176867</v>
       </c>
       <c r="F10">
-        <v>0.9506436093299583</v>
+        <v>0.855176738035566</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038552031227451</v>
+        <v>1.020875884892897</v>
       </c>
       <c r="J10">
-        <v>0.9514507568016681</v>
+        <v>0.9662121310505565</v>
       </c>
       <c r="K10">
-        <v>0.9550553348769473</v>
+        <v>0.9634828256634485</v>
       </c>
       <c r="L10">
-        <v>0.9560812611283434</v>
+        <v>0.9689197640316456</v>
       </c>
       <c r="M10">
-        <v>0.9625364210962742</v>
+        <v>0.8687559573053449</v>
       </c>
       <c r="N10">
-        <v>0.9528019260092535</v>
+        <v>0.9931171307858147</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9275082390817967</v>
+        <v>0.9428038791755725</v>
       </c>
       <c r="D11">
-        <v>0.9430442900590498</v>
+        <v>0.9516047967213626</v>
       </c>
       <c r="E11">
-        <v>0.9440865766567321</v>
+        <v>0.9571259158176867</v>
       </c>
       <c r="F11">
-        <v>0.9506436093299583</v>
+        <v>0.855176738035566</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038552031227451</v>
+        <v>1.020875884892897</v>
       </c>
       <c r="J11">
-        <v>0.9514507568016681</v>
+        <v>0.9662121310505565</v>
       </c>
       <c r="K11">
-        <v>0.9550553348769473</v>
+        <v>0.9634828256634485</v>
       </c>
       <c r="L11">
-        <v>0.9560812611283434</v>
+        <v>0.9689197640316456</v>
       </c>
       <c r="M11">
-        <v>0.9625364210962742</v>
+        <v>0.8687559573053449</v>
       </c>
       <c r="N11">
-        <v>0.9528019260092535</v>
+        <v>0.9931171307858147</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9275082390817967</v>
+        <v>0.9428038791755725</v>
       </c>
       <c r="D12">
-        <v>0.9430442900590498</v>
+        <v>0.9516047967213626</v>
       </c>
       <c r="E12">
-        <v>0.9440865766567321</v>
+        <v>0.9571259158176867</v>
       </c>
       <c r="F12">
-        <v>0.9506436093299583</v>
+        <v>0.855176738035566</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038552031227451</v>
+        <v>1.020875884892897</v>
       </c>
       <c r="J12">
-        <v>0.9514507568016681</v>
+        <v>0.9662121310505565</v>
       </c>
       <c r="K12">
-        <v>0.9550553348769473</v>
+        <v>0.9634828256634485</v>
       </c>
       <c r="L12">
-        <v>0.9560812611283434</v>
+        <v>0.9689197640316456</v>
       </c>
       <c r="M12">
-        <v>0.9625364210962742</v>
+        <v>0.8687559573053449</v>
       </c>
       <c r="N12">
-        <v>0.9528019260092535</v>
+        <v>0.9931171307858147</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9275082390817967</v>
+        <v>0.9428038791755725</v>
       </c>
       <c r="D13">
-        <v>0.9430442900590498</v>
+        <v>0.9516047967213626</v>
       </c>
       <c r="E13">
-        <v>0.9440865766567321</v>
+        <v>0.9571259158176867</v>
       </c>
       <c r="F13">
-        <v>0.9506436093299583</v>
+        <v>0.855176738035566</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038552031227451</v>
+        <v>1.020875884892897</v>
       </c>
       <c r="J13">
-        <v>0.9514507568016681</v>
+        <v>0.9662121310505565</v>
       </c>
       <c r="K13">
-        <v>0.9550553348769473</v>
+        <v>0.9634828256634485</v>
       </c>
       <c r="L13">
-        <v>0.9560812611283434</v>
+        <v>0.9689197640316456</v>
       </c>
       <c r="M13">
-        <v>0.9625364210962742</v>
+        <v>0.8687559573053449</v>
       </c>
       <c r="N13">
-        <v>0.9528019260092535</v>
+        <v>0.9931171307858147</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9275082390817967</v>
+        <v>0.9428038791755725</v>
       </c>
       <c r="D14">
-        <v>0.9430442900590498</v>
+        <v>0.9516047967213626</v>
       </c>
       <c r="E14">
-        <v>0.9440865766567321</v>
+        <v>0.9571259158176867</v>
       </c>
       <c r="F14">
-        <v>0.9506436093299583</v>
+        <v>0.855176738035566</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038552031227451</v>
+        <v>1.020875884892897</v>
       </c>
       <c r="J14">
-        <v>0.9514507568016681</v>
+        <v>0.9662121310505565</v>
       </c>
       <c r="K14">
-        <v>0.9550553348769473</v>
+        <v>0.9634828256634485</v>
       </c>
       <c r="L14">
-        <v>0.9560812611283434</v>
+        <v>0.9689197640316456</v>
       </c>
       <c r="M14">
-        <v>0.9625364210962742</v>
+        <v>0.8687559573053449</v>
       </c>
       <c r="N14">
-        <v>0.9528019260092535</v>
+        <v>0.9931171307858147</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9275082390817967</v>
+        <v>0.9428038791755725</v>
       </c>
       <c r="D15">
-        <v>0.9430442900590498</v>
+        <v>0.9516047967213626</v>
       </c>
       <c r="E15">
-        <v>0.9440865766567321</v>
+        <v>0.9571259158176867</v>
       </c>
       <c r="F15">
-        <v>0.9506436093299583</v>
+        <v>0.855176738035566</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038552031227451</v>
+        <v>1.020875884892897</v>
       </c>
       <c r="J15">
-        <v>0.9514507568016681</v>
+        <v>0.9662121310505565</v>
       </c>
       <c r="K15">
-        <v>0.9550553348769473</v>
+        <v>0.9634828256634485</v>
       </c>
       <c r="L15">
-        <v>0.9560812611283434</v>
+        <v>0.9689197640316456</v>
       </c>
       <c r="M15">
-        <v>0.9625364210962742</v>
+        <v>0.8687559573053449</v>
       </c>
       <c r="N15">
-        <v>0.9528019260092535</v>
+        <v>0.9931171307858147</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9275082390817967</v>
+        <v>0.9428038791755725</v>
       </c>
       <c r="D16">
-        <v>0.9430442900590498</v>
+        <v>0.9516047967213626</v>
       </c>
       <c r="E16">
-        <v>0.9440865766567321</v>
+        <v>0.9571259158176867</v>
       </c>
       <c r="F16">
-        <v>0.9506436093299583</v>
+        <v>0.855176738035566</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038552031227451</v>
+        <v>1.020875884892897</v>
       </c>
       <c r="J16">
-        <v>0.9514507568016681</v>
+        <v>0.9662121310505565</v>
       </c>
       <c r="K16">
-        <v>0.9550553348769473</v>
+        <v>0.9634828256634485</v>
       </c>
       <c r="L16">
-        <v>0.9560812611283434</v>
+        <v>0.9689197640316456</v>
       </c>
       <c r="M16">
-        <v>0.9625364210962742</v>
+        <v>0.8687559573053449</v>
       </c>
       <c r="N16">
-        <v>0.9528019260092535</v>
+        <v>0.9931171307858147</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9275082390817967</v>
+        <v>0.9428038791755725</v>
       </c>
       <c r="D17">
-        <v>0.9430442900590498</v>
+        <v>0.9516047967213626</v>
       </c>
       <c r="E17">
-        <v>0.9440865766567321</v>
+        <v>0.9571259158176867</v>
       </c>
       <c r="F17">
-        <v>0.9506436093299583</v>
+        <v>0.855176738035566</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038552031227451</v>
+        <v>1.020875884892897</v>
       </c>
       <c r="J17">
-        <v>0.9514507568016681</v>
+        <v>0.9662121310505565</v>
       </c>
       <c r="K17">
-        <v>0.9550553348769473</v>
+        <v>0.9634828256634485</v>
       </c>
       <c r="L17">
-        <v>0.9560812611283434</v>
+        <v>0.9689197640316456</v>
       </c>
       <c r="M17">
-        <v>0.9625364210962742</v>
+        <v>0.8687559573053449</v>
       </c>
       <c r="N17">
-        <v>0.9528019260092535</v>
+        <v>0.9931171307858147</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9275082390817967</v>
+        <v>0.9428038791755725</v>
       </c>
       <c r="D18">
-        <v>0.9430442900590498</v>
+        <v>0.9516047967213626</v>
       </c>
       <c r="E18">
-        <v>0.9440865766567321</v>
+        <v>0.9571259158176867</v>
       </c>
       <c r="F18">
-        <v>0.9506436093299583</v>
+        <v>0.855176738035566</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038552031227451</v>
+        <v>1.020875884892897</v>
       </c>
       <c r="J18">
-        <v>0.9514507568016681</v>
+        <v>0.9662121310505565</v>
       </c>
       <c r="K18">
-        <v>0.9550553348769473</v>
+        <v>0.9634828256634485</v>
       </c>
       <c r="L18">
-        <v>0.9560812611283434</v>
+        <v>0.9689197640316456</v>
       </c>
       <c r="M18">
-        <v>0.9625364210962742</v>
+        <v>0.8687559573053449</v>
       </c>
       <c r="N18">
-        <v>0.9528019260092535</v>
+        <v>0.9931171307858147</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9275082390817967</v>
+        <v>0.9428038791755725</v>
       </c>
       <c r="D19">
-        <v>0.9430442900590498</v>
+        <v>0.9516047967213626</v>
       </c>
       <c r="E19">
-        <v>0.9440865766567321</v>
+        <v>0.9571259158176867</v>
       </c>
       <c r="F19">
-        <v>0.9506436093299583</v>
+        <v>0.855176738035566</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038552031227451</v>
+        <v>1.020875884892897</v>
       </c>
       <c r="J19">
-        <v>0.9514507568016681</v>
+        <v>0.9662121310505565</v>
       </c>
       <c r="K19">
-        <v>0.9550553348769473</v>
+        <v>0.9634828256634485</v>
       </c>
       <c r="L19">
-        <v>0.9560812611283434</v>
+        <v>0.9689197640316456</v>
       </c>
       <c r="M19">
-        <v>0.9625364210962742</v>
+        <v>0.8687559573053449</v>
       </c>
       <c r="N19">
-        <v>0.9528019260092535</v>
+        <v>0.9931171307858147</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9275082390817967</v>
+        <v>0.9428038791755725</v>
       </c>
       <c r="D20">
-        <v>0.9430442900590498</v>
+        <v>0.9516047967213626</v>
       </c>
       <c r="E20">
-        <v>0.9440865766567321</v>
+        <v>0.9571259158176867</v>
       </c>
       <c r="F20">
-        <v>0.9506436093299583</v>
+        <v>0.855176738035566</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038552031227451</v>
+        <v>1.020875884892897</v>
       </c>
       <c r="J20">
-        <v>0.9514507568016681</v>
+        <v>0.9662121310505565</v>
       </c>
       <c r="K20">
-        <v>0.9550553348769473</v>
+        <v>0.9634828256634485</v>
       </c>
       <c r="L20">
-        <v>0.9560812611283434</v>
+        <v>0.9689197640316456</v>
       </c>
       <c r="M20">
-        <v>0.9625364210962742</v>
+        <v>0.8687559573053449</v>
       </c>
       <c r="N20">
-        <v>0.9528019260092535</v>
+        <v>0.9931171307858147</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9275082390817967</v>
+        <v>0.9428038791755725</v>
       </c>
       <c r="D21">
-        <v>0.9430442900590498</v>
+        <v>0.9516047967213626</v>
       </c>
       <c r="E21">
-        <v>0.9440865766567321</v>
+        <v>0.9571259158176867</v>
       </c>
       <c r="F21">
-        <v>0.9506436093299583</v>
+        <v>0.855176738035566</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038552031227451</v>
+        <v>1.020875884892897</v>
       </c>
       <c r="J21">
-        <v>0.9514507568016681</v>
+        <v>0.9662121310505565</v>
       </c>
       <c r="K21">
-        <v>0.9550553348769473</v>
+        <v>0.9634828256634485</v>
       </c>
       <c r="L21">
-        <v>0.9560812611283434</v>
+        <v>0.9689197640316456</v>
       </c>
       <c r="M21">
-        <v>0.9625364210962742</v>
+        <v>0.8687559573053449</v>
       </c>
       <c r="N21">
-        <v>0.9528019260092535</v>
+        <v>0.9931171307858147</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9275082390817967</v>
+        <v>0.9428038791755725</v>
       </c>
       <c r="D22">
-        <v>0.9430442900590498</v>
+        <v>0.9516047967213626</v>
       </c>
       <c r="E22">
-        <v>0.9440865766567321</v>
+        <v>0.9571259158176867</v>
       </c>
       <c r="F22">
-        <v>0.9506436093299583</v>
+        <v>0.855176738035566</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038552031227451</v>
+        <v>1.020875884892897</v>
       </c>
       <c r="J22">
-        <v>0.9514507568016681</v>
+        <v>0.9662121310505565</v>
       </c>
       <c r="K22">
-        <v>0.9550553348769473</v>
+        <v>0.9634828256634485</v>
       </c>
       <c r="L22">
-        <v>0.9560812611283434</v>
+        <v>0.9689197640316456</v>
       </c>
       <c r="M22">
-        <v>0.9625364210962742</v>
+        <v>0.8687559573053449</v>
       </c>
       <c r="N22">
-        <v>0.9528019260092535</v>
+        <v>0.9931171307858147</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9275082390817967</v>
+        <v>0.9428038791755725</v>
       </c>
       <c r="D23">
-        <v>0.9430442900590498</v>
+        <v>0.9516047967213626</v>
       </c>
       <c r="E23">
-        <v>0.9440865766567321</v>
+        <v>0.9571259158176867</v>
       </c>
       <c r="F23">
-        <v>0.9506436093299583</v>
+        <v>0.855176738035566</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038552031227451</v>
+        <v>1.020875884892897</v>
       </c>
       <c r="J23">
-        <v>0.9514507568016681</v>
+        <v>0.9662121310505565</v>
       </c>
       <c r="K23">
-        <v>0.9550553348769473</v>
+        <v>0.9634828256634485</v>
       </c>
       <c r="L23">
-        <v>0.9560812611283434</v>
+        <v>0.9689197640316456</v>
       </c>
       <c r="M23">
-        <v>0.9625364210962742</v>
+        <v>0.8687559573053449</v>
       </c>
       <c r="N23">
-        <v>0.9528019260092535</v>
+        <v>0.9931171307858147</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9275082390817967</v>
+        <v>0.9428038791755725</v>
       </c>
       <c r="D24">
-        <v>0.9430442900590498</v>
+        <v>0.9516047967213626</v>
       </c>
       <c r="E24">
-        <v>0.9440865766567321</v>
+        <v>0.9571259158176867</v>
       </c>
       <c r="F24">
-        <v>0.9506436093299583</v>
+        <v>0.855176738035566</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038552031227451</v>
+        <v>1.020875884892897</v>
       </c>
       <c r="J24">
-        <v>0.9514507568016681</v>
+        <v>0.9662121310505565</v>
       </c>
       <c r="K24">
-        <v>0.9550553348769473</v>
+        <v>0.9634828256634485</v>
       </c>
       <c r="L24">
-        <v>0.9560812611283434</v>
+        <v>0.9689197640316456</v>
       </c>
       <c r="M24">
-        <v>0.9625364210962742</v>
+        <v>0.8687559573053449</v>
       </c>
       <c r="N24">
-        <v>0.9528019260092535</v>
+        <v>0.9931171307858147</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9275082390817967</v>
+        <v>0.9428038791755725</v>
       </c>
       <c r="D25">
-        <v>0.9430442900590498</v>
+        <v>0.9516047967213626</v>
       </c>
       <c r="E25">
-        <v>0.9440865766567321</v>
+        <v>0.9571259158176867</v>
       </c>
       <c r="F25">
-        <v>0.9506436093299583</v>
+        <v>0.855176738035566</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038552031227451</v>
+        <v>1.020875884892897</v>
       </c>
       <c r="J25">
-        <v>0.9514507568016681</v>
+        <v>0.9662121310505565</v>
       </c>
       <c r="K25">
-        <v>0.9550553348769473</v>
+        <v>0.9634828256634485</v>
       </c>
       <c r="L25">
-        <v>0.9560812611283434</v>
+        <v>0.9689197640316456</v>
       </c>
       <c r="M25">
-        <v>0.9625364210962742</v>
+        <v>0.8687559573053449</v>
       </c>
       <c r="N25">
-        <v>0.9528019260092535</v>
+        <v>0.9931171307858147</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_43/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_43/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9388973449233431</v>
+        <v>1.008646413965192</v>
       </c>
       <c r="D2">
-        <v>0.947979109350414</v>
+        <v>1.011292129856397</v>
       </c>
       <c r="E2">
-        <v>0.953890722127044</v>
+        <v>1.011191896199557</v>
       </c>
       <c r="F2">
-        <v>0.8420813112065366</v>
+        <v>1.01229742457813</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.018255390926148</v>
+        <v>1.022827583285258</v>
       </c>
       <c r="J2">
-        <v>0.9630729640225522</v>
+        <v>1.013911034312758</v>
       </c>
       <c r="K2">
-        <v>0.9602141205384697</v>
+        <v>1.01415974198265</v>
       </c>
       <c r="L2">
-        <v>0.9660321358758128</v>
+        <v>1.01405981078793</v>
       </c>
       <c r="M2">
-        <v>0.8562888660023787</v>
+        <v>1.015162006767323</v>
       </c>
       <c r="N2">
-        <v>0.9920854708140978</v>
+        <v>1.008810107016128</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9498015186868569</v>
+        <v>1.010021944816173</v>
       </c>
       <c r="D3">
-        <v>0.9580782495852048</v>
+        <v>1.012578359252706</v>
       </c>
       <c r="E3">
-        <v>0.9629143865834281</v>
+        <v>1.012366064095743</v>
       </c>
       <c r="F3">
-        <v>0.8775074349172354</v>
+        <v>1.014951094925411</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.025336857976025</v>
+        <v>1.023108887735401</v>
       </c>
       <c r="J3">
-        <v>0.9717609200476732</v>
+        <v>1.0149163029505</v>
       </c>
       <c r="K3">
-        <v>0.9692771980270386</v>
+        <v>1.015248885006025</v>
       </c>
       <c r="L3">
-        <v>0.9740448564022316</v>
+        <v>1.0150371834</v>
       </c>
       <c r="M3">
-        <v>0.8899913286649567</v>
+        <v>1.017615005122221</v>
       </c>
       <c r="N3">
-        <v>0.9949411272136962</v>
+        <v>1.009140587697577</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9560158174532292</v>
+        <v>1.010903280765557</v>
       </c>
       <c r="D4">
-        <v>0.9638079543871459</v>
+        <v>1.013402278278667</v>
       </c>
       <c r="E4">
-        <v>0.9680502468738366</v>
+        <v>1.013118706724255</v>
       </c>
       <c r="F4">
-        <v>0.8962543451498846</v>
+        <v>1.016618885653574</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.029061995330192</v>
+        <v>1.023277673179666</v>
       </c>
       <c r="J4">
-        <v>0.9766157276515051</v>
+        <v>1.015557744074275</v>
       </c>
       <c r="K4">
-        <v>0.9743637455722507</v>
+        <v>1.015944766446849</v>
       </c>
       <c r="L4">
-        <v>0.9785502110829217</v>
+        <v>1.015661947204082</v>
       </c>
       <c r="M4">
-        <v>0.9077902667580191</v>
+        <v>1.019152871948848</v>
       </c>
       <c r="N4">
-        <v>0.9965373795204461</v>
+        <v>1.009351445949817</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9584825438730437</v>
+        <v>1.011271741234859</v>
       </c>
       <c r="D5">
-        <v>0.9660780697732702</v>
+        <v>1.013746686941099</v>
       </c>
       <c r="E5">
-        <v>0.9700882010682799</v>
+        <v>1.013433442011817</v>
       </c>
       <c r="F5">
-        <v>0.9034375125129637</v>
+        <v>1.017308393167433</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.030481310489565</v>
+        <v>1.023345486493278</v>
       </c>
       <c r="J5">
-        <v>0.9785251204984067</v>
+        <v>1.015825274874751</v>
       </c>
       <c r="K5">
-        <v>0.9763685280828401</v>
+        <v>1.016235224791662</v>
       </c>
       <c r="L5">
-        <v>0.9803275108714337</v>
+        <v>1.015922792120972</v>
       </c>
       <c r="M5">
-        <v>0.9146019744224617</v>
+        <v>1.019787733302648</v>
       </c>
       <c r="N5">
-        <v>0.9971652655936465</v>
+        <v>1.009439386693721</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9588892354140306</v>
+        <v>1.011333487961706</v>
       </c>
       <c r="D6">
-        <v>0.9664521334559163</v>
+        <v>1.013804400276096</v>
       </c>
       <c r="E6">
-        <v>0.9704241772741136</v>
+        <v>1.013486190010977</v>
       </c>
       <c r="F6">
-        <v>0.9046083482551068</v>
+        <v>1.017423487248807</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.030712122871976</v>
+        <v>1.023356688957821</v>
       </c>
       <c r="J6">
-        <v>0.9788389907620026</v>
+        <v>1.015870070396353</v>
       </c>
       <c r="K6">
-        <v>0.9766983074612086</v>
+        <v>1.016283872361193</v>
       </c>
       <c r="L6">
-        <v>0.9806199552280388</v>
+        <v>1.015966484029825</v>
       </c>
       <c r="M6">
-        <v>0.9157117841560384</v>
+        <v>1.019893650290163</v>
       </c>
       <c r="N6">
-        <v>0.9972684827899495</v>
+        <v>1.009454111337598</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9560492999146628</v>
+        <v>1.01090821217382</v>
       </c>
       <c r="D7">
-        <v>0.9638387833366477</v>
+        <v>1.013406887968694</v>
       </c>
       <c r="E7">
-        <v>0.9680779112603584</v>
+        <v>1.013122918778594</v>
       </c>
       <c r="F7">
-        <v>0.8963527980937817</v>
+        <v>1.01662814436822</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.029081483937409</v>
+        <v>1.023278591626716</v>
       </c>
       <c r="J7">
-        <v>0.976641710759297</v>
+        <v>1.015561327166179</v>
       </c>
       <c r="K7">
-        <v>0.9743910107024313</v>
+        <v>1.015948655736438</v>
       </c>
       <c r="L7">
-        <v>0.9785743764682047</v>
+        <v>1.015665439685322</v>
       </c>
       <c r="M7">
-        <v>0.907883661530417</v>
+        <v>1.019161400592074</v>
       </c>
       <c r="N7">
-        <v>0.9965459235408363</v>
+        <v>1.00935262377123</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9428038791755725</v>
+        <v>1.009113109594213</v>
       </c>
       <c r="D8">
-        <v>0.9516047967213626</v>
+        <v>1.011728568650955</v>
       </c>
       <c r="E8">
-        <v>0.9571259158176867</v>
+        <v>1.011590204848559</v>
       </c>
       <c r="F8">
-        <v>0.855176738035566</v>
+        <v>1.013204563420708</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.020875884892897</v>
+        <v>1.022925408098077</v>
       </c>
       <c r="J8">
-        <v>0.9662121310505565</v>
+        <v>1.014252660193518</v>
       </c>
       <c r="K8">
-        <v>0.9634828256634485</v>
+        <v>1.014529679201516</v>
       </c>
       <c r="L8">
-        <v>0.9689197640316456</v>
+        <v>1.014391722538553</v>
       </c>
       <c r="M8">
-        <v>0.8687559573053449</v>
+        <v>1.016001338343124</v>
       </c>
       <c r="N8">
-        <v>0.9931171307858147</v>
+        <v>1.008922419093536</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9428038791755725</v>
+        <v>1.005881380305241</v>
       </c>
       <c r="D9">
-        <v>0.9516047967213626</v>
+        <v>1.008705511637789</v>
       </c>
       <c r="E9">
-        <v>0.9571259158176867</v>
+        <v>1.008833393751115</v>
       </c>
       <c r="F9">
-        <v>0.855176738035566</v>
+        <v>1.00678568889827</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.020875884892897</v>
+        <v>1.022200423623341</v>
       </c>
       <c r="J9">
-        <v>0.9662121310505565</v>
+        <v>1.011875878842454</v>
       </c>
       <c r="K9">
-        <v>0.9634828256634485</v>
+        <v>1.011959776244926</v>
       </c>
       <c r="L9">
-        <v>0.9689197640316456</v>
+        <v>1.012087216056089</v>
       </c>
       <c r="M9">
-        <v>0.8687559573053449</v>
+        <v>1.010046608407749</v>
       </c>
       <c r="N9">
-        <v>0.9931171307858147</v>
+        <v>1.008140974237771</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9428038791755725</v>
+        <v>1.003678250791602</v>
       </c>
       <c r="D10">
-        <v>0.9516047967213626</v>
+        <v>1.006643541996946</v>
       </c>
       <c r="E10">
-        <v>0.9571259158176867</v>
+        <v>1.006955743419767</v>
       </c>
       <c r="F10">
-        <v>0.855176738035566</v>
+        <v>1.002234127190617</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.020875884892897</v>
+        <v>1.021646160605932</v>
       </c>
       <c r="J10">
-        <v>0.9662121310505565</v>
+        <v>1.010241460384518</v>
       </c>
       <c r="K10">
-        <v>0.9634828256634485</v>
+        <v>1.010197414604496</v>
       </c>
       <c r="L10">
-        <v>0.9689197640316456</v>
+        <v>1.010508427753418</v>
       </c>
       <c r="M10">
-        <v>0.8687559573053449</v>
+        <v>1.005804870230878</v>
       </c>
       <c r="N10">
-        <v>0.9931171307858147</v>
+        <v>1.007603531192753</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9428038791755725</v>
+        <v>1.002712108930297</v>
       </c>
       <c r="D11">
-        <v>0.9516047967213626</v>
+        <v>1.005739032984408</v>
       </c>
       <c r="E11">
-        <v>0.9571259158176867</v>
+        <v>1.006132742772642</v>
       </c>
       <c r="F11">
-        <v>0.855176738035566</v>
+        <v>1.000195541274163</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.020875884892897</v>
+        <v>1.021388843948345</v>
       </c>
       <c r="J11">
-        <v>0.9662121310505565</v>
+        <v>1.009521332991206</v>
       </c>
       <c r="K11">
-        <v>0.9634828256634485</v>
+        <v>1.009422067674186</v>
       </c>
       <c r="L11">
-        <v>0.9689197640316456</v>
+        <v>1.009814219386273</v>
       </c>
       <c r="M11">
-        <v>0.8687559573053449</v>
+        <v>1.003900658822674</v>
       </c>
       <c r="N11">
-        <v>0.9931171307858147</v>
+        <v>1.00736671590633</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9428038791755725</v>
+        <v>1.002351354576249</v>
       </c>
       <c r="D12">
-        <v>0.9516047967213626</v>
+        <v>1.005401250502746</v>
       </c>
       <c r="E12">
-        <v>0.9571259158176867</v>
+        <v>1.005825498246155</v>
       </c>
       <c r="F12">
-        <v>0.855176738035566</v>
+        <v>0.9994278554538939</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.020875884892897</v>
+        <v>1.021290617304148</v>
       </c>
       <c r="J12">
-        <v>0.9662121310505565</v>
+        <v>1.009251927876413</v>
       </c>
       <c r="K12">
-        <v>0.9634828256634485</v>
+        <v>1.009132177865306</v>
       </c>
       <c r="L12">
-        <v>0.9689197640316456</v>
+        <v>1.009554722779117</v>
       </c>
       <c r="M12">
-        <v>0.8687559573053449</v>
+        <v>1.003182929600929</v>
       </c>
       <c r="N12">
-        <v>0.9931171307858147</v>
+        <v>1.007278119015379</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9428038791755725</v>
+        <v>1.002428823930299</v>
       </c>
       <c r="D13">
-        <v>0.9516047967213626</v>
+        <v>1.005473788716769</v>
       </c>
       <c r="E13">
-        <v>0.9571259158176867</v>
+        <v>1.005891473983286</v>
       </c>
       <c r="F13">
-        <v>0.855176738035566</v>
+        <v>0.9995930050484571</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.020875884892897</v>
+        <v>1.021311807850252</v>
       </c>
       <c r="J13">
-        <v>0.9662121310505565</v>
+        <v>1.009309803855467</v>
       </c>
       <c r="K13">
-        <v>0.9634828256634485</v>
+        <v>1.009194446704614</v>
       </c>
       <c r="L13">
-        <v>0.9689197640316456</v>
+        <v>1.009610460532091</v>
       </c>
       <c r="M13">
-        <v>0.8687559573053449</v>
+        <v>1.003337361165183</v>
       </c>
       <c r="N13">
-        <v>0.9931171307858147</v>
+        <v>1.007297152291559</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9428038791755725</v>
+        <v>1.002682327687129</v>
       </c>
       <c r="D14">
-        <v>0.9516047967213626</v>
+        <v>1.005711148985741</v>
       </c>
       <c r="E14">
-        <v>0.9571259158176867</v>
+        <v>1.006107377660579</v>
       </c>
       <c r="F14">
-        <v>0.855176738035566</v>
+        <v>1.000132299330434</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.020875884892897</v>
+        <v>1.02138077879649</v>
       </c>
       <c r="J14">
-        <v>0.9662121310505565</v>
+        <v>1.009499103319021</v>
       </c>
       <c r="K14">
-        <v>0.9634828256634485</v>
+        <v>1.009398144199291</v>
       </c>
       <c r="L14">
-        <v>0.9689197640316456</v>
+        <v>1.009792802985549</v>
       </c>
       <c r="M14">
-        <v>0.8687559573053449</v>
+        <v>1.00384154534539</v>
       </c>
       <c r="N14">
-        <v>0.9931171307858147</v>
+        <v>1.007359405480006</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9428038791755725</v>
+        <v>1.002838267990452</v>
       </c>
       <c r="D15">
-        <v>0.9516047967213626</v>
+        <v>1.005857153244523</v>
       </c>
       <c r="E15">
-        <v>0.9571259158176867</v>
+        <v>1.006240196760964</v>
       </c>
       <c r="F15">
-        <v>0.855176738035566</v>
+        <v>1.000463180757737</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.020875884892897</v>
+        <v>1.021422921776436</v>
       </c>
       <c r="J15">
-        <v>0.9662121310505565</v>
+        <v>1.00961548121031</v>
       </c>
       <c r="K15">
-        <v>0.9634828256634485</v>
+        <v>1.009523396651916</v>
       </c>
       <c r="L15">
-        <v>0.9689197640316456</v>
+        <v>1.0099049318578</v>
       </c>
       <c r="M15">
-        <v>0.8687559573053449</v>
+        <v>1.004150800438891</v>
       </c>
       <c r="N15">
-        <v>0.9931171307858147</v>
+        <v>1.00739767728778</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9428038791755725</v>
+        <v>1.003742109163916</v>
       </c>
       <c r="D16">
-        <v>0.9516047967213626</v>
+        <v>1.006703320917665</v>
       </c>
       <c r="E16">
-        <v>0.9571259158176867</v>
+        <v>1.007010149252668</v>
       </c>
       <c r="F16">
-        <v>0.855176738035566</v>
+        <v>1.002367970247062</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.020875884892897</v>
+        <v>1.021662869162574</v>
       </c>
       <c r="J16">
-        <v>0.9662121310505565</v>
+        <v>1.010288986907132</v>
       </c>
       <c r="K16">
-        <v>0.9634828256634485</v>
+        <v>1.010248609601503</v>
       </c>
       <c r="L16">
-        <v>0.9689197640316456</v>
+        <v>1.010554273188587</v>
       </c>
       <c r="M16">
-        <v>0.8687559573053449</v>
+        <v>1.005929800836464</v>
       </c>
       <c r="N16">
-        <v>0.9931171307858147</v>
+        <v>1.007619160030419</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9428038791755725</v>
+        <v>1.004305766535598</v>
       </c>
       <c r="D17">
-        <v>0.9516047967213626</v>
+        <v>1.007230939158178</v>
       </c>
       <c r="E17">
-        <v>0.9571259158176867</v>
+        <v>1.007490418954235</v>
       </c>
       <c r="F17">
-        <v>0.855176738035566</v>
+        <v>1.003544463576809</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.020875884892897</v>
+        <v>1.021808714138521</v>
       </c>
       <c r="J17">
-        <v>0.9662121310505565</v>
+        <v>1.01070809965303</v>
       </c>
       <c r="K17">
-        <v>0.9634828256634485</v>
+        <v>1.01070020473215</v>
       </c>
       <c r="L17">
-        <v>0.9689197640316456</v>
+        <v>1.010958722507577</v>
       </c>
       <c r="M17">
-        <v>0.8687559573053449</v>
+        <v>1.007027456233589</v>
       </c>
       <c r="N17">
-        <v>0.9931171307858147</v>
+        <v>1.007756981028552</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9428038791755725</v>
+        <v>1.004633367978292</v>
       </c>
       <c r="D18">
-        <v>0.9516047967213626</v>
+        <v>1.007537568617639</v>
       </c>
       <c r="E18">
-        <v>0.9571259158176867</v>
+        <v>1.007769594027454</v>
       </c>
       <c r="F18">
-        <v>0.855176738035566</v>
+        <v>1.00422417784475</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.020875884892897</v>
+        <v>1.021892115505348</v>
       </c>
       <c r="J18">
-        <v>0.9662121310505565</v>
+        <v>1.010951367063032</v>
       </c>
       <c r="K18">
-        <v>0.9634828256634485</v>
+        <v>1.010962436062044</v>
       </c>
       <c r="L18">
-        <v>0.9689197640316456</v>
+        <v>1.011193613208824</v>
       </c>
       <c r="M18">
-        <v>0.8687559573053449</v>
+        <v>1.007661206017583</v>
       </c>
       <c r="N18">
-        <v>0.9931171307858147</v>
+        <v>1.007836975432551</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9428038791755725</v>
+        <v>1.004744874776143</v>
       </c>
       <c r="D19">
-        <v>0.9516047967213626</v>
+        <v>1.007641932764769</v>
       </c>
       <c r="E19">
-        <v>0.9571259158176867</v>
+        <v>1.007864624412054</v>
       </c>
       <c r="F19">
-        <v>0.855176738035566</v>
+        <v>1.004454846334689</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.020875884892897</v>
+        <v>1.021920271712059</v>
       </c>
       <c r="J19">
-        <v>0.9662121310505565</v>
+        <v>1.011034113991051</v>
       </c>
       <c r="K19">
-        <v>0.9634828256634485</v>
+        <v>1.011051652189238</v>
       </c>
       <c r="L19">
-        <v>0.9689197640316456</v>
+        <v>1.011273533611196</v>
       </c>
       <c r="M19">
-        <v>0.8687559573053449</v>
+        <v>1.007876204930487</v>
       </c>
       <c r="N19">
-        <v>0.9931171307858147</v>
+        <v>1.00786418509266</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9428038791755725</v>
+        <v>1.004245412894813</v>
       </c>
       <c r="D20">
-        <v>0.9516047967213626</v>
+        <v>1.007174447088361</v>
       </c>
       <c r="E20">
-        <v>0.9571259158176867</v>
+        <v>1.007438990001944</v>
       </c>
       <c r="F20">
-        <v>0.855176738035566</v>
+        <v>1.00341891281462</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.020875884892897</v>
+        <v>1.021793239156063</v>
       </c>
       <c r="J20">
-        <v>0.9662121310505565</v>
+        <v>1.010663256689616</v>
       </c>
       <c r="K20">
-        <v>0.9634828256634485</v>
+        <v>1.010651874912773</v>
       </c>
       <c r="L20">
-        <v>0.9689197640316456</v>
+        <v>1.010915434521996</v>
       </c>
       <c r="M20">
-        <v>0.8687559573053449</v>
+        <v>1.006910361852493</v>
       </c>
       <c r="N20">
-        <v>0.9931171307858147</v>
+        <v>1.007742235040907</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9428038791755725</v>
+        <v>1.002607729699117</v>
       </c>
       <c r="D21">
-        <v>0.9516047967213626</v>
+        <v>1.005641302663083</v>
       </c>
       <c r="E21">
-        <v>0.9571259158176867</v>
+        <v>1.006043842473613</v>
       </c>
       <c r="F21">
-        <v>0.855176738035566</v>
+        <v>0.9999737818872544</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.020875884892897</v>
+        <v>1.021360542051932</v>
       </c>
       <c r="J21">
-        <v>0.9662121310505565</v>
+        <v>1.009443412725443</v>
       </c>
       <c r="K21">
-        <v>0.9634828256634485</v>
+        <v>1.009338213025364</v>
       </c>
       <c r="L21">
-        <v>0.9689197640316456</v>
+        <v>1.00973915325026</v>
       </c>
       <c r="M21">
-        <v>0.8687559573053449</v>
+        <v>1.003693365648453</v>
       </c>
       <c r="N21">
-        <v>0.9931171307858147</v>
+        <v>1.007341091090635</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9428038791755725</v>
+        <v>1.001567108860067</v>
       </c>
       <c r="D22">
-        <v>0.9516047967213626</v>
+        <v>1.004666865853775</v>
       </c>
       <c r="E22">
-        <v>0.9571259158176867</v>
+        <v>1.005157690225753</v>
       </c>
       <c r="F22">
-        <v>0.855176738035566</v>
+        <v>0.9977469910722081</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.020875884892897</v>
+        <v>1.021073143483512</v>
       </c>
       <c r="J22">
-        <v>0.9662121310505565</v>
+        <v>1.008665324280023</v>
       </c>
       <c r="K22">
-        <v>0.9634828256634485</v>
+        <v>1.008501289250969</v>
       </c>
       <c r="L22">
-        <v>0.9689197640316456</v>
+        <v>1.008990083600116</v>
       </c>
       <c r="M22">
-        <v>0.8687559573053449</v>
+        <v>1.001610272144382</v>
       </c>
       <c r="N22">
-        <v>0.9931171307858147</v>
+        <v>1.007085203336629</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9428038791755725</v>
+        <v>1.002119819223535</v>
       </c>
       <c r="D23">
-        <v>0.9516047967213626</v>
+        <v>1.005184446832403</v>
       </c>
       <c r="E23">
-        <v>0.9571259158176867</v>
+        <v>1.005628323248888</v>
       </c>
       <c r="F23">
-        <v>0.855176738035566</v>
+        <v>0.9989333102599026</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.020875884892897</v>
+        <v>1.021226969748428</v>
       </c>
       <c r="J23">
-        <v>0.9662121310505565</v>
+        <v>1.009078876663895</v>
       </c>
       <c r="K23">
-        <v>0.9634828256634485</v>
+        <v>1.008946017266213</v>
       </c>
       <c r="L23">
-        <v>0.9689197640316456</v>
+        <v>1.009388096038074</v>
       </c>
       <c r="M23">
-        <v>0.8687559573053449</v>
+        <v>1.002720386211757</v>
       </c>
       <c r="N23">
-        <v>0.9931171307858147</v>
+        <v>1.007221208489272</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9428038791755725</v>
+        <v>1.004272687720373</v>
       </c>
       <c r="D24">
-        <v>0.9516047967213626</v>
+        <v>1.007199976884807</v>
       </c>
       <c r="E24">
-        <v>0.9571259158176867</v>
+        <v>1.007462231489618</v>
       </c>
       <c r="F24">
-        <v>0.855176738035566</v>
+        <v>1.003475663910708</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.020875884892897</v>
+        <v>1.021800236784383</v>
       </c>
       <c r="J24">
-        <v>0.9662121310505565</v>
+        <v>1.010683522980798</v>
       </c>
       <c r="K24">
-        <v>0.9634828256634485</v>
+        <v>1.010673716709996</v>
       </c>
       <c r="L24">
-        <v>0.9689197640316456</v>
+        <v>1.010934997641495</v>
       </c>
       <c r="M24">
-        <v>0.8687559573053449</v>
+        <v>1.006963291811816</v>
       </c>
       <c r="N24">
-        <v>0.9931171307858147</v>
+        <v>1.007748899335216</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9428038791755725</v>
+        <v>1.006725234458547</v>
       </c>
       <c r="D25">
-        <v>0.9516047967213626</v>
+        <v>1.009495066429831</v>
       </c>
       <c r="E25">
-        <v>0.9571259158176867</v>
+        <v>1.009552939992108</v>
       </c>
       <c r="F25">
-        <v>0.855176738035566</v>
+        <v>1.00849212760781</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.020875884892897</v>
+        <v>1.02240020001346</v>
       </c>
       <c r="J25">
-        <v>0.9662121310505565</v>
+        <v>1.012498947110091</v>
       </c>
       <c r="K25">
-        <v>0.9634828256634485</v>
+        <v>1.012632626159716</v>
       </c>
       <c r="L25">
-        <v>0.9689197640316456</v>
+        <v>1.012690307311561</v>
       </c>
       <c r="M25">
-        <v>0.8687559573053449</v>
+        <v>1.011633025626726</v>
       </c>
       <c r="N25">
-        <v>0.9931171307858147</v>
+        <v>1.008345841479275</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_43/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_43/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.008646413965192</v>
+        <v>0.9388973449233425</v>
       </c>
       <c r="D2">
-        <v>1.011292129856397</v>
+        <v>0.9479791093504132</v>
       </c>
       <c r="E2">
-        <v>1.011191896199557</v>
+        <v>0.9538907221270433</v>
       </c>
       <c r="F2">
-        <v>1.01229742457813</v>
+        <v>0.8420813112065358</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.022827583285258</v>
+        <v>1.018255390926148</v>
       </c>
       <c r="J2">
-        <v>1.013911034312758</v>
+        <v>0.9630729640225515</v>
       </c>
       <c r="K2">
-        <v>1.01415974198265</v>
+        <v>0.960214120538469</v>
       </c>
       <c r="L2">
-        <v>1.01405981078793</v>
+        <v>0.9660321358758123</v>
       </c>
       <c r="M2">
-        <v>1.015162006767323</v>
+        <v>0.8562888660023781</v>
       </c>
       <c r="N2">
-        <v>1.008810107016128</v>
+        <v>0.9920854708140975</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.010021944816173</v>
+        <v>0.9498015186868565</v>
       </c>
       <c r="D3">
-        <v>1.012578359252706</v>
+        <v>0.9580782495852045</v>
       </c>
       <c r="E3">
-        <v>1.012366064095743</v>
+        <v>0.9629143865834275</v>
       </c>
       <c r="F3">
-        <v>1.014951094925411</v>
+        <v>0.8775074349172348</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.023108887735401</v>
+        <v>1.025336857976025</v>
       </c>
       <c r="J3">
-        <v>1.0149163029505</v>
+        <v>0.9717609200476728</v>
       </c>
       <c r="K3">
-        <v>1.015248885006025</v>
+        <v>0.9692771980270382</v>
       </c>
       <c r="L3">
-        <v>1.0150371834</v>
+        <v>0.9740448564022308</v>
       </c>
       <c r="M3">
-        <v>1.017615005122221</v>
+        <v>0.889991328664956</v>
       </c>
       <c r="N3">
-        <v>1.009140587697577</v>
+        <v>0.994941127213696</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.010903280765557</v>
+        <v>0.9560158174532282</v>
       </c>
       <c r="D4">
-        <v>1.013402278278667</v>
+        <v>0.9638079543871449</v>
       </c>
       <c r="E4">
-        <v>1.013118706724255</v>
+        <v>0.9680502468738358</v>
       </c>
       <c r="F4">
-        <v>1.016618885653574</v>
+        <v>0.8962543451498834</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.023277673179666</v>
+        <v>1.029061995330192</v>
       </c>
       <c r="J4">
-        <v>1.015557744074275</v>
+        <v>0.9766157276515043</v>
       </c>
       <c r="K4">
-        <v>1.015944766446849</v>
+        <v>0.9743637455722497</v>
       </c>
       <c r="L4">
-        <v>1.015661947204082</v>
+        <v>0.9785502110829208</v>
       </c>
       <c r="M4">
-        <v>1.019152871948848</v>
+        <v>0.907790266758018</v>
       </c>
       <c r="N4">
-        <v>1.009351445949817</v>
+        <v>0.9965373795204457</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.011271741234859</v>
+        <v>0.9584825438730427</v>
       </c>
       <c r="D5">
-        <v>1.013746686941099</v>
+        <v>0.9660780697732697</v>
       </c>
       <c r="E5">
-        <v>1.013433442011817</v>
+        <v>0.9700882010682791</v>
       </c>
       <c r="F5">
-        <v>1.017308393167433</v>
+        <v>0.903437512512963</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.023345486493278</v>
+        <v>1.030481310489565</v>
       </c>
       <c r="J5">
-        <v>1.015825274874751</v>
+        <v>0.978525120498406</v>
       </c>
       <c r="K5">
-        <v>1.016235224791662</v>
+        <v>0.9763685280828395</v>
       </c>
       <c r="L5">
-        <v>1.015922792120972</v>
+        <v>0.980327510871433</v>
       </c>
       <c r="M5">
-        <v>1.019787733302648</v>
+        <v>0.9146019744224609</v>
       </c>
       <c r="N5">
-        <v>1.009439386693721</v>
+        <v>0.9971652655936463</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.011333487961706</v>
+        <v>0.958889235414031</v>
       </c>
       <c r="D6">
-        <v>1.013804400276096</v>
+        <v>0.9664521334559166</v>
       </c>
       <c r="E6">
-        <v>1.013486190010977</v>
+        <v>0.9704241772741137</v>
       </c>
       <c r="F6">
-        <v>1.017423487248807</v>
+        <v>0.9046083482551065</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.023356688957821</v>
+        <v>1.030712122871976</v>
       </c>
       <c r="J6">
-        <v>1.015870070396353</v>
+        <v>0.9788389907620031</v>
       </c>
       <c r="K6">
-        <v>1.016283872361193</v>
+        <v>0.976698307461209</v>
       </c>
       <c r="L6">
-        <v>1.015966484029825</v>
+        <v>0.9806199552280389</v>
       </c>
       <c r="M6">
-        <v>1.019893650290163</v>
+        <v>0.9157117841560383</v>
       </c>
       <c r="N6">
-        <v>1.009454111337598</v>
+        <v>0.9972684827899497</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.01090821217382</v>
+        <v>0.9560492999146629</v>
       </c>
       <c r="D7">
-        <v>1.013406887968694</v>
+        <v>0.9638387833366477</v>
       </c>
       <c r="E7">
-        <v>1.013122918778594</v>
+        <v>0.9680779112603582</v>
       </c>
       <c r="F7">
-        <v>1.01662814436822</v>
+        <v>0.8963527980937815</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.023278591626716</v>
+        <v>1.029081483937409</v>
       </c>
       <c r="J7">
-        <v>1.015561327166179</v>
+        <v>0.976641710759297</v>
       </c>
       <c r="K7">
-        <v>1.015948655736438</v>
+        <v>0.9743910107024313</v>
       </c>
       <c r="L7">
-        <v>1.015665439685322</v>
+        <v>0.9785743764682044</v>
       </c>
       <c r="M7">
-        <v>1.019161400592074</v>
+        <v>0.9078836615304171</v>
       </c>
       <c r="N7">
-        <v>1.00935262377123</v>
+        <v>0.9965459235408364</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.009113109594213</v>
+        <v>0.9428038791755724</v>
       </c>
       <c r="D8">
-        <v>1.011728568650955</v>
+        <v>0.9516047967213622</v>
       </c>
       <c r="E8">
-        <v>1.011590204848559</v>
+        <v>0.9571259158176868</v>
       </c>
       <c r="F8">
-        <v>1.013204563420708</v>
+        <v>0.8551767380355656</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.022925408098077</v>
+        <v>1.020875884892897</v>
       </c>
       <c r="J8">
-        <v>1.014252660193518</v>
+        <v>0.9662121310505565</v>
       </c>
       <c r="K8">
-        <v>1.014529679201516</v>
+        <v>0.9634828256634481</v>
       </c>
       <c r="L8">
-        <v>1.014391722538553</v>
+        <v>0.9689197640316454</v>
       </c>
       <c r="M8">
-        <v>1.016001338343124</v>
+        <v>0.8687559573053443</v>
       </c>
       <c r="N8">
-        <v>1.008922419093536</v>
+        <v>0.9931171307858147</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.005881380305241</v>
+        <v>0.9428038791755724</v>
       </c>
       <c r="D9">
-        <v>1.008705511637789</v>
+        <v>0.9516047967213622</v>
       </c>
       <c r="E9">
-        <v>1.008833393751115</v>
+        <v>0.9571259158176868</v>
       </c>
       <c r="F9">
-        <v>1.00678568889827</v>
+        <v>0.8551767380355656</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.022200423623341</v>
+        <v>1.020875884892897</v>
       </c>
       <c r="J9">
-        <v>1.011875878842454</v>
+        <v>0.9662121310505565</v>
       </c>
       <c r="K9">
-        <v>1.011959776244926</v>
+        <v>0.9634828256634481</v>
       </c>
       <c r="L9">
-        <v>1.012087216056089</v>
+        <v>0.9689197640316454</v>
       </c>
       <c r="M9">
-        <v>1.010046608407749</v>
+        <v>0.8687559573053443</v>
       </c>
       <c r="N9">
-        <v>1.008140974237771</v>
+        <v>0.9931171307858147</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.003678250791602</v>
+        <v>0.9428038791755724</v>
       </c>
       <c r="D10">
-        <v>1.006643541996946</v>
+        <v>0.9516047967213622</v>
       </c>
       <c r="E10">
-        <v>1.006955743419767</v>
+        <v>0.9571259158176868</v>
       </c>
       <c r="F10">
-        <v>1.002234127190617</v>
+        <v>0.8551767380355656</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.021646160605932</v>
+        <v>1.020875884892897</v>
       </c>
       <c r="J10">
-        <v>1.010241460384518</v>
+        <v>0.9662121310505565</v>
       </c>
       <c r="K10">
-        <v>1.010197414604496</v>
+        <v>0.9634828256634481</v>
       </c>
       <c r="L10">
-        <v>1.010508427753418</v>
+        <v>0.9689197640316454</v>
       </c>
       <c r="M10">
-        <v>1.005804870230878</v>
+        <v>0.8687559573053443</v>
       </c>
       <c r="N10">
-        <v>1.007603531192753</v>
+        <v>0.9931171307858147</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.002712108930297</v>
+        <v>0.9428038791755724</v>
       </c>
       <c r="D11">
-        <v>1.005739032984408</v>
+        <v>0.9516047967213622</v>
       </c>
       <c r="E11">
-        <v>1.006132742772642</v>
+        <v>0.9571259158176868</v>
       </c>
       <c r="F11">
-        <v>1.000195541274163</v>
+        <v>0.8551767380355656</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.021388843948345</v>
+        <v>1.020875884892897</v>
       </c>
       <c r="J11">
-        <v>1.009521332991206</v>
+        <v>0.9662121310505565</v>
       </c>
       <c r="K11">
-        <v>1.009422067674186</v>
+        <v>0.9634828256634481</v>
       </c>
       <c r="L11">
-        <v>1.009814219386273</v>
+        <v>0.9689197640316454</v>
       </c>
       <c r="M11">
-        <v>1.003900658822674</v>
+        <v>0.8687559573053443</v>
       </c>
       <c r="N11">
-        <v>1.00736671590633</v>
+        <v>0.9931171307858147</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.002351354576249</v>
+        <v>0.9428038791755724</v>
       </c>
       <c r="D12">
-        <v>1.005401250502746</v>
+        <v>0.9516047967213622</v>
       </c>
       <c r="E12">
-        <v>1.005825498246155</v>
+        <v>0.9571259158176868</v>
       </c>
       <c r="F12">
-        <v>0.9994278554538939</v>
+        <v>0.8551767380355656</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.021290617304148</v>
+        <v>1.020875884892897</v>
       </c>
       <c r="J12">
-        <v>1.009251927876413</v>
+        <v>0.9662121310505565</v>
       </c>
       <c r="K12">
-        <v>1.009132177865306</v>
+        <v>0.9634828256634481</v>
       </c>
       <c r="L12">
-        <v>1.009554722779117</v>
+        <v>0.9689197640316454</v>
       </c>
       <c r="M12">
-        <v>1.003182929600929</v>
+        <v>0.8687559573053443</v>
       </c>
       <c r="N12">
-        <v>1.007278119015379</v>
+        <v>0.9931171307858147</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.002428823930299</v>
+        <v>0.9428038791755724</v>
       </c>
       <c r="D13">
-        <v>1.005473788716769</v>
+        <v>0.9516047967213622</v>
       </c>
       <c r="E13">
-        <v>1.005891473983286</v>
+        <v>0.9571259158176868</v>
       </c>
       <c r="F13">
-        <v>0.9995930050484571</v>
+        <v>0.8551767380355656</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.021311807850252</v>
+        <v>1.020875884892897</v>
       </c>
       <c r="J13">
-        <v>1.009309803855467</v>
+        <v>0.9662121310505565</v>
       </c>
       <c r="K13">
-        <v>1.009194446704614</v>
+        <v>0.9634828256634481</v>
       </c>
       <c r="L13">
-        <v>1.009610460532091</v>
+        <v>0.9689197640316454</v>
       </c>
       <c r="M13">
-        <v>1.003337361165183</v>
+        <v>0.8687559573053443</v>
       </c>
       <c r="N13">
-        <v>1.007297152291559</v>
+        <v>0.9931171307858147</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.002682327687129</v>
+        <v>0.9428038791755724</v>
       </c>
       <c r="D14">
-        <v>1.005711148985741</v>
+        <v>0.9516047967213622</v>
       </c>
       <c r="E14">
-        <v>1.006107377660579</v>
+        <v>0.9571259158176868</v>
       </c>
       <c r="F14">
-        <v>1.000132299330434</v>
+        <v>0.8551767380355656</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02138077879649</v>
+        <v>1.020875884892897</v>
       </c>
       <c r="J14">
-        <v>1.009499103319021</v>
+        <v>0.9662121310505565</v>
       </c>
       <c r="K14">
-        <v>1.009398144199291</v>
+        <v>0.9634828256634481</v>
       </c>
       <c r="L14">
-        <v>1.009792802985549</v>
+        <v>0.9689197640316454</v>
       </c>
       <c r="M14">
-        <v>1.00384154534539</v>
+        <v>0.8687559573053443</v>
       </c>
       <c r="N14">
-        <v>1.007359405480006</v>
+        <v>0.9931171307858147</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.002838267990452</v>
+        <v>0.9428038791755724</v>
       </c>
       <c r="D15">
-        <v>1.005857153244523</v>
+        <v>0.9516047967213622</v>
       </c>
       <c r="E15">
-        <v>1.006240196760964</v>
+        <v>0.9571259158176868</v>
       </c>
       <c r="F15">
-        <v>1.000463180757737</v>
+        <v>0.8551767380355656</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.021422921776436</v>
+        <v>1.020875884892897</v>
       </c>
       <c r="J15">
-        <v>1.00961548121031</v>
+        <v>0.9662121310505565</v>
       </c>
       <c r="K15">
-        <v>1.009523396651916</v>
+        <v>0.9634828256634481</v>
       </c>
       <c r="L15">
-        <v>1.0099049318578</v>
+        <v>0.9689197640316454</v>
       </c>
       <c r="M15">
-        <v>1.004150800438891</v>
+        <v>0.8687559573053443</v>
       </c>
       <c r="N15">
-        <v>1.00739767728778</v>
+        <v>0.9931171307858147</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.003742109163916</v>
+        <v>0.9428038791755724</v>
       </c>
       <c r="D16">
-        <v>1.006703320917665</v>
+        <v>0.9516047967213622</v>
       </c>
       <c r="E16">
-        <v>1.007010149252668</v>
+        <v>0.9571259158176868</v>
       </c>
       <c r="F16">
-        <v>1.002367970247062</v>
+        <v>0.8551767380355656</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.021662869162574</v>
+        <v>1.020875884892897</v>
       </c>
       <c r="J16">
-        <v>1.010288986907132</v>
+        <v>0.9662121310505565</v>
       </c>
       <c r="K16">
-        <v>1.010248609601503</v>
+        <v>0.9634828256634481</v>
       </c>
       <c r="L16">
-        <v>1.010554273188587</v>
+        <v>0.9689197640316454</v>
       </c>
       <c r="M16">
-        <v>1.005929800836464</v>
+        <v>0.8687559573053443</v>
       </c>
       <c r="N16">
-        <v>1.007619160030419</v>
+        <v>0.9931171307858147</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.004305766535598</v>
+        <v>0.9428038791755724</v>
       </c>
       <c r="D17">
-        <v>1.007230939158178</v>
+        <v>0.9516047967213622</v>
       </c>
       <c r="E17">
-        <v>1.007490418954235</v>
+        <v>0.9571259158176868</v>
       </c>
       <c r="F17">
-        <v>1.003544463576809</v>
+        <v>0.8551767380355656</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.021808714138521</v>
+        <v>1.020875884892897</v>
       </c>
       <c r="J17">
-        <v>1.01070809965303</v>
+        <v>0.9662121310505565</v>
       </c>
       <c r="K17">
-        <v>1.01070020473215</v>
+        <v>0.9634828256634481</v>
       </c>
       <c r="L17">
-        <v>1.010958722507577</v>
+        <v>0.9689197640316454</v>
       </c>
       <c r="M17">
-        <v>1.007027456233589</v>
+        <v>0.8687559573053443</v>
       </c>
       <c r="N17">
-        <v>1.007756981028552</v>
+        <v>0.9931171307858147</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.004633367978292</v>
+        <v>0.9428038791755724</v>
       </c>
       <c r="D18">
-        <v>1.007537568617639</v>
+        <v>0.9516047967213622</v>
       </c>
       <c r="E18">
-        <v>1.007769594027454</v>
+        <v>0.9571259158176868</v>
       </c>
       <c r="F18">
-        <v>1.00422417784475</v>
+        <v>0.8551767380355656</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.021892115505348</v>
+        <v>1.020875884892897</v>
       </c>
       <c r="J18">
-        <v>1.010951367063032</v>
+        <v>0.9662121310505565</v>
       </c>
       <c r="K18">
-        <v>1.010962436062044</v>
+        <v>0.9634828256634481</v>
       </c>
       <c r="L18">
-        <v>1.011193613208824</v>
+        <v>0.9689197640316454</v>
       </c>
       <c r="M18">
-        <v>1.007661206017583</v>
+        <v>0.8687559573053443</v>
       </c>
       <c r="N18">
-        <v>1.007836975432551</v>
+        <v>0.9931171307858147</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.004744874776143</v>
+        <v>0.9428038791755724</v>
       </c>
       <c r="D19">
-        <v>1.007641932764769</v>
+        <v>0.9516047967213622</v>
       </c>
       <c r="E19">
-        <v>1.007864624412054</v>
+        <v>0.9571259158176868</v>
       </c>
       <c r="F19">
-        <v>1.004454846334689</v>
+        <v>0.8551767380355656</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.021920271712059</v>
+        <v>1.020875884892897</v>
       </c>
       <c r="J19">
-        <v>1.011034113991051</v>
+        <v>0.9662121310505565</v>
       </c>
       <c r="K19">
-        <v>1.011051652189238</v>
+        <v>0.9634828256634481</v>
       </c>
       <c r="L19">
-        <v>1.011273533611196</v>
+        <v>0.9689197640316454</v>
       </c>
       <c r="M19">
-        <v>1.007876204930487</v>
+        <v>0.8687559573053443</v>
       </c>
       <c r="N19">
-        <v>1.00786418509266</v>
+        <v>0.9931171307858147</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.004245412894813</v>
+        <v>0.9428038791755724</v>
       </c>
       <c r="D20">
-        <v>1.007174447088361</v>
+        <v>0.9516047967213622</v>
       </c>
       <c r="E20">
-        <v>1.007438990001944</v>
+        <v>0.9571259158176868</v>
       </c>
       <c r="F20">
-        <v>1.00341891281462</v>
+        <v>0.8551767380355656</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.021793239156063</v>
+        <v>1.020875884892897</v>
       </c>
       <c r="J20">
-        <v>1.010663256689616</v>
+        <v>0.9662121310505565</v>
       </c>
       <c r="K20">
-        <v>1.010651874912773</v>
+        <v>0.9634828256634481</v>
       </c>
       <c r="L20">
-        <v>1.010915434521996</v>
+        <v>0.9689197640316454</v>
       </c>
       <c r="M20">
-        <v>1.006910361852493</v>
+        <v>0.8687559573053443</v>
       </c>
       <c r="N20">
-        <v>1.007742235040907</v>
+        <v>0.9931171307858147</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.002607729699117</v>
+        <v>0.9428038791755724</v>
       </c>
       <c r="D21">
-        <v>1.005641302663083</v>
+        <v>0.9516047967213622</v>
       </c>
       <c r="E21">
-        <v>1.006043842473613</v>
+        <v>0.9571259158176868</v>
       </c>
       <c r="F21">
-        <v>0.9999737818872544</v>
+        <v>0.8551767380355656</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.021360542051932</v>
+        <v>1.020875884892897</v>
       </c>
       <c r="J21">
-        <v>1.009443412725443</v>
+        <v>0.9662121310505565</v>
       </c>
       <c r="K21">
-        <v>1.009338213025364</v>
+        <v>0.9634828256634481</v>
       </c>
       <c r="L21">
-        <v>1.00973915325026</v>
+        <v>0.9689197640316454</v>
       </c>
       <c r="M21">
-        <v>1.003693365648453</v>
+        <v>0.8687559573053443</v>
       </c>
       <c r="N21">
-        <v>1.007341091090635</v>
+        <v>0.9931171307858147</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.001567108860067</v>
+        <v>0.9428038791755724</v>
       </c>
       <c r="D22">
-        <v>1.004666865853775</v>
+        <v>0.9516047967213622</v>
       </c>
       <c r="E22">
-        <v>1.005157690225753</v>
+        <v>0.9571259158176868</v>
       </c>
       <c r="F22">
-        <v>0.9977469910722081</v>
+        <v>0.8551767380355656</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.021073143483512</v>
+        <v>1.020875884892897</v>
       </c>
       <c r="J22">
-        <v>1.008665324280023</v>
+        <v>0.9662121310505565</v>
       </c>
       <c r="K22">
-        <v>1.008501289250969</v>
+        <v>0.9634828256634481</v>
       </c>
       <c r="L22">
-        <v>1.008990083600116</v>
+        <v>0.9689197640316454</v>
       </c>
       <c r="M22">
-        <v>1.001610272144382</v>
+        <v>0.8687559573053443</v>
       </c>
       <c r="N22">
-        <v>1.007085203336629</v>
+        <v>0.9931171307858147</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.002119819223535</v>
+        <v>0.9428038791755724</v>
       </c>
       <c r="D23">
-        <v>1.005184446832403</v>
+        <v>0.9516047967213622</v>
       </c>
       <c r="E23">
-        <v>1.005628323248888</v>
+        <v>0.9571259158176868</v>
       </c>
       <c r="F23">
-        <v>0.9989333102599026</v>
+        <v>0.8551767380355656</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.021226969748428</v>
+        <v>1.020875884892897</v>
       </c>
       <c r="J23">
-        <v>1.009078876663895</v>
+        <v>0.9662121310505565</v>
       </c>
       <c r="K23">
-        <v>1.008946017266213</v>
+        <v>0.9634828256634481</v>
       </c>
       <c r="L23">
-        <v>1.009388096038074</v>
+        <v>0.9689197640316454</v>
       </c>
       <c r="M23">
-        <v>1.002720386211757</v>
+        <v>0.8687559573053443</v>
       </c>
       <c r="N23">
-        <v>1.007221208489272</v>
+        <v>0.9931171307858147</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.004272687720373</v>
+        <v>0.9428038791755724</v>
       </c>
       <c r="D24">
-        <v>1.007199976884807</v>
+        <v>0.9516047967213622</v>
       </c>
       <c r="E24">
-        <v>1.007462231489618</v>
+        <v>0.9571259158176868</v>
       </c>
       <c r="F24">
-        <v>1.003475663910708</v>
+        <v>0.8551767380355656</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.021800236784383</v>
+        <v>1.020875884892897</v>
       </c>
       <c r="J24">
-        <v>1.010683522980798</v>
+        <v>0.9662121310505565</v>
       </c>
       <c r="K24">
-        <v>1.010673716709996</v>
+        <v>0.9634828256634481</v>
       </c>
       <c r="L24">
-        <v>1.010934997641495</v>
+        <v>0.9689197640316454</v>
       </c>
       <c r="M24">
-        <v>1.006963291811816</v>
+        <v>0.8687559573053443</v>
       </c>
       <c r="N24">
-        <v>1.007748899335216</v>
+        <v>0.9931171307858147</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.006725234458547</v>
+        <v>0.9428038791755724</v>
       </c>
       <c r="D25">
-        <v>1.009495066429831</v>
+        <v>0.9516047967213622</v>
       </c>
       <c r="E25">
-        <v>1.009552939992108</v>
+        <v>0.9571259158176868</v>
       </c>
       <c r="F25">
-        <v>1.00849212760781</v>
+        <v>0.8551767380355656</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.02240020001346</v>
+        <v>1.020875884892897</v>
       </c>
       <c r="J25">
-        <v>1.012498947110091</v>
+        <v>0.9662121310505565</v>
       </c>
       <c r="K25">
-        <v>1.012632626159716</v>
+        <v>0.9634828256634481</v>
       </c>
       <c r="L25">
-        <v>1.012690307311561</v>
+        <v>0.9689197640316454</v>
       </c>
       <c r="M25">
-        <v>1.011633025626726</v>
+        <v>0.8687559573053443</v>
       </c>
       <c r="N25">
-        <v>1.008345841479275</v>
+        <v>0.9931171307858147</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_43/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_43/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9388973449233425</v>
+        <v>1.005099609429357</v>
       </c>
       <c r="D2">
-        <v>0.9479791093504132</v>
+        <v>1.022605848182207</v>
       </c>
       <c r="E2">
-        <v>0.9538907221270433</v>
+        <v>1.020144250476973</v>
       </c>
       <c r="F2">
-        <v>0.8420813112065358</v>
+        <v>1.031233656011676</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.018255390926148</v>
+        <v>1.047110777387847</v>
       </c>
       <c r="J2">
-        <v>0.9630729640225515</v>
+        <v>1.027128854606236</v>
       </c>
       <c r="K2">
-        <v>0.960214120538469</v>
+        <v>1.033758980951577</v>
       </c>
       <c r="L2">
-        <v>0.9660321358758123</v>
+        <v>1.031329899953532</v>
       </c>
       <c r="M2">
-        <v>0.8562888660023781</v>
+        <v>1.042274352295421</v>
       </c>
       <c r="N2">
-        <v>0.9920854708140975</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.011151036969211</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.042029703130718</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.034940754640135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9498015186868565</v>
+        <v>1.010770804385936</v>
       </c>
       <c r="D3">
-        <v>0.9580782495852045</v>
+        <v>1.026946556602914</v>
       </c>
       <c r="E3">
-        <v>0.9629143865834275</v>
+        <v>1.024720657100905</v>
       </c>
       <c r="F3">
-        <v>0.8775074349172348</v>
+        <v>1.035474525682005</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.025336857976025</v>
+        <v>1.047429766084535</v>
       </c>
       <c r="J3">
-        <v>0.9717609200476728</v>
+        <v>1.030972091661148</v>
       </c>
       <c r="K3">
-        <v>0.9692771980270382</v>
+        <v>1.037245880688596</v>
       </c>
       <c r="L3">
-        <v>0.9740448564022308</v>
+        <v>1.035046709145832</v>
       </c>
       <c r="M3">
-        <v>0.889991328664956</v>
+        <v>1.045672764817251</v>
       </c>
       <c r="N3">
-        <v>0.994941127213696</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.012635315046085</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.044719308118738</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.037403649238814</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9560158174532282</v>
+        <v>1.014357172915771</v>
       </c>
       <c r="D4">
-        <v>0.9638079543871449</v>
+        <v>1.029697762646531</v>
       </c>
       <c r="E4">
-        <v>0.9680502468738358</v>
+        <v>1.027619449909653</v>
       </c>
       <c r="F4">
-        <v>0.8962543451498834</v>
+        <v>1.038160699213966</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.029061995330192</v>
+        <v>1.047612983567316</v>
       </c>
       <c r="J4">
-        <v>0.9766157276515043</v>
+        <v>1.033400616809417</v>
       </c>
       <c r="K4">
-        <v>0.9743637455722497</v>
+        <v>1.039450502173573</v>
       </c>
       <c r="L4">
-        <v>0.9785502110829208</v>
+        <v>1.037395579824375</v>
       </c>
       <c r="M4">
-        <v>0.907790266758018</v>
+        <v>1.047819381127445</v>
       </c>
       <c r="N4">
-        <v>0.9965373795204457</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.013570467845831</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.046418199165428</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.038963416701986</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9584825438730427</v>
+        <v>1.01585539807417</v>
       </c>
       <c r="D5">
-        <v>0.9660780697732697</v>
+        <v>1.030851377480853</v>
       </c>
       <c r="E5">
-        <v>0.9700882010682791</v>
+        <v>1.028832664819871</v>
       </c>
       <c r="F5">
-        <v>0.903437512512963</v>
+        <v>1.039284970444141</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.030481310489565</v>
+        <v>1.047685528308884</v>
       </c>
       <c r="J5">
-        <v>0.978525120498406</v>
+        <v>1.034417514465755</v>
       </c>
       <c r="K5">
-        <v>0.9763685280828395</v>
+        <v>1.040375549458349</v>
       </c>
       <c r="L5">
-        <v>0.980327510871433</v>
+        <v>1.038378927962654</v>
       </c>
       <c r="M5">
-        <v>0.9146019744224609</v>
+        <v>1.048717989189944</v>
       </c>
       <c r="N5">
-        <v>0.9971652655936463</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.013962490129013</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.047129381077011</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.03962468157157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.958889235414031</v>
+        <v>1.016117559379626</v>
       </c>
       <c r="D6">
-        <v>0.9664521334559166</v>
+        <v>1.031056776518593</v>
       </c>
       <c r="E6">
-        <v>0.9704241772741137</v>
+        <v>1.029046421513416</v>
       </c>
       <c r="F6">
-        <v>0.9046083482551065</v>
+        <v>1.039483161773549</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.030712122871976</v>
+        <v>1.047698645139028</v>
       </c>
       <c r="J6">
-        <v>0.9788389907620031</v>
+        <v>1.034598905622353</v>
       </c>
       <c r="K6">
-        <v>0.976698307461209</v>
+        <v>1.040542511828943</v>
       </c>
       <c r="L6">
-        <v>0.9806199552280389</v>
+        <v>1.038554051483174</v>
       </c>
       <c r="M6">
-        <v>0.9157117841560383</v>
+        <v>1.048878254138478</v>
       </c>
       <c r="N6">
-        <v>0.9972684827899497</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.014033755544098</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.04725621887481</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.039751485859751</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9560492999146629</v>
+        <v>1.014409096704833</v>
       </c>
       <c r="D7">
-        <v>0.9638387833366477</v>
+        <v>1.029747036631713</v>
       </c>
       <c r="E7">
-        <v>0.9680779112603582</v>
+        <v>1.027665326539388</v>
       </c>
       <c r="F7">
-        <v>0.8963527980937815</v>
+        <v>1.038203491460457</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.029081483937409</v>
+        <v>1.04761740628342</v>
       </c>
       <c r="J7">
-        <v>0.976641710759297</v>
+        <v>1.033445304013014</v>
       </c>
       <c r="K7">
-        <v>0.9743910107024313</v>
+        <v>1.039496337479548</v>
       </c>
       <c r="L7">
-        <v>0.9785743764682044</v>
+        <v>1.037438045527687</v>
       </c>
       <c r="M7">
-        <v>0.9078836615304171</v>
+        <v>1.047858848331826</v>
       </c>
       <c r="N7">
-        <v>0.9965459235408364</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.013591483962579</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.046449434557112</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.039015958638563</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9428038791755724</v>
+        <v>1.007075446917145</v>
       </c>
       <c r="D8">
-        <v>0.9516047967213622</v>
+        <v>1.024128641363614</v>
       </c>
       <c r="E8">
-        <v>0.9571259158176868</v>
+        <v>1.021742759529718</v>
       </c>
       <c r="F8">
-        <v>0.8551767380355656</v>
+        <v>1.032715246438933</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.020875884892897</v>
+        <v>1.047227908468104</v>
       </c>
       <c r="J8">
-        <v>0.9662121310505565</v>
+        <v>1.028480377572049</v>
       </c>
       <c r="K8">
-        <v>0.9634828256634481</v>
+        <v>1.034991400363696</v>
       </c>
       <c r="L8">
-        <v>0.9689197640316454</v>
+        <v>1.032636050376204</v>
       </c>
       <c r="M8">
-        <v>0.8687559573053443</v>
+        <v>1.043469579157767</v>
       </c>
       <c r="N8">
-        <v>0.9931171307858147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.011678621186108</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.042975642436131</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.035835188593343</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,81 +804,105 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9428038791755724</v>
+        <v>0.9934195942425609</v>
       </c>
       <c r="D9">
-        <v>0.9516047967213622</v>
+        <v>1.0137045969971</v>
       </c>
       <c r="E9">
-        <v>0.9571259158176868</v>
+        <v>1.010749547300336</v>
       </c>
       <c r="F9">
-        <v>0.8551767380355656</v>
+        <v>1.02252855473197</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.020875884892897</v>
+        <v>1.046356090596851</v>
       </c>
       <c r="J9">
-        <v>0.9662121310505565</v>
+        <v>1.019206882886505</v>
       </c>
       <c r="K9">
-        <v>0.9634828256634481</v>
+        <v>1.026579172005556</v>
       </c>
       <c r="L9">
-        <v>0.9689197640316454</v>
+        <v>1.023670595301495</v>
       </c>
       <c r="M9">
-        <v>0.8687559573053443</v>
+        <v>1.035266398275344</v>
       </c>
       <c r="N9">
-        <v>0.9931171307858147</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.008078094401662</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.036483367767543</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.029883881195214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C10">
-        <v>0.9428038791755724</v>
+        <v>0.9839538413202854</v>
       </c>
       <c r="D10">
-        <v>0.9516047967213622</v>
+        <v>1.006548809883815</v>
       </c>
       <c r="E10">
-        <v>0.9571259158176868</v>
+        <v>1.00319651962838</v>
       </c>
       <c r="F10">
-        <v>0.8551767380355656</v>
+        <v>1.015561631196716</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.020875884892897</v>
+        <v>1.04567401102967</v>
       </c>
       <c r="J10">
-        <v>0.9662121310505565</v>
+        <v>1.012818887785202</v>
       </c>
       <c r="K10">
-        <v>0.9634828256634481</v>
+        <v>1.020800821745927</v>
       </c>
       <c r="L10">
-        <v>0.9689197640316454</v>
+        <v>1.017508298777678</v>
       </c>
       <c r="M10">
-        <v>0.8687559573053443</v>
+        <v>1.029655487270184</v>
       </c>
       <c r="N10">
-        <v>0.9931171307858147</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.005604686322548</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.032094508969253</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.02581511394975</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9428038791755724</v>
+        <v>0.9809849319966266</v>
       </c>
       <c r="D11">
-        <v>0.9516047967213622</v>
+        <v>1.004538379576553</v>
       </c>
       <c r="E11">
-        <v>0.9571259158176868</v>
+        <v>1.001107488074133</v>
       </c>
       <c r="F11">
-        <v>0.8551767380355656</v>
+        <v>1.013872577062264</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.020875884892897</v>
+        <v>1.04553628683153</v>
       </c>
       <c r="J11">
-        <v>0.9662121310505565</v>
+        <v>1.01117072820887</v>
       </c>
       <c r="K11">
-        <v>0.9634828256634481</v>
+        <v>1.019375213229714</v>
       </c>
       <c r="L11">
-        <v>0.9689197640316454</v>
+        <v>1.016008548970623</v>
       </c>
       <c r="M11">
-        <v>0.8687559573053443</v>
+        <v>1.028537534558106</v>
       </c>
       <c r="N11">
-        <v>0.9931171307858147</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.00512568625542</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.031649443101706</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.024840403638926</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9428038791755724</v>
+        <v>0.9803543549115596</v>
       </c>
       <c r="D12">
-        <v>0.9516047967213622</v>
+        <v>1.004228890882663</v>
       </c>
       <c r="E12">
-        <v>0.9571259158176868</v>
+        <v>1.000815198103565</v>
       </c>
       <c r="F12">
-        <v>0.8551767380355656</v>
+        <v>1.013777214837563</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.020875884892897</v>
+        <v>1.045556811762719</v>
       </c>
       <c r="J12">
-        <v>0.9662121310505565</v>
+        <v>1.01101407022052</v>
       </c>
       <c r="K12">
-        <v>0.9634828256634481</v>
+        <v>1.019275518022458</v>
       </c>
       <c r="L12">
-        <v>0.9689197640316454</v>
+        <v>1.015926796851749</v>
       </c>
       <c r="M12">
-        <v>0.8687559573053443</v>
+        <v>1.02864514094518</v>
       </c>
       <c r="N12">
-        <v>0.9931171307858147</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.005197270874822</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.03206323789902</v>
+      </c>
+      <c r="Q12">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="R12">
+        <v>1.024769914072172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9428038791755724</v>
+        <v>0.9815294753013839</v>
       </c>
       <c r="D13">
-        <v>0.9516047967213622</v>
+        <v>1.005255070813407</v>
       </c>
       <c r="E13">
-        <v>0.9571259158176868</v>
+        <v>1.001929104759765</v>
       </c>
       <c r="F13">
-        <v>0.8551767380355656</v>
+        <v>1.01494880825146</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.020875884892897</v>
+        <v>1.045711488592381</v>
       </c>
       <c r="J13">
-        <v>0.9662121310505565</v>
+        <v>1.012041081628451</v>
       </c>
       <c r="K13">
-        <v>0.9634828256634481</v>
+        <v>1.0202385816822</v>
       </c>
       <c r="L13">
-        <v>0.9689197640316454</v>
+        <v>1.016975529221591</v>
       </c>
       <c r="M13">
-        <v>0.8687559573053443</v>
+        <v>1.029752017440096</v>
       </c>
       <c r="N13">
-        <v>0.9931171307858147</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.005719323271076</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.033216668557544</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.025448323261897</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9428038791755724</v>
+        <v>0.9831698824454096</v>
       </c>
       <c r="D14">
-        <v>0.9516047967213622</v>
+        <v>1.006579939975063</v>
       </c>
       <c r="E14">
-        <v>0.9571259158176868</v>
+        <v>1.003345732110291</v>
       </c>
       <c r="F14">
-        <v>0.8551767380355656</v>
+        <v>1.016343145684985</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.020875884892897</v>
+        <v>1.045880112540432</v>
       </c>
       <c r="J14">
-        <v>0.9662121310505565</v>
+        <v>1.013296652597295</v>
       </c>
       <c r="K14">
-        <v>0.9634828256634481</v>
+        <v>1.021395633500915</v>
       </c>
       <c r="L14">
-        <v>0.9689197640316454</v>
+        <v>1.018221713876072</v>
       </c>
       <c r="M14">
-        <v>0.8687559573053443</v>
+        <v>1.030979871815396</v>
       </c>
       <c r="N14">
-        <v>0.9931171307858147</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.006289229297242</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.034361349760007</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.026267859591835</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9428038791755724</v>
+        <v>0.9839737505852317</v>
       </c>
       <c r="D15">
-        <v>0.9516047967213622</v>
+        <v>1.007207559173907</v>
       </c>
       <c r="E15">
-        <v>0.9571259158176868</v>
+        <v>1.004010074099592</v>
       </c>
       <c r="F15">
-        <v>0.8551767380355656</v>
+        <v>1.016975529333426</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.020875884892897</v>
+        <v>1.045951494520016</v>
       </c>
       <c r="J15">
-        <v>0.9662121310505565</v>
+        <v>1.013873552193425</v>
       </c>
       <c r="K15">
-        <v>0.9634828256634481</v>
+        <v>1.021923640062332</v>
       </c>
       <c r="L15">
-        <v>0.9689197640316454</v>
+        <v>1.018785250995097</v>
       </c>
       <c r="M15">
-        <v>0.8687559573053443</v>
+        <v>1.031514068510275</v>
       </c>
       <c r="N15">
-        <v>0.9931171307858147</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.006531860274057</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.034821253291304</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.026647126519523</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9428038791755724</v>
+        <v>0.9877674945276128</v>
       </c>
       <c r="D16">
-        <v>0.9516047967213622</v>
+        <v>1.010050180658251</v>
       </c>
       <c r="E16">
-        <v>0.9571259158176868</v>
+        <v>1.007001873899979</v>
       </c>
       <c r="F16">
-        <v>0.8551767380355656</v>
+        <v>1.019726941661713</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.020875884892897</v>
+        <v>1.046229599463392</v>
       </c>
       <c r="J16">
-        <v>0.9662121310505565</v>
+        <v>1.01639662309022</v>
       </c>
       <c r="K16">
-        <v>0.9634828256634481</v>
+        <v>1.024204164529386</v>
       </c>
       <c r="L16">
-        <v>0.9689197640316454</v>
+        <v>1.021209538036239</v>
       </c>
       <c r="M16">
-        <v>0.8687559573053443</v>
+        <v>1.033713266805817</v>
       </c>
       <c r="N16">
-        <v>0.9931171307858147</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.007482776156407</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.036520646884611</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.028262760683761</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9428038791755724</v>
+        <v>0.9898184796205731</v>
       </c>
       <c r="D17">
-        <v>0.9516047967213622</v>
+        <v>1.011537947120953</v>
       </c>
       <c r="E17">
-        <v>0.9571259158176868</v>
+        <v>1.008555610582492</v>
       </c>
       <c r="F17">
-        <v>0.8551767380355656</v>
+        <v>1.021103939367182</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.020875884892897</v>
+        <v>1.046350454420703</v>
       </c>
       <c r="J17">
-        <v>0.9662121310505565</v>
+        <v>1.017673620590089</v>
       </c>
       <c r="K17">
-        <v>0.9634828256634481</v>
+        <v>1.025346654133719</v>
       </c>
       <c r="L17">
-        <v>0.9689197640316454</v>
+        <v>1.02241527366954</v>
       </c>
       <c r="M17">
-        <v>0.8687559573053443</v>
+        <v>1.03475178881074</v>
       </c>
       <c r="N17">
-        <v>0.9931171307858147</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.007913329918659</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.03721210111688</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.029073163457118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9428038791755724</v>
+        <v>0.9905365528147677</v>
       </c>
       <c r="D18">
-        <v>0.9516047967213622</v>
+        <v>1.011961397395408</v>
       </c>
       <c r="E18">
-        <v>0.9571259158176868</v>
+        <v>1.008981023849478</v>
       </c>
       <c r="F18">
-        <v>0.8551767380355656</v>
+        <v>1.02137888279778</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.020875884892897</v>
+        <v>1.046347548536573</v>
       </c>
       <c r="J18">
-        <v>0.9662121310505565</v>
+        <v>1.017961907475242</v>
       </c>
       <c r="K18">
-        <v>0.9634828256634481</v>
+        <v>1.025576807037849</v>
       </c>
       <c r="L18">
-        <v>0.9689197640316454</v>
+        <v>1.022646513169829</v>
       </c>
       <c r="M18">
-        <v>0.8687559573053443</v>
+        <v>1.034838517959473</v>
       </c>
       <c r="N18">
-        <v>0.9931171307858147</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.007919667912565</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.037042189591928</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.029224142962452</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9428038791755724</v>
+        <v>0.990135195486322</v>
       </c>
       <c r="D19">
-        <v>0.9516047967213622</v>
+        <v>1.011505638609772</v>
       </c>
       <c r="E19">
-        <v>0.9571259158176868</v>
+        <v>1.008466050685567</v>
       </c>
       <c r="F19">
-        <v>0.8551767380355656</v>
+        <v>1.020730537093406</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.020875884892897</v>
+        <v>1.046247072215243</v>
       </c>
       <c r="J19">
-        <v>0.9662121310505565</v>
+        <v>1.017439293669786</v>
       </c>
       <c r="K19">
-        <v>0.9634828256634481</v>
+        <v>1.025065187337505</v>
       </c>
       <c r="L19">
-        <v>0.9689197640316454</v>
+        <v>1.022076463637031</v>
       </c>
       <c r="M19">
-        <v>0.8687559573053443</v>
+        <v>1.034138100218153</v>
       </c>
       <c r="N19">
-        <v>0.9931171307858147</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.007593530893321</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.036161556321991</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.028868864287304</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9428038791755724</v>
+        <v>0.9865172227423273</v>
       </c>
       <c r="D20">
-        <v>0.9516047967213622</v>
+        <v>1.008510141714964</v>
       </c>
       <c r="E20">
-        <v>0.9571259158176868</v>
+        <v>1.00525322714836</v>
       </c>
       <c r="F20">
-        <v>0.8551767380355656</v>
+        <v>1.017460655272371</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.020875884892897</v>
+        <v>1.045869009255211</v>
       </c>
       <c r="J20">
-        <v>0.9662121310505565</v>
+        <v>1.014577962214848</v>
       </c>
       <c r="K20">
-        <v>0.9634828256634481</v>
+        <v>1.022404983102357</v>
       </c>
       <c r="L20">
-        <v>0.9689197640316454</v>
+        <v>1.019204329583328</v>
       </c>
       <c r="M20">
-        <v>0.8687559573053443</v>
+        <v>1.031203274612019</v>
       </c>
       <c r="N20">
-        <v>0.9931171307858147</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.006299424512771</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.033308798794053</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.02699194727699</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9428038791755724</v>
+        <v>0.979115157488558</v>
       </c>
       <c r="D21">
-        <v>0.9516047967213622</v>
+        <v>1.002884476174842</v>
       </c>
       <c r="E21">
-        <v>0.9571259158176868</v>
+        <v>0.999308396012196</v>
       </c>
       <c r="F21">
-        <v>0.8551767380355656</v>
+        <v>1.011931785434055</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.020875884892897</v>
+        <v>1.045288535930303</v>
       </c>
       <c r="J21">
-        <v>0.9662121310505565</v>
+        <v>1.00951278222687</v>
       </c>
       <c r="K21">
-        <v>0.9634828256634481</v>
+        <v>1.017811406561144</v>
       </c>
       <c r="L21">
-        <v>0.9689197640316454</v>
+        <v>1.014302882900067</v>
       </c>
       <c r="M21">
-        <v>0.8687559573053443</v>
+        <v>1.026690578367272</v>
       </c>
       <c r="N21">
-        <v>0.9931171307858147</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.00430500016866</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.029696110503554</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.023747348350687</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9428038791755724</v>
+        <v>0.9743615542151591</v>
       </c>
       <c r="D22">
-        <v>0.9516047967213622</v>
+        <v>0.9992850596542868</v>
       </c>
       <c r="E22">
-        <v>0.9571259158176868</v>
+        <v>0.9955106872688373</v>
       </c>
       <c r="F22">
-        <v>0.8551767380355656</v>
+        <v>1.008416003407927</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.020875884892897</v>
+        <v>1.044902991903093</v>
       </c>
       <c r="J22">
-        <v>0.9662121310505565</v>
+        <v>1.006269796940728</v>
       </c>
       <c r="K22">
-        <v>0.9634828256634481</v>
+        <v>1.014870692969621</v>
       </c>
       <c r="L22">
-        <v>0.9689197640316454</v>
+        <v>1.011171606017868</v>
       </c>
       <c r="M22">
-        <v>0.8687559573053443</v>
+        <v>1.023822561176512</v>
       </c>
       <c r="N22">
-        <v>0.9931171307858147</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.003029481608426</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.027426228758867</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.021654378699783</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9428038791755724</v>
+        <v>0.9768583494640871</v>
       </c>
       <c r="D23">
-        <v>0.9516047967213622</v>
+        <v>1.001165320438806</v>
       </c>
       <c r="E23">
-        <v>0.9571259158176868</v>
+        <v>0.997499766036639</v>
       </c>
       <c r="F23">
-        <v>0.8551767380355656</v>
+        <v>1.010257244941025</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.020875884892897</v>
+        <v>1.045105982832429</v>
       </c>
       <c r="J23">
-        <v>0.9662121310505565</v>
+        <v>1.007963198910932</v>
       </c>
       <c r="K23">
-        <v>0.9634828256634481</v>
+        <v>1.016401450250641</v>
       </c>
       <c r="L23">
-        <v>0.9689197640316454</v>
+        <v>1.012806952174105</v>
       </c>
       <c r="M23">
-        <v>0.8687559573053443</v>
+        <v>1.025320036349165</v>
       </c>
       <c r="N23">
-        <v>0.9931171307858147</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.003691250293426</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.028611400953972</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.022726926252867</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9428038791755724</v>
+        <v>0.9864688302736023</v>
       </c>
       <c r="D24">
-        <v>0.9516047967213622</v>
+        <v>1.008438852615419</v>
       </c>
       <c r="E24">
-        <v>0.9571259158176868</v>
+        <v>1.00518245126275</v>
       </c>
       <c r="F24">
-        <v>0.8551767380355656</v>
+        <v>1.017371512298685</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.020875884892897</v>
+        <v>1.045855038529077</v>
       </c>
       <c r="J24">
-        <v>0.9662121310505565</v>
+        <v>1.014497888347353</v>
       </c>
       <c r="K24">
-        <v>0.9634828256634481</v>
+        <v>1.022319375710587</v>
       </c>
       <c r="L24">
-        <v>0.9689197640316454</v>
+        <v>1.019119164405072</v>
       </c>
       <c r="M24">
-        <v>0.8687559573053443</v>
+        <v>1.031100281127309</v>
       </c>
       <c r="N24">
-        <v>0.9931171307858147</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.006247973189263</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.033186139182119</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.026903681828939</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9428038791755724</v>
+        <v>0.997092843812653</v>
       </c>
       <c r="D25">
-        <v>0.9516047967213622</v>
+        <v>1.016517088871345</v>
       </c>
       <c r="E25">
-        <v>0.9571259158176868</v>
+        <v>1.013708208139592</v>
       </c>
       <c r="F25">
-        <v>0.8551767380355656</v>
+        <v>1.02527011523502</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.020875884892897</v>
+        <v>1.046609214439284</v>
       </c>
       <c r="J25">
-        <v>0.9662121310505565</v>
+        <v>1.021718443022028</v>
       </c>
       <c r="K25">
-        <v>0.9634828256634481</v>
+        <v>1.028864297201822</v>
       </c>
       <c r="L25">
-        <v>0.9689197640316454</v>
+        <v>1.026097384652583</v>
       </c>
       <c r="M25">
-        <v>0.8687559573053443</v>
+        <v>1.037488413380778</v>
       </c>
       <c r="N25">
-        <v>0.9931171307858147</v>
+        <v>1.009062443829416</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.038241951441212</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.031528462732403</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_43/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_43/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.005099609429357</v>
+        <v>1.005892922946869</v>
       </c>
       <c r="D2">
-        <v>1.022605848182207</v>
+        <v>1.022818605866736</v>
       </c>
       <c r="E2">
-        <v>1.020144250476973</v>
+        <v>1.020945325413693</v>
       </c>
       <c r="F2">
-        <v>1.031233656011676</v>
+        <v>1.031814061306908</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.047110777387847</v>
+        <v>1.047260787061691</v>
       </c>
       <c r="J2">
-        <v>1.027128854606236</v>
+        <v>1.027898795049081</v>
       </c>
       <c r="K2">
-        <v>1.033758980951577</v>
+        <v>1.033968937407109</v>
       </c>
       <c r="L2">
-        <v>1.031329899953532</v>
+        <v>1.032120371425228</v>
       </c>
       <c r="M2">
-        <v>1.042274352295421</v>
+        <v>1.042847278253666</v>
       </c>
       <c r="N2">
-        <v>1.011151036969211</v>
+        <v>1.013483825738107</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.042029703130718</v>
+        <v>1.04248313451174</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.034940754640135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.035098027986904</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.020353144098313</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.010770804385936</v>
+        <v>1.010914522665077</v>
       </c>
       <c r="D3">
-        <v>1.026946556602914</v>
+        <v>1.026478763002333</v>
       </c>
       <c r="E3">
-        <v>1.024720657100905</v>
+        <v>1.024944876786668</v>
       </c>
       <c r="F3">
-        <v>1.035474525682005</v>
+        <v>1.035518391714728</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.047429766084535</v>
+        <v>1.047526681663438</v>
       </c>
       <c r="J3">
-        <v>1.030972091661148</v>
+        <v>1.031112005254144</v>
       </c>
       <c r="K3">
-        <v>1.037245880688596</v>
+        <v>1.036783692283249</v>
       </c>
       <c r="L3">
-        <v>1.035046709145832</v>
+        <v>1.035268229940673</v>
       </c>
       <c r="M3">
-        <v>1.045672764817251</v>
+        <v>1.045716116217897</v>
       </c>
       <c r="N3">
-        <v>1.012635315046085</v>
+        <v>1.01445571271256</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.044719308118738</v>
+        <v>1.044753617645616</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.037403649238814</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.037085363190652</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021084199074046</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.014357172915771</v>
+        <v>1.014098588028232</v>
       </c>
       <c r="D4">
-        <v>1.029697762646531</v>
+        <v>1.028805540110676</v>
       </c>
       <c r="E4">
-        <v>1.027619449909653</v>
+        <v>1.027486024559452</v>
       </c>
       <c r="F4">
-        <v>1.038160699213966</v>
+        <v>1.037871536248364</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.047612983567316</v>
+        <v>1.047677091681064</v>
       </c>
       <c r="J4">
-        <v>1.033400616809417</v>
+        <v>1.033148399096088</v>
       </c>
       <c r="K4">
-        <v>1.039450502173573</v>
+        <v>1.038568306904196</v>
       </c>
       <c r="L4">
-        <v>1.037395579824375</v>
+        <v>1.037263660093549</v>
       </c>
       <c r="M4">
-        <v>1.047819381127445</v>
+        <v>1.047533400833871</v>
       </c>
       <c r="N4">
-        <v>1.013570467845831</v>
+        <v>1.015070219126383</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.046418199165428</v>
+        <v>1.046191866741177</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.038963416701986</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.038348221765072</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.021544199114952</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.01585539807417</v>
+        <v>1.015430070139399</v>
       </c>
       <c r="D5">
-        <v>1.030851377480853</v>
+        <v>1.029782753866389</v>
       </c>
       <c r="E5">
-        <v>1.028832664819871</v>
+        <v>1.028550895547636</v>
       </c>
       <c r="F5">
-        <v>1.039284970444141</v>
+        <v>1.038857649227488</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.047685528308884</v>
+        <v>1.047736028762599</v>
       </c>
       <c r="J5">
-        <v>1.034417514465755</v>
+        <v>1.034002336554309</v>
       </c>
       <c r="K5">
-        <v>1.040375549458349</v>
+        <v>1.039318606751594</v>
       </c>
       <c r="L5">
-        <v>1.038378927962654</v>
+        <v>1.038100250617309</v>
       </c>
       <c r="M5">
-        <v>1.048717989189944</v>
+        <v>1.048295243002365</v>
       </c>
       <c r="N5">
-        <v>1.013962490129013</v>
+        <v>1.015328344607256</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.047129381077011</v>
+        <v>1.046794808778396</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.03962468157157</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.038886632957541</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.021737729284349</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.016117559379626</v>
+        <v>1.015662418886717</v>
       </c>
       <c r="D6">
-        <v>1.031056776518593</v>
+        <v>1.029956807607984</v>
       </c>
       <c r="E6">
-        <v>1.029046421513416</v>
+        <v>1.028738078109815</v>
       </c>
       <c r="F6">
-        <v>1.039483161773549</v>
+        <v>1.039031163895267</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.047698645139028</v>
+        <v>1.047746674470872</v>
       </c>
       <c r="J6">
-        <v>1.034598905622353</v>
+        <v>1.03415456878104</v>
       </c>
       <c r="K6">
-        <v>1.040542511828943</v>
+        <v>1.03945450962009</v>
       </c>
       <c r="L6">
-        <v>1.038554051483174</v>
+        <v>1.038249075521672</v>
       </c>
       <c r="M6">
-        <v>1.048878254138478</v>
+        <v>1.048431072724931</v>
       </c>
       <c r="N6">
-        <v>1.014033755544098</v>
+        <v>1.015375310220527</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.04725621887481</v>
+        <v>1.046902307960712</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.039751485859751</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.038992344248486</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.021773934509133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.014409096704833</v>
+        <v>1.014155858973731</v>
       </c>
       <c r="D7">
-        <v>1.029747036631713</v>
+        <v>1.028858158627762</v>
       </c>
       <c r="E7">
-        <v>1.027665326539388</v>
+        <v>1.027536882845882</v>
       </c>
       <c r="F7">
-        <v>1.038203491460457</v>
+        <v>1.037918326786805</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.04761740628342</v>
+        <v>1.047682134706033</v>
       </c>
       <c r="J7">
-        <v>1.033445304013014</v>
+        <v>1.033198298615105</v>
       </c>
       <c r="K7">
-        <v>1.039496337479548</v>
+        <v>1.038617444605487</v>
       </c>
       <c r="L7">
-        <v>1.037438045527687</v>
+        <v>1.037311050587115</v>
       </c>
       <c r="M7">
-        <v>1.047858848331826</v>
+        <v>1.047576820946023</v>
       </c>
       <c r="N7">
-        <v>1.013591483962579</v>
+        <v>1.015115155122785</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.046449434557112</v>
+        <v>1.04622623057934</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.039015958638563</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.038405096175438</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.021561624832002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.007075446917145</v>
+        <v>1.007678910283828</v>
       </c>
       <c r="D8">
-        <v>1.024128641363614</v>
+        <v>1.024135414145778</v>
       </c>
       <c r="E8">
-        <v>1.021742759529718</v>
+        <v>1.02237662781322</v>
       </c>
       <c r="F8">
-        <v>1.032715246438933</v>
+        <v>1.033138004528987</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.047227908468104</v>
+        <v>1.047363291736461</v>
       </c>
       <c r="J8">
-        <v>1.028480377572049</v>
+        <v>1.02906668462096</v>
       </c>
       <c r="K8">
-        <v>1.034991400363696</v>
+        <v>1.034998086728353</v>
       </c>
       <c r="L8">
-        <v>1.032636050376204</v>
+        <v>1.033261789747667</v>
       </c>
       <c r="M8">
-        <v>1.043469579157767</v>
+        <v>1.04388705694558</v>
       </c>
       <c r="N8">
-        <v>1.011678621186108</v>
+        <v>1.013924107062482</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.042975642436131</v>
+        <v>1.043306046909393</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.035835188593343</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.035850979959652</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.020630237194693</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,105 +873,123 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9934195942425609</v>
+        <v>0.9956512731644535</v>
       </c>
       <c r="D9">
-        <v>1.0137045969971</v>
+        <v>1.01539589732356</v>
       </c>
       <c r="E9">
-        <v>1.010749547300336</v>
+        <v>1.012826703487994</v>
       </c>
       <c r="F9">
-        <v>1.02252855473197</v>
+        <v>1.024290866640519</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.046356090596851</v>
+        <v>1.046625322139473</v>
       </c>
       <c r="J9">
-        <v>1.019206882886505</v>
+        <v>1.021358536343451</v>
       </c>
       <c r="K9">
-        <v>1.026579172005556</v>
+        <v>1.028244029472865</v>
       </c>
       <c r="L9">
-        <v>1.023670595301495</v>
+        <v>1.025715048582819</v>
       </c>
       <c r="M9">
-        <v>1.035266398275344</v>
+        <v>1.037001762234888</v>
       </c>
       <c r="N9">
-        <v>1.008078094401662</v>
+        <v>1.011593165349861</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.036483367767543</v>
+        <v>1.037856798372902</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.029883881195214</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.031071905829026</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.018854075109538</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9839538413202854</v>
+        <v>0.9874174496327272</v>
       </c>
       <c r="D10">
-        <v>1.006548809883815</v>
+        <v>1.009485576929585</v>
       </c>
       <c r="E10">
-        <v>1.00319651962838</v>
+        <v>1.006362662446936</v>
       </c>
       <c r="F10">
-        <v>1.015561631196716</v>
+        <v>1.01833029709998</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.04567401102967</v>
+        <v>1.046045222417275</v>
       </c>
       <c r="J10">
-        <v>1.012818887785202</v>
+        <v>1.016139336459161</v>
       </c>
       <c r="K10">
-        <v>1.020800821745927</v>
+        <v>1.023685652669</v>
       </c>
       <c r="L10">
-        <v>1.017508298777678</v>
+        <v>1.020617979544209</v>
       </c>
       <c r="M10">
-        <v>1.029655487270184</v>
+        <v>1.032376295823425</v>
       </c>
       <c r="N10">
-        <v>1.005604686322548</v>
+        <v>1.010140361808612</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.032094508969253</v>
+        <v>1.034247732720969</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.02581511394975</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.027867453604969</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.017658637721955</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9809849319966266</v>
+        <v>0.9848045426842307</v>
       </c>
       <c r="D11">
-        <v>1.004538379576553</v>
+        <v>1.007836607383108</v>
       </c>
       <c r="E11">
-        <v>1.001107488074133</v>
+        <v>1.004579394255718</v>
       </c>
       <c r="F11">
-        <v>1.013872577062264</v>
+        <v>1.016928655401325</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.04553628683153</v>
+        <v>1.045928980379856</v>
       </c>
       <c r="J11">
-        <v>1.01117072820887</v>
+        <v>1.014823424458469</v>
       </c>
       <c r="K11">
-        <v>1.019375213229714</v>
+        <v>1.02261223466493</v>
       </c>
       <c r="L11">
-        <v>1.016008548970623</v>
+        <v>1.019415463565042</v>
       </c>
       <c r="M11">
-        <v>1.028537534558106</v>
+        <v>1.031538230841627</v>
       </c>
       <c r="N11">
-        <v>1.00512568625542</v>
+        <v>1.010090749015249</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.031649443101706</v>
+        <v>1.03402295888431</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.024840403638926</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.027144916704898</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.017491394688586</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9803543549115596</v>
+        <v>0.984190826121828</v>
       </c>
       <c r="D12">
-        <v>1.004228890882663</v>
+        <v>1.007553198818625</v>
       </c>
       <c r="E12">
-        <v>1.000815198103565</v>
+        <v>1.004292513997461</v>
       </c>
       <c r="F12">
-        <v>1.013777214837563</v>
+        <v>1.016844253508549</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.045556811762719</v>
+        <v>1.045942635285269</v>
       </c>
       <c r="J12">
-        <v>1.01101407022052</v>
+        <v>1.014679662902751</v>
       </c>
       <c r="K12">
-        <v>1.019275518022458</v>
+        <v>1.022537108156786</v>
       </c>
       <c r="L12">
-        <v>1.015926796851749</v>
+        <v>1.019337935701932</v>
       </c>
       <c r="M12">
-        <v>1.02864514094518</v>
+        <v>1.031655706130279</v>
       </c>
       <c r="N12">
-        <v>1.005197270874822</v>
+        <v>1.010240226215281</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.03206323789902</v>
+        <v>1.034443744333023</v>
       </c>
       <c r="Q12">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.024769914072172</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.027091799908812</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.017558462084337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9815294753013839</v>
+        <v>0.9850928409140887</v>
       </c>
       <c r="D13">
-        <v>1.005255070813407</v>
+        <v>1.008322582397648</v>
       </c>
       <c r="E13">
-        <v>1.001929104759765</v>
+        <v>1.005153413860332</v>
       </c>
       <c r="F13">
-        <v>1.01494880825146</v>
+        <v>1.017789995614149</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.045711488592381</v>
+        <v>1.046065236770444</v>
       </c>
       <c r="J13">
-        <v>1.012041081628451</v>
+        <v>1.015446794054564</v>
       </c>
       <c r="K13">
-        <v>1.0202385816822</v>
+        <v>1.023248548760842</v>
       </c>
       <c r="L13">
-        <v>1.016975529221591</v>
+        <v>1.020138839602036</v>
       </c>
       <c r="M13">
-        <v>1.029752017440096</v>
+        <v>1.032541206336537</v>
       </c>
       <c r="N13">
-        <v>1.005719323271076</v>
+        <v>1.01052456863083</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.033216668557544</v>
+        <v>1.035421569994984</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.025448323261897</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.027592048372472</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.017818502129273</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9831698824454096</v>
+        <v>0.9864137800574008</v>
       </c>
       <c r="D14">
-        <v>1.006579939975063</v>
+        <v>1.009342208331737</v>
       </c>
       <c r="E14">
-        <v>1.003345732110291</v>
+        <v>1.00627900363859</v>
       </c>
       <c r="F14">
-        <v>1.016343145684985</v>
+        <v>1.018921751360868</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.045880112540432</v>
+        <v>1.046200650160112</v>
       </c>
       <c r="J14">
-        <v>1.013296652597295</v>
+        <v>1.016399370905202</v>
       </c>
       <c r="K14">
-        <v>1.021395633500915</v>
+        <v>1.024106809584158</v>
       </c>
       <c r="L14">
-        <v>1.018221713876072</v>
+        <v>1.021100285531807</v>
       </c>
       <c r="M14">
-        <v>1.030979871815396</v>
+        <v>1.033511953571148</v>
       </c>
       <c r="N14">
-        <v>1.006289229297242</v>
+        <v>1.010787627844831</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.034361349760007</v>
+        <v>1.036362732560698</v>
       </c>
       <c r="Q14">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R14">
-        <v>1.026267859591835</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.028200443957812</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.018089786832817</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9839737505852317</v>
+        <v>0.9870772753985744</v>
       </c>
       <c r="D15">
-        <v>1.007207559173907</v>
+        <v>1.009834046729738</v>
       </c>
       <c r="E15">
-        <v>1.004010074099592</v>
+        <v>1.006816972165228</v>
       </c>
       <c r="F15">
-        <v>1.016975529333426</v>
+        <v>1.019439278713647</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.045951494520016</v>
+        <v>1.046258734135442</v>
       </c>
       <c r="J15">
-        <v>1.013873552193425</v>
+        <v>1.016843305089803</v>
       </c>
       <c r="K15">
-        <v>1.021923640062332</v>
+        <v>1.024501949285517</v>
       </c>
       <c r="L15">
-        <v>1.018785250995097</v>
+        <v>1.021540245668386</v>
       </c>
       <c r="M15">
-        <v>1.031514068510275</v>
+        <v>1.033933734565579</v>
       </c>
       <c r="N15">
-        <v>1.006531860274057</v>
+        <v>1.010888999393843</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.034821253291304</v>
+        <v>1.036733731462437</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.026647126519523</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.028486320057914</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.018203217424307</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9877674945276128</v>
+        <v>0.9903068601373374</v>
       </c>
       <c r="D16">
-        <v>1.010050180658251</v>
+        <v>1.012118504755879</v>
       </c>
       <c r="E16">
-        <v>1.007001873899979</v>
+        <v>1.009309568042473</v>
       </c>
       <c r="F16">
-        <v>1.019726941661713</v>
+        <v>1.021731717001409</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.046229599463392</v>
+        <v>1.046490548346079</v>
       </c>
       <c r="J16">
-        <v>1.01639662309022</v>
+        <v>1.018832372044385</v>
       </c>
       <c r="K16">
-        <v>1.024204164529386</v>
+        <v>1.026236304170425</v>
       </c>
       <c r="L16">
-        <v>1.021209538036239</v>
+        <v>1.023476555352711</v>
       </c>
       <c r="M16">
-        <v>1.033713266805817</v>
+        <v>1.035683820416564</v>
       </c>
       <c r="N16">
-        <v>1.007482776156407</v>
+        <v>1.011252961615527</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.036520646884611</v>
+        <v>1.038078197432928</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.028262760683761</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.029716061843348</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.018635552893275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9898184796205731</v>
+        <v>0.9921087259019439</v>
       </c>
       <c r="D17">
-        <v>1.011537947120953</v>
+        <v>1.013351524510825</v>
       </c>
       <c r="E17">
-        <v>1.008555610582492</v>
+        <v>1.010647472458243</v>
       </c>
       <c r="F17">
-        <v>1.021103939367182</v>
+        <v>1.022907143789653</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.046350454420703</v>
+        <v>1.046594683268039</v>
       </c>
       <c r="J17">
-        <v>1.017673620590089</v>
+        <v>1.019873568552616</v>
       </c>
       <c r="K17">
-        <v>1.025346654133719</v>
+        <v>1.027129434090936</v>
       </c>
       <c r="L17">
-        <v>1.02241527366954</v>
+        <v>1.024471353407158</v>
       </c>
       <c r="M17">
-        <v>1.03475178881074</v>
+        <v>1.036525105095705</v>
       </c>
       <c r="N17">
-        <v>1.007913329918659</v>
+        <v>1.011427414952945</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.03721210111688</v>
+        <v>1.038613893609745</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.029073163457118</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.030350390987342</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.018829327057797</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9905365528147677</v>
+        <v>0.9928070879865246</v>
       </c>
       <c r="D18">
-        <v>1.011961397395408</v>
+        <v>1.013743216632865</v>
       </c>
       <c r="E18">
-        <v>1.008981023849478</v>
+        <v>1.011063595483833</v>
       </c>
       <c r="F18">
-        <v>1.02137888279778</v>
+        <v>1.023167997750091</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.046347548536573</v>
+        <v>1.046596856733222</v>
       </c>
       <c r="J18">
-        <v>1.017961907475242</v>
+        <v>1.020144616306018</v>
       </c>
       <c r="K18">
-        <v>1.025576807037849</v>
+        <v>1.027328867270522</v>
       </c>
       <c r="L18">
-        <v>1.022646513169829</v>
+        <v>1.024694050971442</v>
       </c>
       <c r="M18">
-        <v>1.034838517959473</v>
+        <v>1.036598455602763</v>
       </c>
       <c r="N18">
-        <v>1.007919667912565</v>
+        <v>1.011398869849039</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.037042189591928</v>
+        <v>1.038433698006084</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.029224142962452</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.030478530577025</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.018816175765872</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.990135195486322</v>
+        <v>0.9925593762183887</v>
       </c>
       <c r="D19">
-        <v>1.011505638609772</v>
+        <v>1.013427618190664</v>
       </c>
       <c r="E19">
-        <v>1.008466050685567</v>
+        <v>1.010694533878483</v>
       </c>
       <c r="F19">
-        <v>1.020730537093406</v>
+        <v>1.022647375436746</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.046247072215243</v>
+        <v>1.046517321998505</v>
       </c>
       <c r="J19">
-        <v>1.017439293669786</v>
+        <v>1.019770168367134</v>
       </c>
       <c r="K19">
-        <v>1.025065187337505</v>
+        <v>1.026955207395957</v>
       </c>
       <c r="L19">
-        <v>1.022076463637031</v>
+        <v>1.024267617007084</v>
       </c>
       <c r="M19">
-        <v>1.034138100218153</v>
+        <v>1.036023799353538</v>
       </c>
       <c r="N19">
-        <v>1.007593530893321</v>
+        <v>1.011194554743636</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.036161556321991</v>
+        <v>1.037652989419855</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.028868864287304</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.030221415333691</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.018640804940578</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9865172227423273</v>
+        <v>0.9895959909909009</v>
       </c>
       <c r="D20">
-        <v>1.008510141714964</v>
+        <v>1.011067241031659</v>
       </c>
       <c r="E20">
-        <v>1.00525322714836</v>
+        <v>1.008076760463168</v>
       </c>
       <c r="F20">
-        <v>1.017460655272371</v>
+        <v>1.019915358520456</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.045869009255211</v>
+        <v>1.046206665417852</v>
       </c>
       <c r="J20">
-        <v>1.014577962214848</v>
+        <v>1.017533945862932</v>
       </c>
       <c r="K20">
-        <v>1.022404983102357</v>
+        <v>1.024918238373135</v>
       </c>
       <c r="L20">
-        <v>1.019204329583328</v>
+        <v>1.021979061112017</v>
       </c>
       <c r="M20">
-        <v>1.031203274612019</v>
+        <v>1.033616832113433</v>
       </c>
       <c r="N20">
-        <v>1.006299424512771</v>
+        <v>1.010465285635004</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.033308798794053</v>
+        <v>1.03521888872563</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.02699194727699</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.028785560099293</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.017988303448661</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.979115157488558</v>
+        <v>0.9833981380576147</v>
       </c>
       <c r="D21">
-        <v>1.002884476174842</v>
+        <v>1.006618531441354</v>
       </c>
       <c r="E21">
-        <v>0.999308396012196</v>
+        <v>1.00320955870257</v>
       </c>
       <c r="F21">
-        <v>1.011931785434055</v>
+        <v>1.015371637516376</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.045288535930303</v>
+        <v>1.045735126105699</v>
       </c>
       <c r="J21">
-        <v>1.00951278222687</v>
+        <v>1.013606757424911</v>
       </c>
       <c r="K21">
-        <v>1.017811406561144</v>
+        <v>1.021475589322518</v>
       </c>
       <c r="L21">
-        <v>1.014302882900067</v>
+        <v>1.018130379073442</v>
       </c>
       <c r="M21">
-        <v>1.026690578367272</v>
+        <v>1.03006752643088</v>
       </c>
       <c r="N21">
-        <v>1.00430500016866</v>
+        <v>1.009710470398562</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.029696110503554</v>
+        <v>1.032368774202086</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.023747348350687</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.026355083845656</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.017086963938589</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9743615542151591</v>
+        <v>0.9794303624535444</v>
       </c>
       <c r="D22">
-        <v>0.9992850596542868</v>
+        <v>1.003784349235866</v>
       </c>
       <c r="E22">
-        <v>0.9955106872688373</v>
+        <v>1.000115535458336</v>
       </c>
       <c r="F22">
-        <v>1.008416003407927</v>
+        <v>1.012500009053792</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.044902991903093</v>
+        <v>1.045421475090276</v>
       </c>
       <c r="J22">
-        <v>1.006269796940728</v>
+        <v>1.011100699577968</v>
       </c>
       <c r="K22">
-        <v>1.014870692969621</v>
+        <v>1.01928120836726</v>
       </c>
       <c r="L22">
-        <v>1.011171606017868</v>
+        <v>1.015684703916153</v>
       </c>
       <c r="M22">
-        <v>1.023822561176512</v>
+        <v>1.027827839930236</v>
       </c>
       <c r="N22">
-        <v>1.003029481608426</v>
+        <v>1.009225569068374</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.027426228758867</v>
+        <v>1.030596189956741</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.021654378699783</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.024788581741281</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.016513540697793</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9768583494640871</v>
+        <v>0.9814912687118286</v>
       </c>
       <c r="D23">
-        <v>1.001165320438806</v>
+        <v>1.005242470366933</v>
       </c>
       <c r="E23">
-        <v>0.997499766036639</v>
+        <v>1.001712773905383</v>
       </c>
       <c r="F23">
-        <v>1.010257244941025</v>
+        <v>1.013982994917955</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.045105982832429</v>
+        <v>1.045583737018155</v>
       </c>
       <c r="J23">
-        <v>1.007963198910932</v>
+        <v>1.012385598515037</v>
       </c>
       <c r="K23">
-        <v>1.016401450250641</v>
+        <v>1.020400361574217</v>
       </c>
       <c r="L23">
-        <v>1.012806952174105</v>
+        <v>1.016938349856337</v>
       </c>
       <c r="M23">
-        <v>1.025320036349165</v>
+        <v>1.028975926268496</v>
       </c>
       <c r="N23">
-        <v>1.003691250293426</v>
+        <v>1.009422475031311</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.028611400953972</v>
+        <v>1.031504835437019</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.022726926252867</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.025569170044918</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.016798727997611</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9864688302736023</v>
+        <v>0.9895689034831056</v>
       </c>
       <c r="D24">
-        <v>1.008438852615419</v>
+        <v>1.011015081083517</v>
       </c>
       <c r="E24">
-        <v>1.00518245126275</v>
+        <v>1.008026234072406</v>
       </c>
       <c r="F24">
-        <v>1.017371512298685</v>
+        <v>1.019843822107264</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.045855038529077</v>
+        <v>1.046195579807947</v>
       </c>
       <c r="J24">
-        <v>1.014497888347353</v>
+        <v>1.017474488152584</v>
       </c>
       <c r="K24">
-        <v>1.022319375710587</v>
+        <v>1.024851481966471</v>
       </c>
       <c r="L24">
-        <v>1.019119164405072</v>
+        <v>1.021913851038528</v>
       </c>
       <c r="M24">
-        <v>1.031100281127309</v>
+        <v>1.033531194795497</v>
       </c>
       <c r="N24">
-        <v>1.006247973189263</v>
+        <v>1.010429659479625</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.033186139182119</v>
+        <v>1.03511006151639</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.026903681828939</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.028708005389491</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.017956138817812</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.997092843812653</v>
+        <v>0.9988561599575929</v>
       </c>
       <c r="D25">
-        <v>1.016517088871345</v>
+        <v>1.017731399306755</v>
       </c>
       <c r="E25">
-        <v>1.013708208139592</v>
+        <v>1.015369834625494</v>
       </c>
       <c r="F25">
-        <v>1.02527011523502</v>
+        <v>1.026648473145394</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.046609214439284</v>
+        <v>1.046839231888921</v>
       </c>
       <c r="J25">
-        <v>1.021718443022028</v>
+        <v>1.023422080296459</v>
       </c>
       <c r="K25">
-        <v>1.028864297201822</v>
+        <v>1.030060555497489</v>
       </c>
       <c r="L25">
-        <v>1.026097384652583</v>
+        <v>1.02773414868372</v>
       </c>
       <c r="M25">
-        <v>1.037488413380778</v>
+        <v>1.038846725547011</v>
       </c>
       <c r="N25">
-        <v>1.009062443829416</v>
+        <v>1.012190731840082</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.038241951441212</v>
+        <v>1.039316967022973</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.031528462732403</v>
+        <v>1.032387903074185</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.019338601457337</v>
       </c>
     </row>
   </sheetData>
